--- a/public/nilai-harian.xlsx
+++ b/public/nilai-harian.xlsx
@@ -4,18 +4,17 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="7" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
-    <sheet name="KD 1" sheetId="2" r:id="rId5"/>
-    <sheet name="KD 2" sheetId="3" r:id="rId6"/>
-    <sheet name="KD 3" sheetId="4" r:id="rId7"/>
-    <sheet name="KD 4" sheetId="5" r:id="rId8"/>
-    <sheet name="KD 5" sheetId="6" r:id="rId9"/>
-    <sheet name="KD 6" sheetId="7" r:id="rId10"/>
-    <sheet name="KD 7" sheetId="8" r:id="rId11"/>
-    <sheet name="KD 8" sheetId="9" r:id="rId12"/>
+    <sheet name="KD 1" sheetId="1" r:id="rId4"/>
+    <sheet name="KD 2" sheetId="2" r:id="rId5"/>
+    <sheet name="KD 3" sheetId="3" r:id="rId6"/>
+    <sheet name="KD 4" sheetId="4" r:id="rId7"/>
+    <sheet name="KD 5" sheetId="5" r:id="rId8"/>
+    <sheet name="KD 6" sheetId="6" r:id="rId9"/>
+    <sheet name="KD 7" sheetId="7" r:id="rId10"/>
+    <sheet name="KD 8" sheetId="8" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -204,7 +203,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -214,16 +213,55 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <gradientFill type="linear" degree="90">
+        <stop position="0">
+          <color rgb="FF7F7F7F"/>
+        </stop>
+        <stop position="1">
+          <color rgb="FF7F7F7F"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <gradientFill type="linear" degree="90">
+        <stop position="0">
+          <color rgb="FFFFFF00"/>
+        </stop>
+        <stop position="1">
+          <color rgb="FFFFFF00"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <gradientFill type="linear" degree="90">
+        <stop position="0">
+          <color rgb="FFBFBFBF"/>
+        </stop>
+        <stop position="1">
+          <color rgb="FFBFBFBF"/>
+        </stop>
+      </gradientFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -231,12 +269,82 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -536,14 +644,595 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="8.141" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="6.998" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="13.997" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="18.71" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="6.998" bestFit="true" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="6">
+        <v>1</v>
+      </c>
+      <c r="B7" s="6">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="6">
+        <v>2</v>
+      </c>
+      <c r="B8" s="6">
+        <v>10</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="6">
+        <v>3</v>
+      </c>
+      <c r="B9" s="6">
+        <v>11</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="6">
+        <v>4</v>
+      </c>
+      <c r="B10" s="6">
+        <v>12</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="6">
+        <v>5</v>
+      </c>
+      <c r="B11" s="6">
+        <v>13</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="6">
+        <v>6</v>
+      </c>
+      <c r="B12" s="6">
+        <v>14</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="6">
+        <v>7</v>
+      </c>
+      <c r="B13" s="6">
+        <v>15</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="6">
+        <v>8</v>
+      </c>
+      <c r="B14" s="6">
+        <v>16</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="6">
+        <v>9</v>
+      </c>
+      <c r="B15" s="6">
+        <v>17</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="6">
+        <v>10</v>
+      </c>
+      <c r="B16" s="6">
+        <v>18</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="6">
+        <v>11</v>
+      </c>
+      <c r="B17" s="6">
+        <v>19</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="6">
+        <v>12</v>
+      </c>
+      <c r="B18" s="6">
+        <v>20</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="6">
+        <v>13</v>
+      </c>
+      <c r="B19" s="6">
+        <v>21</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="6">
+        <v>14</v>
+      </c>
+      <c r="B20" s="6">
+        <v>22</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="6">
+        <v>15</v>
+      </c>
+      <c r="B21" s="6">
+        <v>23</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="6">
+        <v>16</v>
+      </c>
+      <c r="B22" s="6">
+        <v>24</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="6">
+        <v>17</v>
+      </c>
+      <c r="B23" s="6">
+        <v>25</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="6">
+        <v>18</v>
+      </c>
+      <c r="B24" s="6">
+        <v>26</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="6">
+        <v>19</v>
+      </c>
+      <c r="B25" s="6">
+        <v>27</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="6">
+        <v>20</v>
+      </c>
+      <c r="B26" s="6">
+        <v>28</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="6">
+        <v>21</v>
+      </c>
+      <c r="B27" s="6">
+        <v>29</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="6">
+        <v>22</v>
+      </c>
+      <c r="B28" s="6">
+        <v>3</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="6">
+        <v>23</v>
+      </c>
+      <c r="B29" s="6">
+        <v>30</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="6">
+        <v>24</v>
+      </c>
+      <c r="B30" s="6">
+        <v>31</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="6">
+        <v>25</v>
+      </c>
+      <c r="B31" s="6">
+        <v>32</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="6">
+        <v>26</v>
+      </c>
+      <c r="B32" s="6">
+        <v>33</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="6">
+        <v>27</v>
+      </c>
+      <c r="B33" s="6">
+        <v>34</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="6">
+        <v>28</v>
+      </c>
+      <c r="B34" s="6">
+        <v>35</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="6">
+        <v>29</v>
+      </c>
+      <c r="B35" s="6">
+        <v>36</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="6">
+        <v>30</v>
+      </c>
+      <c r="B36" s="6">
+        <v>37</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="6">
+        <v>31</v>
+      </c>
+      <c r="B37" s="6">
+        <v>38</v>
+      </c>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="6">
+        <v>32</v>
+      </c>
+      <c r="B38" s="6">
+        <v>39</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="6">
+        <v>33</v>
+      </c>
+      <c r="B39" s="6">
+        <v>4</v>
+      </c>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="6">
+        <v>34</v>
+      </c>
+      <c r="B40" s="6">
+        <v>40</v>
+      </c>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="6">
+        <v>35</v>
+      </c>
+      <c r="B41" s="6">
+        <v>5</v>
+      </c>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="6">
+        <v>36</v>
+      </c>
+      <c r="B42" s="6">
+        <v>6</v>
+      </c>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="6">
+        <v>37</v>
+      </c>
+      <c r="B43" s="6">
+        <v>7</v>
+      </c>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="6">
+        <v>38</v>
+      </c>
+      <c r="B44" s="6">
+        <v>8</v>
+      </c>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="6">
+        <v>39</v>
+      </c>
+      <c r="B45" s="6">
+        <v>9</v>
+      </c>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="6">
+        <v>40</v>
+      </c>
+      <c r="B46" s="6">
+        <v>12345</v>
+      </c>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E46" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:E3"/>
+  </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
@@ -567,10 +1256,17 @@
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="8.141" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="6.998" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="13.997" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="18.71" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="6.998" bestFit="true" customWidth="true" style="0"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -578,563 +1274,567 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="6">
+        <v>1</v>
+      </c>
+      <c r="B7" s="6">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="6">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B8" s="6">
+        <v>10</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="6">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B9" s="6">
+        <v>11</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
+      <c r="B10" s="6">
+        <v>12</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="6">
         <v>5</v>
       </c>
-      <c r="B3"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
+      <c r="B11" s="6">
+        <v>13</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="6">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B12" s="6">
+        <v>14</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="6">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B13" s="6">
+        <v>15</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="6">
         <v>8</v>
       </c>
-      <c r="D6" t="s">
+      <c r="B14" s="6">
+        <v>16</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="6">
         <v>9</v>
       </c>
-      <c r="E6" t="s">
+      <c r="B15" s="6">
+        <v>17</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="B16" s="6">
+        <v>18</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="6">
         <v>11</v>
       </c>
-      <c r="E7"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8">
-        <v>10</v>
-      </c>
-      <c r="C8"/>
-      <c r="D8" t="s">
+      <c r="B17" s="6">
+        <v>19</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="6">
         <v>12</v>
       </c>
-      <c r="E8"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
+      <c r="B18" s="6">
+        <v>20</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="6">
+        <v>13</v>
+      </c>
+      <c r="B19" s="6">
+        <v>21</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="6">
+        <v>14</v>
+      </c>
+      <c r="B20" s="6">
+        <v>22</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="6">
+        <v>15</v>
+      </c>
+      <c r="B21" s="6">
+        <v>23</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="6">
+        <v>16</v>
+      </c>
+      <c r="B22" s="6">
+        <v>24</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="6">
+        <v>17</v>
+      </c>
+      <c r="B23" s="6">
+        <v>25</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="6">
+        <v>18</v>
+      </c>
+      <c r="B24" s="6">
+        <v>26</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="6">
+        <v>19</v>
+      </c>
+      <c r="B25" s="6">
+        <v>27</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="6">
+        <v>20</v>
+      </c>
+      <c r="B26" s="6">
+        <v>28</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="6">
+        <v>21</v>
+      </c>
+      <c r="B27" s="6">
+        <v>29</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="6">
+        <v>22</v>
+      </c>
+      <c r="B28" s="6">
         <v>3</v>
       </c>
-      <c r="B9">
-        <v>11</v>
-      </c>
-      <c r="C9"/>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10">
+      <c r="C28" s="6"/>
+      <c r="D28" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="6">
+        <v>23</v>
+      </c>
+      <c r="B29" s="6">
+        <v>30</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="6">
+        <v>24</v>
+      </c>
+      <c r="B30" s="6">
+        <v>31</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="6">
+        <v>25</v>
+      </c>
+      <c r="B31" s="6">
+        <v>32</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="6">
+        <v>26</v>
+      </c>
+      <c r="B32" s="6">
+        <v>33</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="6">
+        <v>27</v>
+      </c>
+      <c r="B33" s="6">
+        <v>34</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="6">
+        <v>28</v>
+      </c>
+      <c r="B34" s="6">
+        <v>35</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="6">
+        <v>29</v>
+      </c>
+      <c r="B35" s="6">
+        <v>36</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="6">
+        <v>30</v>
+      </c>
+      <c r="B36" s="6">
+        <v>37</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="6">
+        <v>31</v>
+      </c>
+      <c r="B37" s="6">
+        <v>38</v>
+      </c>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="6">
+        <v>32</v>
+      </c>
+      <c r="B38" s="6">
+        <v>39</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="6">
+        <v>33</v>
+      </c>
+      <c r="B39" s="6">
         <v>4</v>
       </c>
-      <c r="B10">
-        <v>12</v>
-      </c>
-      <c r="C10"/>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11">
+      <c r="C39" s="6"/>
+      <c r="D39" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="6">
+        <v>34</v>
+      </c>
+      <c r="B40" s="6">
+        <v>40</v>
+      </c>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="6">
+        <v>35</v>
+      </c>
+      <c r="B41" s="6">
         <v>5</v>
       </c>
-      <c r="B11">
-        <v>13</v>
-      </c>
-      <c r="C11"/>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12">
+      <c r="C41" s="6"/>
+      <c r="D41" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="6">
+        <v>36</v>
+      </c>
+      <c r="B42" s="6">
         <v>6</v>
       </c>
-      <c r="B12">
-        <v>14</v>
-      </c>
-      <c r="C12"/>
-      <c r="D12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13">
+      <c r="C42" s="6"/>
+      <c r="D42" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="6">
+        <v>37</v>
+      </c>
+      <c r="B43" s="6">
         <v>7</v>
       </c>
-      <c r="B13">
-        <v>15</v>
-      </c>
-      <c r="C13"/>
-      <c r="D13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14">
+      <c r="C43" s="6"/>
+      <c r="D43" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="6">
+        <v>38</v>
+      </c>
+      <c r="B44" s="6">
         <v>8</v>
       </c>
-      <c r="B14">
-        <v>16</v>
-      </c>
-      <c r="C14"/>
-      <c r="D14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15">
+      <c r="C44" s="6"/>
+      <c r="D44" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="6">
+        <v>39</v>
+      </c>
+      <c r="B45" s="6">
         <v>9</v>
       </c>
-      <c r="B15">
-        <v>17</v>
-      </c>
-      <c r="C15"/>
-      <c r="D15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16">
-        <v>10</v>
-      </c>
-      <c r="B16">
-        <v>18</v>
-      </c>
-      <c r="C16"/>
-      <c r="D16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17">
-        <v>11</v>
-      </c>
-      <c r="B17">
-        <v>19</v>
-      </c>
-      <c r="C17"/>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18">
-        <v>12</v>
-      </c>
-      <c r="B18">
-        <v>20</v>
-      </c>
-      <c r="C18"/>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19">
-        <v>13</v>
-      </c>
-      <c r="B19">
-        <v>21</v>
-      </c>
-      <c r="C19"/>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20">
-        <v>14</v>
-      </c>
-      <c r="B20">
-        <v>22</v>
-      </c>
-      <c r="C20"/>
-      <c r="D20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21">
-        <v>15</v>
-      </c>
-      <c r="B21">
-        <v>23</v>
-      </c>
-      <c r="C21"/>
-      <c r="D21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22">
-        <v>16</v>
-      </c>
-      <c r="B22">
-        <v>24</v>
-      </c>
-      <c r="C22"/>
-      <c r="D22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23">
-        <v>17</v>
-      </c>
-      <c r="B23">
-        <v>25</v>
-      </c>
-      <c r="C23"/>
-      <c r="D23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24">
-        <v>18</v>
-      </c>
-      <c r="B24">
-        <v>26</v>
-      </c>
-      <c r="C24"/>
-      <c r="D24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25">
-        <v>19</v>
-      </c>
-      <c r="B25">
-        <v>27</v>
-      </c>
-      <c r="C25"/>
-      <c r="D25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26">
-        <v>20</v>
-      </c>
-      <c r="B26">
-        <v>28</v>
-      </c>
-      <c r="C26"/>
-      <c r="D26" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27">
-        <v>21</v>
-      </c>
-      <c r="B27">
-        <v>29</v>
-      </c>
-      <c r="C27"/>
-      <c r="D27" t="s">
-        <v>31</v>
-      </c>
-      <c r="E27"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28">
-        <v>22</v>
-      </c>
-      <c r="B28">
-        <v>3</v>
-      </c>
-      <c r="C28"/>
-      <c r="D28" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29">
-        <v>23</v>
-      </c>
-      <c r="B29">
-        <v>30</v>
-      </c>
-      <c r="C29"/>
-      <c r="D29" t="s">
-        <v>33</v>
-      </c>
-      <c r="E29"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30">
-        <v>24</v>
-      </c>
-      <c r="B30">
-        <v>31</v>
-      </c>
-      <c r="C30"/>
-      <c r="D30" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31">
-        <v>25</v>
-      </c>
-      <c r="B31">
-        <v>32</v>
-      </c>
-      <c r="C31"/>
-      <c r="D31" t="s">
-        <v>35</v>
-      </c>
-      <c r="E31"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32">
-        <v>26</v>
-      </c>
-      <c r="B32">
-        <v>33</v>
-      </c>
-      <c r="C32"/>
-      <c r="D32" t="s">
-        <v>36</v>
-      </c>
-      <c r="E32"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33">
-        <v>27</v>
-      </c>
-      <c r="B33">
-        <v>34</v>
-      </c>
-      <c r="C33"/>
-      <c r="D33" t="s">
-        <v>37</v>
-      </c>
-      <c r="E33"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34">
-        <v>28</v>
-      </c>
-      <c r="B34">
-        <v>35</v>
-      </c>
-      <c r="C34"/>
-      <c r="D34" t="s">
-        <v>38</v>
-      </c>
-      <c r="E34"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35">
-        <v>29</v>
-      </c>
-      <c r="B35">
-        <v>36</v>
-      </c>
-      <c r="C35"/>
-      <c r="D35" t="s">
-        <v>39</v>
-      </c>
-      <c r="E35"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36">
-        <v>30</v>
-      </c>
-      <c r="B36">
-        <v>37</v>
-      </c>
-      <c r="C36"/>
-      <c r="D36" t="s">
+      <c r="C45" s="6"/>
+      <c r="D45" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="6">
         <v>40</v>
       </c>
-      <c r="E36"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37">
-        <v>31</v>
-      </c>
-      <c r="B37">
-        <v>38</v>
-      </c>
-      <c r="C37"/>
-      <c r="D37" t="s">
-        <v>41</v>
-      </c>
-      <c r="E37"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38">
-        <v>32</v>
-      </c>
-      <c r="B38">
-        <v>39</v>
-      </c>
-      <c r="C38"/>
-      <c r="D38" t="s">
-        <v>42</v>
-      </c>
-      <c r="E38"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39">
-        <v>33</v>
-      </c>
-      <c r="B39">
-        <v>4</v>
-      </c>
-      <c r="C39"/>
-      <c r="D39" t="s">
-        <v>43</v>
-      </c>
-      <c r="E39"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40">
-        <v>34</v>
-      </c>
-      <c r="B40">
-        <v>40</v>
-      </c>
-      <c r="C40"/>
-      <c r="D40" t="s">
-        <v>44</v>
-      </c>
-      <c r="E40"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41">
-        <v>35</v>
-      </c>
-      <c r="B41">
-        <v>5</v>
-      </c>
-      <c r="C41"/>
-      <c r="D41" t="s">
-        <v>45</v>
-      </c>
-      <c r="E41"/>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42">
-        <v>36</v>
-      </c>
-      <c r="B42">
-        <v>6</v>
-      </c>
-      <c r="C42"/>
-      <c r="D42" t="s">
-        <v>46</v>
-      </c>
-      <c r="E42"/>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43">
-        <v>37</v>
-      </c>
-      <c r="B43">
-        <v>7</v>
-      </c>
-      <c r="C43"/>
-      <c r="D43" t="s">
-        <v>47</v>
-      </c>
-      <c r="E43"/>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44">
-        <v>38</v>
-      </c>
-      <c r="B44">
-        <v>8</v>
-      </c>
-      <c r="C44"/>
-      <c r="D44" t="s">
-        <v>48</v>
-      </c>
-      <c r="E44"/>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45">
-        <v>39</v>
-      </c>
-      <c r="B45">
-        <v>9</v>
-      </c>
-      <c r="C45"/>
-      <c r="D45" t="s">
-        <v>49</v>
-      </c>
-      <c r="E45"/>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46">
-        <v>40</v>
-      </c>
-      <c r="B46">
+      <c r="B46" s="6">
         <v>12345</v>
       </c>
-      <c r="C46"/>
-      <c r="D46" t="s">
+      <c r="C46" s="6"/>
+      <c r="D46" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E46"/>
+      <c r="E46" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1165,10 +1865,17 @@
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="8.141" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="6.998" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="13.997" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="18.71" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="6.998" bestFit="true" customWidth="true" style="0"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -1176,563 +1883,567 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7">
+      <c r="A7" s="6">
         <v>1</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="6">
         <v>1</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="6">
         <v>1</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E7"/>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8">
+      <c r="A8" s="6">
         <v>2</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="6">
         <v>10</v>
       </c>
-      <c r="C8"/>
-      <c r="D8" t="s">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E8"/>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9">
+      <c r="A9" s="6">
         <v>3</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="6">
         <v>11</v>
       </c>
-      <c r="C9"/>
-      <c r="D9" t="s">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E9"/>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10">
+      <c r="A10" s="6">
         <v>4</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="6">
         <v>12</v>
       </c>
-      <c r="C10"/>
-      <c r="D10" t="s">
+      <c r="C10" s="6"/>
+      <c r="D10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E10"/>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11">
+      <c r="A11" s="6">
         <v>5</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="6">
         <v>13</v>
       </c>
-      <c r="C11"/>
-      <c r="D11" t="s">
+      <c r="C11" s="6"/>
+      <c r="D11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E11"/>
+      <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12">
+      <c r="A12" s="6">
         <v>6</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="6">
         <v>14</v>
       </c>
-      <c r="C12"/>
-      <c r="D12" t="s">
+      <c r="C12" s="6"/>
+      <c r="D12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E12"/>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13">
+      <c r="A13" s="6">
         <v>7</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="6">
         <v>15</v>
       </c>
-      <c r="C13"/>
-      <c r="D13" t="s">
+      <c r="C13" s="6"/>
+      <c r="D13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E13"/>
+      <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14">
+      <c r="A14" s="6">
         <v>8</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="6">
         <v>16</v>
       </c>
-      <c r="C14"/>
-      <c r="D14" t="s">
+      <c r="C14" s="6"/>
+      <c r="D14" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E14"/>
+      <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15">
+      <c r="A15" s="6">
         <v>9</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="6">
         <v>17</v>
       </c>
-      <c r="C15"/>
-      <c r="D15" t="s">
+      <c r="C15" s="6"/>
+      <c r="D15" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E15"/>
+      <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16">
+      <c r="A16" s="6">
         <v>10</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="6">
         <v>18</v>
       </c>
-      <c r="C16"/>
-      <c r="D16" t="s">
+      <c r="C16" s="6"/>
+      <c r="D16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E16"/>
+      <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17">
+      <c r="A17" s="6">
         <v>11</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="6">
         <v>19</v>
       </c>
-      <c r="C17"/>
-      <c r="D17" t="s">
+      <c r="C17" s="6"/>
+      <c r="D17" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E17"/>
+      <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18">
+      <c r="A18" s="6">
         <v>12</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="6">
         <v>20</v>
       </c>
-      <c r="C18"/>
-      <c r="D18" t="s">
+      <c r="C18" s="6"/>
+      <c r="D18" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E18"/>
+      <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19">
+      <c r="A19" s="6">
         <v>13</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="6">
         <v>21</v>
       </c>
-      <c r="C19"/>
-      <c r="D19" t="s">
+      <c r="C19" s="6"/>
+      <c r="D19" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E19"/>
+      <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20">
+      <c r="A20" s="6">
         <v>14</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="6">
         <v>22</v>
       </c>
-      <c r="C20"/>
-      <c r="D20" t="s">
+      <c r="C20" s="6"/>
+      <c r="D20" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E20"/>
+      <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21">
+      <c r="A21" s="6">
         <v>15</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="6">
         <v>23</v>
       </c>
-      <c r="C21"/>
-      <c r="D21" t="s">
+      <c r="C21" s="6"/>
+      <c r="D21" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E21"/>
+      <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22">
+      <c r="A22" s="6">
         <v>16</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="6">
         <v>24</v>
       </c>
-      <c r="C22"/>
-      <c r="D22" t="s">
+      <c r="C22" s="6"/>
+      <c r="D22" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E22"/>
+      <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23">
+      <c r="A23" s="6">
         <v>17</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="6">
         <v>25</v>
       </c>
-      <c r="C23"/>
-      <c r="D23" t="s">
+      <c r="C23" s="6"/>
+      <c r="D23" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E23"/>
+      <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24">
+      <c r="A24" s="6">
         <v>18</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="6">
         <v>26</v>
       </c>
-      <c r="C24"/>
-      <c r="D24" t="s">
+      <c r="C24" s="6"/>
+      <c r="D24" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E24"/>
+      <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25">
+      <c r="A25" s="6">
         <v>19</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="6">
         <v>27</v>
       </c>
-      <c r="C25"/>
-      <c r="D25" t="s">
+      <c r="C25" s="6"/>
+      <c r="D25" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E25"/>
+      <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26">
+      <c r="A26" s="6">
         <v>20</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="6">
         <v>28</v>
       </c>
-      <c r="C26"/>
-      <c r="D26" t="s">
+      <c r="C26" s="6"/>
+      <c r="D26" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E26"/>
+      <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27">
+      <c r="A27" s="6">
         <v>21</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="6">
         <v>29</v>
       </c>
-      <c r="C27"/>
-      <c r="D27" t="s">
+      <c r="C27" s="6"/>
+      <c r="D27" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E27"/>
+      <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28">
+      <c r="A28" s="6">
         <v>22</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="6">
         <v>3</v>
       </c>
-      <c r="C28"/>
-      <c r="D28" t="s">
+      <c r="C28" s="6"/>
+      <c r="D28" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E28"/>
+      <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29">
+      <c r="A29" s="6">
         <v>23</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="6">
         <v>30</v>
       </c>
-      <c r="C29"/>
-      <c r="D29" t="s">
+      <c r="C29" s="6"/>
+      <c r="D29" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E29"/>
+      <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30">
+      <c r="A30" s="6">
         <v>24</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="6">
         <v>31</v>
       </c>
-      <c r="C30"/>
-      <c r="D30" t="s">
+      <c r="C30" s="6"/>
+      <c r="D30" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E30"/>
+      <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31">
+      <c r="A31" s="6">
         <v>25</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="6">
         <v>32</v>
       </c>
-      <c r="C31"/>
-      <c r="D31" t="s">
+      <c r="C31" s="6"/>
+      <c r="D31" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E31"/>
+      <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32">
+      <c r="A32" s="6">
         <v>26</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="6">
         <v>33</v>
       </c>
-      <c r="C32"/>
-      <c r="D32" t="s">
+      <c r="C32" s="6"/>
+      <c r="D32" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E32"/>
+      <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33">
+      <c r="A33" s="6">
         <v>27</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="6">
         <v>34</v>
       </c>
-      <c r="C33"/>
-      <c r="D33" t="s">
+      <c r="C33" s="6"/>
+      <c r="D33" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E33"/>
+      <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34">
+      <c r="A34" s="6">
         <v>28</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="6">
         <v>35</v>
       </c>
-      <c r="C34"/>
-      <c r="D34" t="s">
+      <c r="C34" s="6"/>
+      <c r="D34" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E34"/>
+      <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35">
+      <c r="A35" s="6">
         <v>29</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="6">
         <v>36</v>
       </c>
-      <c r="C35"/>
-      <c r="D35" t="s">
+      <c r="C35" s="6"/>
+      <c r="D35" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E35"/>
+      <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36">
+      <c r="A36" s="6">
         <v>30</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="6">
         <v>37</v>
       </c>
-      <c r="C36"/>
-      <c r="D36" t="s">
+      <c r="C36" s="6"/>
+      <c r="D36" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E36"/>
+      <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37">
+      <c r="A37" s="6">
         <v>31</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="6">
         <v>38</v>
       </c>
-      <c r="C37"/>
-      <c r="D37" t="s">
+      <c r="C37" s="6"/>
+      <c r="D37" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E37"/>
+      <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38">
+      <c r="A38" s="6">
         <v>32</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="6">
         <v>39</v>
       </c>
-      <c r="C38"/>
-      <c r="D38" t="s">
+      <c r="C38" s="6"/>
+      <c r="D38" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E38"/>
+      <c r="E38" s="2"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39">
+      <c r="A39" s="6">
         <v>33</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="6">
         <v>4</v>
       </c>
-      <c r="C39"/>
-      <c r="D39" t="s">
+      <c r="C39" s="6"/>
+      <c r="D39" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E39"/>
+      <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40">
+      <c r="A40" s="6">
         <v>34</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="6">
         <v>40</v>
       </c>
-      <c r="C40"/>
-      <c r="D40" t="s">
+      <c r="C40" s="6"/>
+      <c r="D40" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E40"/>
+      <c r="E40" s="2"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41">
+      <c r="A41" s="6">
         <v>35</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="6">
         <v>5</v>
       </c>
-      <c r="C41"/>
-      <c r="D41" t="s">
+      <c r="C41" s="6"/>
+      <c r="D41" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E41"/>
+      <c r="E41" s="2"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42">
+      <c r="A42" s="6">
         <v>36</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="6">
         <v>6</v>
       </c>
-      <c r="C42"/>
-      <c r="D42" t="s">
+      <c r="C42" s="6"/>
+      <c r="D42" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E42"/>
+      <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43">
+      <c r="A43" s="6">
         <v>37</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="6">
         <v>7</v>
       </c>
-      <c r="C43"/>
-      <c r="D43" t="s">
+      <c r="C43" s="6"/>
+      <c r="D43" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E43"/>
+      <c r="E43" s="2"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44">
+      <c r="A44" s="6">
         <v>38</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="6">
         <v>8</v>
       </c>
-      <c r="C44"/>
-      <c r="D44" t="s">
+      <c r="C44" s="6"/>
+      <c r="D44" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E44"/>
+      <c r="E44" s="2"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45">
+      <c r="A45" s="6">
         <v>39</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="6">
         <v>9</v>
       </c>
-      <c r="C45"/>
-      <c r="D45" t="s">
+      <c r="C45" s="6"/>
+      <c r="D45" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E45"/>
+      <c r="E45" s="2"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46">
+      <c r="A46" s="6">
         <v>40</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="6">
         <v>12345</v>
       </c>
-      <c r="C46"/>
-      <c r="D46" t="s">
+      <c r="C46" s="6"/>
+      <c r="D46" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E46"/>
+      <c r="E46" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1763,10 +2474,17 @@
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="8.141" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="6.998" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="13.997" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="18.71" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="6.998" bestFit="true" customWidth="true" style="0"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -1774,563 +2492,567 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7">
+      <c r="A7" s="6">
         <v>1</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="6">
         <v>1</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="6">
         <v>1</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E7"/>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8">
+      <c r="A8" s="6">
         <v>2</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="6">
         <v>10</v>
       </c>
-      <c r="C8"/>
-      <c r="D8" t="s">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E8"/>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9">
+      <c r="A9" s="6">
         <v>3</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="6">
         <v>11</v>
       </c>
-      <c r="C9"/>
-      <c r="D9" t="s">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E9"/>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10">
+      <c r="A10" s="6">
         <v>4</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="6">
         <v>12</v>
       </c>
-      <c r="C10"/>
-      <c r="D10" t="s">
+      <c r="C10" s="6"/>
+      <c r="D10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E10"/>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11">
+      <c r="A11" s="6">
         <v>5</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="6">
         <v>13</v>
       </c>
-      <c r="C11"/>
-      <c r="D11" t="s">
+      <c r="C11" s="6"/>
+      <c r="D11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E11"/>
+      <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12">
+      <c r="A12" s="6">
         <v>6</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="6">
         <v>14</v>
       </c>
-      <c r="C12"/>
-      <c r="D12" t="s">
+      <c r="C12" s="6"/>
+      <c r="D12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E12"/>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13">
+      <c r="A13" s="6">
         <v>7</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="6">
         <v>15</v>
       </c>
-      <c r="C13"/>
-      <c r="D13" t="s">
+      <c r="C13" s="6"/>
+      <c r="D13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E13"/>
+      <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14">
+      <c r="A14" s="6">
         <v>8</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="6">
         <v>16</v>
       </c>
-      <c r="C14"/>
-      <c r="D14" t="s">
+      <c r="C14" s="6"/>
+      <c r="D14" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E14"/>
+      <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15">
+      <c r="A15" s="6">
         <v>9</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="6">
         <v>17</v>
       </c>
-      <c r="C15"/>
-      <c r="D15" t="s">
+      <c r="C15" s="6"/>
+      <c r="D15" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E15"/>
+      <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16">
+      <c r="A16" s="6">
         <v>10</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="6">
         <v>18</v>
       </c>
-      <c r="C16"/>
-      <c r="D16" t="s">
+      <c r="C16" s="6"/>
+      <c r="D16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E16"/>
+      <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17">
+      <c r="A17" s="6">
         <v>11</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="6">
         <v>19</v>
       </c>
-      <c r="C17"/>
-      <c r="D17" t="s">
+      <c r="C17" s="6"/>
+      <c r="D17" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E17"/>
+      <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18">
+      <c r="A18" s="6">
         <v>12</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="6">
         <v>20</v>
       </c>
-      <c r="C18"/>
-      <c r="D18" t="s">
+      <c r="C18" s="6"/>
+      <c r="D18" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E18"/>
+      <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19">
+      <c r="A19" s="6">
         <v>13</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="6">
         <v>21</v>
       </c>
-      <c r="C19"/>
-      <c r="D19" t="s">
+      <c r="C19" s="6"/>
+      <c r="D19" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E19"/>
+      <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20">
+      <c r="A20" s="6">
         <v>14</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="6">
         <v>22</v>
       </c>
-      <c r="C20"/>
-      <c r="D20" t="s">
+      <c r="C20" s="6"/>
+      <c r="D20" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E20"/>
+      <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21">
+      <c r="A21" s="6">
         <v>15</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="6">
         <v>23</v>
       </c>
-      <c r="C21"/>
-      <c r="D21" t="s">
+      <c r="C21" s="6"/>
+      <c r="D21" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E21"/>
+      <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22">
+      <c r="A22" s="6">
         <v>16</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="6">
         <v>24</v>
       </c>
-      <c r="C22"/>
-      <c r="D22" t="s">
+      <c r="C22" s="6"/>
+      <c r="D22" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E22"/>
+      <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23">
+      <c r="A23" s="6">
         <v>17</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="6">
         <v>25</v>
       </c>
-      <c r="C23"/>
-      <c r="D23" t="s">
+      <c r="C23" s="6"/>
+      <c r="D23" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E23"/>
+      <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24">
+      <c r="A24" s="6">
         <v>18</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="6">
         <v>26</v>
       </c>
-      <c r="C24"/>
-      <c r="D24" t="s">
+      <c r="C24" s="6"/>
+      <c r="D24" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E24"/>
+      <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25">
+      <c r="A25" s="6">
         <v>19</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="6">
         <v>27</v>
       </c>
-      <c r="C25"/>
-      <c r="D25" t="s">
+      <c r="C25" s="6"/>
+      <c r="D25" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E25"/>
+      <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26">
+      <c r="A26" s="6">
         <v>20</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="6">
         <v>28</v>
       </c>
-      <c r="C26"/>
-      <c r="D26" t="s">
+      <c r="C26" s="6"/>
+      <c r="D26" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E26"/>
+      <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27">
+      <c r="A27" s="6">
         <v>21</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="6">
         <v>29</v>
       </c>
-      <c r="C27"/>
-      <c r="D27" t="s">
+      <c r="C27" s="6"/>
+      <c r="D27" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E27"/>
+      <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28">
+      <c r="A28" s="6">
         <v>22</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="6">
         <v>3</v>
       </c>
-      <c r="C28"/>
-      <c r="D28" t="s">
+      <c r="C28" s="6"/>
+      <c r="D28" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E28"/>
+      <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29">
+      <c r="A29" s="6">
         <v>23</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="6">
         <v>30</v>
       </c>
-      <c r="C29"/>
-      <c r="D29" t="s">
+      <c r="C29" s="6"/>
+      <c r="D29" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E29"/>
+      <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30">
+      <c r="A30" s="6">
         <v>24</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="6">
         <v>31</v>
       </c>
-      <c r="C30"/>
-      <c r="D30" t="s">
+      <c r="C30" s="6"/>
+      <c r="D30" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E30"/>
+      <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31">
+      <c r="A31" s="6">
         <v>25</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="6">
         <v>32</v>
       </c>
-      <c r="C31"/>
-      <c r="D31" t="s">
+      <c r="C31" s="6"/>
+      <c r="D31" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E31"/>
+      <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32">
+      <c r="A32" s="6">
         <v>26</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="6">
         <v>33</v>
       </c>
-      <c r="C32"/>
-      <c r="D32" t="s">
+      <c r="C32" s="6"/>
+      <c r="D32" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E32"/>
+      <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33">
+      <c r="A33" s="6">
         <v>27</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="6">
         <v>34</v>
       </c>
-      <c r="C33"/>
-      <c r="D33" t="s">
+      <c r="C33" s="6"/>
+      <c r="D33" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E33"/>
+      <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34">
+      <c r="A34" s="6">
         <v>28</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="6">
         <v>35</v>
       </c>
-      <c r="C34"/>
-      <c r="D34" t="s">
+      <c r="C34" s="6"/>
+      <c r="D34" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E34"/>
+      <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35">
+      <c r="A35" s="6">
         <v>29</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="6">
         <v>36</v>
       </c>
-      <c r="C35"/>
-      <c r="D35" t="s">
+      <c r="C35" s="6"/>
+      <c r="D35" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E35"/>
+      <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36">
+      <c r="A36" s="6">
         <v>30</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="6">
         <v>37</v>
       </c>
-      <c r="C36"/>
-      <c r="D36" t="s">
+      <c r="C36" s="6"/>
+      <c r="D36" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E36"/>
+      <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37">
+      <c r="A37" s="6">
         <v>31</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="6">
         <v>38</v>
       </c>
-      <c r="C37"/>
-      <c r="D37" t="s">
+      <c r="C37" s="6"/>
+      <c r="D37" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E37"/>
+      <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38">
+      <c r="A38" s="6">
         <v>32</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="6">
         <v>39</v>
       </c>
-      <c r="C38"/>
-      <c r="D38" t="s">
+      <c r="C38" s="6"/>
+      <c r="D38" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E38"/>
+      <c r="E38" s="2"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39">
+      <c r="A39" s="6">
         <v>33</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="6">
         <v>4</v>
       </c>
-      <c r="C39"/>
-      <c r="D39" t="s">
+      <c r="C39" s="6"/>
+      <c r="D39" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E39"/>
+      <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40">
+      <c r="A40" s="6">
         <v>34</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="6">
         <v>40</v>
       </c>
-      <c r="C40"/>
-      <c r="D40" t="s">
+      <c r="C40" s="6"/>
+      <c r="D40" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E40"/>
+      <c r="E40" s="2"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41">
+      <c r="A41" s="6">
         <v>35</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="6">
         <v>5</v>
       </c>
-      <c r="C41"/>
-      <c r="D41" t="s">
+      <c r="C41" s="6"/>
+      <c r="D41" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E41"/>
+      <c r="E41" s="2"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42">
+      <c r="A42" s="6">
         <v>36</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="6">
         <v>6</v>
       </c>
-      <c r="C42"/>
-      <c r="D42" t="s">
+      <c r="C42" s="6"/>
+      <c r="D42" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E42"/>
+      <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43">
+      <c r="A43" s="6">
         <v>37</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="6">
         <v>7</v>
       </c>
-      <c r="C43"/>
-      <c r="D43" t="s">
+      <c r="C43" s="6"/>
+      <c r="D43" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E43"/>
+      <c r="E43" s="2"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44">
+      <c r="A44" s="6">
         <v>38</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="6">
         <v>8</v>
       </c>
-      <c r="C44"/>
-      <c r="D44" t="s">
+      <c r="C44" s="6"/>
+      <c r="D44" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E44"/>
+      <c r="E44" s="2"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45">
+      <c r="A45" s="6">
         <v>39</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="6">
         <v>9</v>
       </c>
-      <c r="C45"/>
-      <c r="D45" t="s">
+      <c r="C45" s="6"/>
+      <c r="D45" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E45"/>
+      <c r="E45" s="2"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46">
+      <c r="A46" s="6">
         <v>40</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="6">
         <v>12345</v>
       </c>
-      <c r="C46"/>
-      <c r="D46" t="s">
+      <c r="C46" s="6"/>
+      <c r="D46" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E46"/>
+      <c r="E46" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2361,10 +3083,17 @@
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="8.141" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="6.998" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="13.997" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="18.71" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="6.998" bestFit="true" customWidth="true" style="0"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -2372,563 +3101,567 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7">
+      <c r="A7" s="6">
         <v>1</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="6">
         <v>1</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="6">
         <v>1</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E7"/>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8">
+      <c r="A8" s="6">
         <v>2</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="6">
         <v>10</v>
       </c>
-      <c r="C8"/>
-      <c r="D8" t="s">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E8"/>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9">
+      <c r="A9" s="6">
         <v>3</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="6">
         <v>11</v>
       </c>
-      <c r="C9"/>
-      <c r="D9" t="s">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E9"/>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10">
+      <c r="A10" s="6">
         <v>4</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="6">
         <v>12</v>
       </c>
-      <c r="C10"/>
-      <c r="D10" t="s">
+      <c r="C10" s="6"/>
+      <c r="D10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E10"/>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11">
+      <c r="A11" s="6">
         <v>5</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="6">
         <v>13</v>
       </c>
-      <c r="C11"/>
-      <c r="D11" t="s">
+      <c r="C11" s="6"/>
+      <c r="D11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E11"/>
+      <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12">
+      <c r="A12" s="6">
         <v>6</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="6">
         <v>14</v>
       </c>
-      <c r="C12"/>
-      <c r="D12" t="s">
+      <c r="C12" s="6"/>
+      <c r="D12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E12"/>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13">
+      <c r="A13" s="6">
         <v>7</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="6">
         <v>15</v>
       </c>
-      <c r="C13"/>
-      <c r="D13" t="s">
+      <c r="C13" s="6"/>
+      <c r="D13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E13"/>
+      <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14">
+      <c r="A14" s="6">
         <v>8</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="6">
         <v>16</v>
       </c>
-      <c r="C14"/>
-      <c r="D14" t="s">
+      <c r="C14" s="6"/>
+      <c r="D14" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E14"/>
+      <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15">
+      <c r="A15" s="6">
         <v>9</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="6">
         <v>17</v>
       </c>
-      <c r="C15"/>
-      <c r="D15" t="s">
+      <c r="C15" s="6"/>
+      <c r="D15" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E15"/>
+      <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16">
+      <c r="A16" s="6">
         <v>10</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="6">
         <v>18</v>
       </c>
-      <c r="C16"/>
-      <c r="D16" t="s">
+      <c r="C16" s="6"/>
+      <c r="D16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E16"/>
+      <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17">
+      <c r="A17" s="6">
         <v>11</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="6">
         <v>19</v>
       </c>
-      <c r="C17"/>
-      <c r="D17" t="s">
+      <c r="C17" s="6"/>
+      <c r="D17" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E17"/>
+      <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18">
+      <c r="A18" s="6">
         <v>12</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="6">
         <v>20</v>
       </c>
-      <c r="C18"/>
-      <c r="D18" t="s">
+      <c r="C18" s="6"/>
+      <c r="D18" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E18"/>
+      <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19">
+      <c r="A19" s="6">
         <v>13</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="6">
         <v>21</v>
       </c>
-      <c r="C19"/>
-      <c r="D19" t="s">
+      <c r="C19" s="6"/>
+      <c r="D19" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E19"/>
+      <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20">
+      <c r="A20" s="6">
         <v>14</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="6">
         <v>22</v>
       </c>
-      <c r="C20"/>
-      <c r="D20" t="s">
+      <c r="C20" s="6"/>
+      <c r="D20" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E20"/>
+      <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21">
+      <c r="A21" s="6">
         <v>15</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="6">
         <v>23</v>
       </c>
-      <c r="C21"/>
-      <c r="D21" t="s">
+      <c r="C21" s="6"/>
+      <c r="D21" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E21"/>
+      <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22">
+      <c r="A22" s="6">
         <v>16</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="6">
         <v>24</v>
       </c>
-      <c r="C22"/>
-      <c r="D22" t="s">
+      <c r="C22" s="6"/>
+      <c r="D22" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E22"/>
+      <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23">
+      <c r="A23" s="6">
         <v>17</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="6">
         <v>25</v>
       </c>
-      <c r="C23"/>
-      <c r="D23" t="s">
+      <c r="C23" s="6"/>
+      <c r="D23" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E23"/>
+      <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24">
+      <c r="A24" s="6">
         <v>18</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="6">
         <v>26</v>
       </c>
-      <c r="C24"/>
-      <c r="D24" t="s">
+      <c r="C24" s="6"/>
+      <c r="D24" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E24"/>
+      <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25">
+      <c r="A25" s="6">
         <v>19</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="6">
         <v>27</v>
       </c>
-      <c r="C25"/>
-      <c r="D25" t="s">
+      <c r="C25" s="6"/>
+      <c r="D25" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E25"/>
+      <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26">
+      <c r="A26" s="6">
         <v>20</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="6">
         <v>28</v>
       </c>
-      <c r="C26"/>
-      <c r="D26" t="s">
+      <c r="C26" s="6"/>
+      <c r="D26" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E26"/>
+      <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27">
+      <c r="A27" s="6">
         <v>21</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="6">
         <v>29</v>
       </c>
-      <c r="C27"/>
-      <c r="D27" t="s">
+      <c r="C27" s="6"/>
+      <c r="D27" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E27"/>
+      <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28">
+      <c r="A28" s="6">
         <v>22</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="6">
         <v>3</v>
       </c>
-      <c r="C28"/>
-      <c r="D28" t="s">
+      <c r="C28" s="6"/>
+      <c r="D28" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E28"/>
+      <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29">
+      <c r="A29" s="6">
         <v>23</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="6">
         <v>30</v>
       </c>
-      <c r="C29"/>
-      <c r="D29" t="s">
+      <c r="C29" s="6"/>
+      <c r="D29" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E29"/>
+      <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30">
+      <c r="A30" s="6">
         <v>24</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="6">
         <v>31</v>
       </c>
-      <c r="C30"/>
-      <c r="D30" t="s">
+      <c r="C30" s="6"/>
+      <c r="D30" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E30"/>
+      <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31">
+      <c r="A31" s="6">
         <v>25</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="6">
         <v>32</v>
       </c>
-      <c r="C31"/>
-      <c r="D31" t="s">
+      <c r="C31" s="6"/>
+      <c r="D31" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E31"/>
+      <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32">
+      <c r="A32" s="6">
         <v>26</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="6">
         <v>33</v>
       </c>
-      <c r="C32"/>
-      <c r="D32" t="s">
+      <c r="C32" s="6"/>
+      <c r="D32" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E32"/>
+      <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33">
+      <c r="A33" s="6">
         <v>27</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="6">
         <v>34</v>
       </c>
-      <c r="C33"/>
-      <c r="D33" t="s">
+      <c r="C33" s="6"/>
+      <c r="D33" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E33"/>
+      <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34">
+      <c r="A34" s="6">
         <v>28</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="6">
         <v>35</v>
       </c>
-      <c r="C34"/>
-      <c r="D34" t="s">
+      <c r="C34" s="6"/>
+      <c r="D34" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E34"/>
+      <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35">
+      <c r="A35" s="6">
         <v>29</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="6">
         <v>36</v>
       </c>
-      <c r="C35"/>
-      <c r="D35" t="s">
+      <c r="C35" s="6"/>
+      <c r="D35" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E35"/>
+      <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36">
+      <c r="A36" s="6">
         <v>30</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="6">
         <v>37</v>
       </c>
-      <c r="C36"/>
-      <c r="D36" t="s">
+      <c r="C36" s="6"/>
+      <c r="D36" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E36"/>
+      <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37">
+      <c r="A37" s="6">
         <v>31</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="6">
         <v>38</v>
       </c>
-      <c r="C37"/>
-      <c r="D37" t="s">
+      <c r="C37" s="6"/>
+      <c r="D37" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E37"/>
+      <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38">
+      <c r="A38" s="6">
         <v>32</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="6">
         <v>39</v>
       </c>
-      <c r="C38"/>
-      <c r="D38" t="s">
+      <c r="C38" s="6"/>
+      <c r="D38" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E38"/>
+      <c r="E38" s="2"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39">
+      <c r="A39" s="6">
         <v>33</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="6">
         <v>4</v>
       </c>
-      <c r="C39"/>
-      <c r="D39" t="s">
+      <c r="C39" s="6"/>
+      <c r="D39" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E39"/>
+      <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40">
+      <c r="A40" s="6">
         <v>34</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="6">
         <v>40</v>
       </c>
-      <c r="C40"/>
-      <c r="D40" t="s">
+      <c r="C40" s="6"/>
+      <c r="D40" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E40"/>
+      <c r="E40" s="2"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41">
+      <c r="A41" s="6">
         <v>35</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="6">
         <v>5</v>
       </c>
-      <c r="C41"/>
-      <c r="D41" t="s">
+      <c r="C41" s="6"/>
+      <c r="D41" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E41"/>
+      <c r="E41" s="2"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42">
+      <c r="A42" s="6">
         <v>36</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="6">
         <v>6</v>
       </c>
-      <c r="C42"/>
-      <c r="D42" t="s">
+      <c r="C42" s="6"/>
+      <c r="D42" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E42"/>
+      <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43">
+      <c r="A43" s="6">
         <v>37</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="6">
         <v>7</v>
       </c>
-      <c r="C43"/>
-      <c r="D43" t="s">
+      <c r="C43" s="6"/>
+      <c r="D43" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E43"/>
+      <c r="E43" s="2"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44">
+      <c r="A44" s="6">
         <v>38</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="6">
         <v>8</v>
       </c>
-      <c r="C44"/>
-      <c r="D44" t="s">
+      <c r="C44" s="6"/>
+      <c r="D44" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E44"/>
+      <c r="E44" s="2"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45">
+      <c r="A45" s="6">
         <v>39</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="6">
         <v>9</v>
       </c>
-      <c r="C45"/>
-      <c r="D45" t="s">
+      <c r="C45" s="6"/>
+      <c r="D45" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E45"/>
+      <c r="E45" s="2"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46">
+      <c r="A46" s="6">
         <v>40</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="6">
         <v>12345</v>
       </c>
-      <c r="C46"/>
-      <c r="D46" t="s">
+      <c r="C46" s="6"/>
+      <c r="D46" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E46"/>
+      <c r="E46" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2959,10 +3692,17 @@
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="8.141" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="6.998" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="13.997" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="18.71" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="6.998" bestFit="true" customWidth="true" style="0"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -2970,563 +3710,567 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7">
+      <c r="A7" s="6">
         <v>1</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="6">
         <v>1</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="6">
         <v>1</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E7"/>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8">
+      <c r="A8" s="6">
         <v>2</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="6">
         <v>10</v>
       </c>
-      <c r="C8"/>
-      <c r="D8" t="s">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E8"/>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9">
+      <c r="A9" s="6">
         <v>3</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="6">
         <v>11</v>
       </c>
-      <c r="C9"/>
-      <c r="D9" t="s">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E9"/>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10">
+      <c r="A10" s="6">
         <v>4</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="6">
         <v>12</v>
       </c>
-      <c r="C10"/>
-      <c r="D10" t="s">
+      <c r="C10" s="6"/>
+      <c r="D10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E10"/>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11">
+      <c r="A11" s="6">
         <v>5</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="6">
         <v>13</v>
       </c>
-      <c r="C11"/>
-      <c r="D11" t="s">
+      <c r="C11" s="6"/>
+      <c r="D11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E11"/>
+      <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12">
+      <c r="A12" s="6">
         <v>6</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="6">
         <v>14</v>
       </c>
-      <c r="C12"/>
-      <c r="D12" t="s">
+      <c r="C12" s="6"/>
+      <c r="D12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E12"/>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13">
+      <c r="A13" s="6">
         <v>7</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="6">
         <v>15</v>
       </c>
-      <c r="C13"/>
-      <c r="D13" t="s">
+      <c r="C13" s="6"/>
+      <c r="D13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E13"/>
+      <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14">
+      <c r="A14" s="6">
         <v>8</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="6">
         <v>16</v>
       </c>
-      <c r="C14"/>
-      <c r="D14" t="s">
+      <c r="C14" s="6"/>
+      <c r="D14" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E14"/>
+      <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15">
+      <c r="A15" s="6">
         <v>9</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="6">
         <v>17</v>
       </c>
-      <c r="C15"/>
-      <c r="D15" t="s">
+      <c r="C15" s="6"/>
+      <c r="D15" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E15"/>
+      <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16">
+      <c r="A16" s="6">
         <v>10</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="6">
         <v>18</v>
       </c>
-      <c r="C16"/>
-      <c r="D16" t="s">
+      <c r="C16" s="6"/>
+      <c r="D16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E16"/>
+      <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17">
+      <c r="A17" s="6">
         <v>11</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="6">
         <v>19</v>
       </c>
-      <c r="C17"/>
-      <c r="D17" t="s">
+      <c r="C17" s="6"/>
+      <c r="D17" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E17"/>
+      <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18">
+      <c r="A18" s="6">
         <v>12</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="6">
         <v>20</v>
       </c>
-      <c r="C18"/>
-      <c r="D18" t="s">
+      <c r="C18" s="6"/>
+      <c r="D18" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E18"/>
+      <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19">
+      <c r="A19" s="6">
         <v>13</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="6">
         <v>21</v>
       </c>
-      <c r="C19"/>
-      <c r="D19" t="s">
+      <c r="C19" s="6"/>
+      <c r="D19" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E19"/>
+      <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20">
+      <c r="A20" s="6">
         <v>14</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="6">
         <v>22</v>
       </c>
-      <c r="C20"/>
-      <c r="D20" t="s">
+      <c r="C20" s="6"/>
+      <c r="D20" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E20"/>
+      <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21">
+      <c r="A21" s="6">
         <v>15</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="6">
         <v>23</v>
       </c>
-      <c r="C21"/>
-      <c r="D21" t="s">
+      <c r="C21" s="6"/>
+      <c r="D21" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E21"/>
+      <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22">
+      <c r="A22" s="6">
         <v>16</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="6">
         <v>24</v>
       </c>
-      <c r="C22"/>
-      <c r="D22" t="s">
+      <c r="C22" s="6"/>
+      <c r="D22" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E22"/>
+      <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23">
+      <c r="A23" s="6">
         <v>17</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="6">
         <v>25</v>
       </c>
-      <c r="C23"/>
-      <c r="D23" t="s">
+      <c r="C23" s="6"/>
+      <c r="D23" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E23"/>
+      <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24">
+      <c r="A24" s="6">
         <v>18</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="6">
         <v>26</v>
       </c>
-      <c r="C24"/>
-      <c r="D24" t="s">
+      <c r="C24" s="6"/>
+      <c r="D24" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E24"/>
+      <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25">
+      <c r="A25" s="6">
         <v>19</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="6">
         <v>27</v>
       </c>
-      <c r="C25"/>
-      <c r="D25" t="s">
+      <c r="C25" s="6"/>
+      <c r="D25" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E25"/>
+      <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26">
+      <c r="A26" s="6">
         <v>20</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="6">
         <v>28</v>
       </c>
-      <c r="C26"/>
-      <c r="D26" t="s">
+      <c r="C26" s="6"/>
+      <c r="D26" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E26"/>
+      <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27">
+      <c r="A27" s="6">
         <v>21</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="6">
         <v>29</v>
       </c>
-      <c r="C27"/>
-      <c r="D27" t="s">
+      <c r="C27" s="6"/>
+      <c r="D27" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E27"/>
+      <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28">
+      <c r="A28" s="6">
         <v>22</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="6">
         <v>3</v>
       </c>
-      <c r="C28"/>
-      <c r="D28" t="s">
+      <c r="C28" s="6"/>
+      <c r="D28" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E28"/>
+      <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29">
+      <c r="A29" s="6">
         <v>23</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="6">
         <v>30</v>
       </c>
-      <c r="C29"/>
-      <c r="D29" t="s">
+      <c r="C29" s="6"/>
+      <c r="D29" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E29"/>
+      <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30">
+      <c r="A30" s="6">
         <v>24</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="6">
         <v>31</v>
       </c>
-      <c r="C30"/>
-      <c r="D30" t="s">
+      <c r="C30" s="6"/>
+      <c r="D30" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E30"/>
+      <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31">
+      <c r="A31" s="6">
         <v>25</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="6">
         <v>32</v>
       </c>
-      <c r="C31"/>
-      <c r="D31" t="s">
+      <c r="C31" s="6"/>
+      <c r="D31" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E31"/>
+      <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32">
+      <c r="A32" s="6">
         <v>26</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="6">
         <v>33</v>
       </c>
-      <c r="C32"/>
-      <c r="D32" t="s">
+      <c r="C32" s="6"/>
+      <c r="D32" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E32"/>
+      <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33">
+      <c r="A33" s="6">
         <v>27</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="6">
         <v>34</v>
       </c>
-      <c r="C33"/>
-      <c r="D33" t="s">
+      <c r="C33" s="6"/>
+      <c r="D33" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E33"/>
+      <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34">
+      <c r="A34" s="6">
         <v>28</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="6">
         <v>35</v>
       </c>
-      <c r="C34"/>
-      <c r="D34" t="s">
+      <c r="C34" s="6"/>
+      <c r="D34" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E34"/>
+      <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35">
+      <c r="A35" s="6">
         <v>29</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="6">
         <v>36</v>
       </c>
-      <c r="C35"/>
-      <c r="D35" t="s">
+      <c r="C35" s="6"/>
+      <c r="D35" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E35"/>
+      <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36">
+      <c r="A36" s="6">
         <v>30</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="6">
         <v>37</v>
       </c>
-      <c r="C36"/>
-      <c r="D36" t="s">
+      <c r="C36" s="6"/>
+      <c r="D36" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E36"/>
+      <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37">
+      <c r="A37" s="6">
         <v>31</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="6">
         <v>38</v>
       </c>
-      <c r="C37"/>
-      <c r="D37" t="s">
+      <c r="C37" s="6"/>
+      <c r="D37" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E37"/>
+      <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38">
+      <c r="A38" s="6">
         <v>32</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="6">
         <v>39</v>
       </c>
-      <c r="C38"/>
-      <c r="D38" t="s">
+      <c r="C38" s="6"/>
+      <c r="D38" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E38"/>
+      <c r="E38" s="2"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39">
+      <c r="A39" s="6">
         <v>33</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="6">
         <v>4</v>
       </c>
-      <c r="C39"/>
-      <c r="D39" t="s">
+      <c r="C39" s="6"/>
+      <c r="D39" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E39"/>
+      <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40">
+      <c r="A40" s="6">
         <v>34</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="6">
         <v>40</v>
       </c>
-      <c r="C40"/>
-      <c r="D40" t="s">
+      <c r="C40" s="6"/>
+      <c r="D40" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E40"/>
+      <c r="E40" s="2"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41">
+      <c r="A41" s="6">
         <v>35</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="6">
         <v>5</v>
       </c>
-      <c r="C41"/>
-      <c r="D41" t="s">
+      <c r="C41" s="6"/>
+      <c r="D41" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E41"/>
+      <c r="E41" s="2"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42">
+      <c r="A42" s="6">
         <v>36</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="6">
         <v>6</v>
       </c>
-      <c r="C42"/>
-      <c r="D42" t="s">
+      <c r="C42" s="6"/>
+      <c r="D42" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E42"/>
+      <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43">
+      <c r="A43" s="6">
         <v>37</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="6">
         <v>7</v>
       </c>
-      <c r="C43"/>
-      <c r="D43" t="s">
+      <c r="C43" s="6"/>
+      <c r="D43" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E43"/>
+      <c r="E43" s="2"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44">
+      <c r="A44" s="6">
         <v>38</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="6">
         <v>8</v>
       </c>
-      <c r="C44"/>
-      <c r="D44" t="s">
+      <c r="C44" s="6"/>
+      <c r="D44" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E44"/>
+      <c r="E44" s="2"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45">
+      <c r="A45" s="6">
         <v>39</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="6">
         <v>9</v>
       </c>
-      <c r="C45"/>
-      <c r="D45" t="s">
+      <c r="C45" s="6"/>
+      <c r="D45" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E45"/>
+      <c r="E45" s="2"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46">
+      <c r="A46" s="6">
         <v>40</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="6">
         <v>12345</v>
       </c>
-      <c r="C46"/>
-      <c r="D46" t="s">
+      <c r="C46" s="6"/>
+      <c r="D46" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E46"/>
+      <c r="E46" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -3557,10 +4301,17 @@
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="8.141" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="6.998" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="13.997" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="18.71" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="6.998" bestFit="true" customWidth="true" style="0"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -3568,563 +4319,567 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7">
+      <c r="A7" s="6">
         <v>1</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="6">
         <v>1</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="6">
         <v>1</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E7"/>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8">
+      <c r="A8" s="6">
         <v>2</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="6">
         <v>10</v>
       </c>
-      <c r="C8"/>
-      <c r="D8" t="s">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E8"/>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9">
+      <c r="A9" s="6">
         <v>3</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="6">
         <v>11</v>
       </c>
-      <c r="C9"/>
-      <c r="D9" t="s">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E9"/>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10">
+      <c r="A10" s="6">
         <v>4</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="6">
         <v>12</v>
       </c>
-      <c r="C10"/>
-      <c r="D10" t="s">
+      <c r="C10" s="6"/>
+      <c r="D10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E10"/>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11">
+      <c r="A11" s="6">
         <v>5</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="6">
         <v>13</v>
       </c>
-      <c r="C11"/>
-      <c r="D11" t="s">
+      <c r="C11" s="6"/>
+      <c r="D11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E11"/>
+      <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12">
+      <c r="A12" s="6">
         <v>6</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="6">
         <v>14</v>
       </c>
-      <c r="C12"/>
-      <c r="D12" t="s">
+      <c r="C12" s="6"/>
+      <c r="D12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E12"/>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13">
+      <c r="A13" s="6">
         <v>7</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="6">
         <v>15</v>
       </c>
-      <c r="C13"/>
-      <c r="D13" t="s">
+      <c r="C13" s="6"/>
+      <c r="D13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E13"/>
+      <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14">
+      <c r="A14" s="6">
         <v>8</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="6">
         <v>16</v>
       </c>
-      <c r="C14"/>
-      <c r="D14" t="s">
+      <c r="C14" s="6"/>
+      <c r="D14" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E14"/>
+      <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15">
+      <c r="A15" s="6">
         <v>9</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="6">
         <v>17</v>
       </c>
-      <c r="C15"/>
-      <c r="D15" t="s">
+      <c r="C15" s="6"/>
+      <c r="D15" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E15"/>
+      <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16">
+      <c r="A16" s="6">
         <v>10</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="6">
         <v>18</v>
       </c>
-      <c r="C16"/>
-      <c r="D16" t="s">
+      <c r="C16" s="6"/>
+      <c r="D16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E16"/>
+      <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17">
+      <c r="A17" s="6">
         <v>11</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="6">
         <v>19</v>
       </c>
-      <c r="C17"/>
-      <c r="D17" t="s">
+      <c r="C17" s="6"/>
+      <c r="D17" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E17"/>
+      <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18">
+      <c r="A18" s="6">
         <v>12</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="6">
         <v>20</v>
       </c>
-      <c r="C18"/>
-      <c r="D18" t="s">
+      <c r="C18" s="6"/>
+      <c r="D18" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E18"/>
+      <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19">
+      <c r="A19" s="6">
         <v>13</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="6">
         <v>21</v>
       </c>
-      <c r="C19"/>
-      <c r="D19" t="s">
+      <c r="C19" s="6"/>
+      <c r="D19" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E19"/>
+      <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20">
+      <c r="A20" s="6">
         <v>14</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="6">
         <v>22</v>
       </c>
-      <c r="C20"/>
-      <c r="D20" t="s">
+      <c r="C20" s="6"/>
+      <c r="D20" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E20"/>
+      <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21">
+      <c r="A21" s="6">
         <v>15</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="6">
         <v>23</v>
       </c>
-      <c r="C21"/>
-      <c r="D21" t="s">
+      <c r="C21" s="6"/>
+      <c r="D21" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E21"/>
+      <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22">
+      <c r="A22" s="6">
         <v>16</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="6">
         <v>24</v>
       </c>
-      <c r="C22"/>
-      <c r="D22" t="s">
+      <c r="C22" s="6"/>
+      <c r="D22" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E22"/>
+      <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23">
+      <c r="A23" s="6">
         <v>17</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="6">
         <v>25</v>
       </c>
-      <c r="C23"/>
-      <c r="D23" t="s">
+      <c r="C23" s="6"/>
+      <c r="D23" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E23"/>
+      <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24">
+      <c r="A24" s="6">
         <v>18</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="6">
         <v>26</v>
       </c>
-      <c r="C24"/>
-      <c r="D24" t="s">
+      <c r="C24" s="6"/>
+      <c r="D24" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E24"/>
+      <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25">
+      <c r="A25" s="6">
         <v>19</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="6">
         <v>27</v>
       </c>
-      <c r="C25"/>
-      <c r="D25" t="s">
+      <c r="C25" s="6"/>
+      <c r="D25" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E25"/>
+      <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26">
+      <c r="A26" s="6">
         <v>20</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="6">
         <v>28</v>
       </c>
-      <c r="C26"/>
-      <c r="D26" t="s">
+      <c r="C26" s="6"/>
+      <c r="D26" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E26"/>
+      <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27">
+      <c r="A27" s="6">
         <v>21</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="6">
         <v>29</v>
       </c>
-      <c r="C27"/>
-      <c r="D27" t="s">
+      <c r="C27" s="6"/>
+      <c r="D27" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E27"/>
+      <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28">
+      <c r="A28" s="6">
         <v>22</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="6">
         <v>3</v>
       </c>
-      <c r="C28"/>
-      <c r="D28" t="s">
+      <c r="C28" s="6"/>
+      <c r="D28" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E28"/>
+      <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29">
+      <c r="A29" s="6">
         <v>23</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="6">
         <v>30</v>
       </c>
-      <c r="C29"/>
-      <c r="D29" t="s">
+      <c r="C29" s="6"/>
+      <c r="D29" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E29"/>
+      <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30">
+      <c r="A30" s="6">
         <v>24</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="6">
         <v>31</v>
       </c>
-      <c r="C30"/>
-      <c r="D30" t="s">
+      <c r="C30" s="6"/>
+      <c r="D30" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E30"/>
+      <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31">
+      <c r="A31" s="6">
         <v>25</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="6">
         <v>32</v>
       </c>
-      <c r="C31"/>
-      <c r="D31" t="s">
+      <c r="C31" s="6"/>
+      <c r="D31" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E31"/>
+      <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32">
+      <c r="A32" s="6">
         <v>26</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="6">
         <v>33</v>
       </c>
-      <c r="C32"/>
-      <c r="D32" t="s">
+      <c r="C32" s="6"/>
+      <c r="D32" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E32"/>
+      <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33">
+      <c r="A33" s="6">
         <v>27</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="6">
         <v>34</v>
       </c>
-      <c r="C33"/>
-      <c r="D33" t="s">
+      <c r="C33" s="6"/>
+      <c r="D33" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E33"/>
+      <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34">
+      <c r="A34" s="6">
         <v>28</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="6">
         <v>35</v>
       </c>
-      <c r="C34"/>
-      <c r="D34" t="s">
+      <c r="C34" s="6"/>
+      <c r="D34" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E34"/>
+      <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35">
+      <c r="A35" s="6">
         <v>29</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="6">
         <v>36</v>
       </c>
-      <c r="C35"/>
-      <c r="D35" t="s">
+      <c r="C35" s="6"/>
+      <c r="D35" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E35"/>
+      <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36">
+      <c r="A36" s="6">
         <v>30</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="6">
         <v>37</v>
       </c>
-      <c r="C36"/>
-      <c r="D36" t="s">
+      <c r="C36" s="6"/>
+      <c r="D36" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E36"/>
+      <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37">
+      <c r="A37" s="6">
         <v>31</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="6">
         <v>38</v>
       </c>
-      <c r="C37"/>
-      <c r="D37" t="s">
+      <c r="C37" s="6"/>
+      <c r="D37" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E37"/>
+      <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38">
+      <c r="A38" s="6">
         <v>32</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="6">
         <v>39</v>
       </c>
-      <c r="C38"/>
-      <c r="D38" t="s">
+      <c r="C38" s="6"/>
+      <c r="D38" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E38"/>
+      <c r="E38" s="2"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39">
+      <c r="A39" s="6">
         <v>33</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="6">
         <v>4</v>
       </c>
-      <c r="C39"/>
-      <c r="D39" t="s">
+      <c r="C39" s="6"/>
+      <c r="D39" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E39"/>
+      <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40">
+      <c r="A40" s="6">
         <v>34</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="6">
         <v>40</v>
       </c>
-      <c r="C40"/>
-      <c r="D40" t="s">
+      <c r="C40" s="6"/>
+      <c r="D40" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E40"/>
+      <c r="E40" s="2"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41">
+      <c r="A41" s="6">
         <v>35</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="6">
         <v>5</v>
       </c>
-      <c r="C41"/>
-      <c r="D41" t="s">
+      <c r="C41" s="6"/>
+      <c r="D41" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E41"/>
+      <c r="E41" s="2"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42">
+      <c r="A42" s="6">
         <v>36</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="6">
         <v>6</v>
       </c>
-      <c r="C42"/>
-      <c r="D42" t="s">
+      <c r="C42" s="6"/>
+      <c r="D42" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E42"/>
+      <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43">
+      <c r="A43" s="6">
         <v>37</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="6">
         <v>7</v>
       </c>
-      <c r="C43"/>
-      <c r="D43" t="s">
+      <c r="C43" s="6"/>
+      <c r="D43" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E43"/>
+      <c r="E43" s="2"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44">
+      <c r="A44" s="6">
         <v>38</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="6">
         <v>8</v>
       </c>
-      <c r="C44"/>
-      <c r="D44" t="s">
+      <c r="C44" s="6"/>
+      <c r="D44" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E44"/>
+      <c r="E44" s="2"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45">
+      <c r="A45" s="6">
         <v>39</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="6">
         <v>9</v>
       </c>
-      <c r="C45"/>
-      <c r="D45" t="s">
+      <c r="C45" s="6"/>
+      <c r="D45" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E45"/>
+      <c r="E45" s="2"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46">
+      <c r="A46" s="6">
         <v>40</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="6">
         <v>12345</v>
       </c>
-      <c r="C46"/>
-      <c r="D46" t="s">
+      <c r="C46" s="6"/>
+      <c r="D46" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E46"/>
+      <c r="E46" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -4155,10 +4910,17 @@
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="8.141" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="6.998" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="13.997" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="18.71" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="6.998" bestFit="true" customWidth="true" style="0"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -4166,1161 +4928,567 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7">
+      <c r="A7" s="6">
         <v>1</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="6">
         <v>1</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="6">
         <v>1</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E7"/>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8">
+      <c r="A8" s="6">
         <v>2</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="6">
         <v>10</v>
       </c>
-      <c r="C8"/>
-      <c r="D8" t="s">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E8"/>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9">
+      <c r="A9" s="6">
         <v>3</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="6">
         <v>11</v>
       </c>
-      <c r="C9"/>
-      <c r="D9" t="s">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E9"/>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10">
+      <c r="A10" s="6">
         <v>4</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="6">
         <v>12</v>
       </c>
-      <c r="C10"/>
-      <c r="D10" t="s">
+      <c r="C10" s="6"/>
+      <c r="D10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E10"/>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11">
+      <c r="A11" s="6">
         <v>5</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="6">
         <v>13</v>
       </c>
-      <c r="C11"/>
-      <c r="D11" t="s">
+      <c r="C11" s="6"/>
+      <c r="D11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E11"/>
+      <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12">
+      <c r="A12" s="6">
         <v>6</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="6">
         <v>14</v>
       </c>
-      <c r="C12"/>
-      <c r="D12" t="s">
+      <c r="C12" s="6"/>
+      <c r="D12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E12"/>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13">
+      <c r="A13" s="6">
         <v>7</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="6">
         <v>15</v>
       </c>
-      <c r="C13"/>
-      <c r="D13" t="s">
+      <c r="C13" s="6"/>
+      <c r="D13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E13"/>
+      <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14">
+      <c r="A14" s="6">
         <v>8</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="6">
         <v>16</v>
       </c>
-      <c r="C14"/>
-      <c r="D14" t="s">
+      <c r="C14" s="6"/>
+      <c r="D14" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E14"/>
+      <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15">
+      <c r="A15" s="6">
         <v>9</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="6">
         <v>17</v>
       </c>
-      <c r="C15"/>
-      <c r="D15" t="s">
+      <c r="C15" s="6"/>
+      <c r="D15" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E15"/>
+      <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16">
+      <c r="A16" s="6">
         <v>10</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="6">
         <v>18</v>
       </c>
-      <c r="C16"/>
-      <c r="D16" t="s">
+      <c r="C16" s="6"/>
+      <c r="D16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E16"/>
+      <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17">
+      <c r="A17" s="6">
         <v>11</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="6">
         <v>19</v>
       </c>
-      <c r="C17"/>
-      <c r="D17" t="s">
+      <c r="C17" s="6"/>
+      <c r="D17" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E17"/>
+      <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18">
+      <c r="A18" s="6">
         <v>12</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="6">
         <v>20</v>
       </c>
-      <c r="C18"/>
-      <c r="D18" t="s">
+      <c r="C18" s="6"/>
+      <c r="D18" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E18"/>
+      <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19">
+      <c r="A19" s="6">
         <v>13</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="6">
         <v>21</v>
       </c>
-      <c r="C19"/>
-      <c r="D19" t="s">
+      <c r="C19" s="6"/>
+      <c r="D19" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E19"/>
+      <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20">
+      <c r="A20" s="6">
         <v>14</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="6">
         <v>22</v>
       </c>
-      <c r="C20"/>
-      <c r="D20" t="s">
+      <c r="C20" s="6"/>
+      <c r="D20" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E20"/>
+      <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21">
+      <c r="A21" s="6">
         <v>15</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="6">
         <v>23</v>
       </c>
-      <c r="C21"/>
-      <c r="D21" t="s">
+      <c r="C21" s="6"/>
+      <c r="D21" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E21"/>
+      <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22">
+      <c r="A22" s="6">
         <v>16</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="6">
         <v>24</v>
       </c>
-      <c r="C22"/>
-      <c r="D22" t="s">
+      <c r="C22" s="6"/>
+      <c r="D22" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E22"/>
+      <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23">
+      <c r="A23" s="6">
         <v>17</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="6">
         <v>25</v>
       </c>
-      <c r="C23"/>
-      <c r="D23" t="s">
+      <c r="C23" s="6"/>
+      <c r="D23" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E23"/>
+      <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24">
+      <c r="A24" s="6">
         <v>18</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="6">
         <v>26</v>
       </c>
-      <c r="C24"/>
-      <c r="D24" t="s">
+      <c r="C24" s="6"/>
+      <c r="D24" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E24"/>
+      <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25">
+      <c r="A25" s="6">
         <v>19</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="6">
         <v>27</v>
       </c>
-      <c r="C25"/>
-      <c r="D25" t="s">
+      <c r="C25" s="6"/>
+      <c r="D25" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E25"/>
+      <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26">
+      <c r="A26" s="6">
         <v>20</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="6">
         <v>28</v>
       </c>
-      <c r="C26"/>
-      <c r="D26" t="s">
+      <c r="C26" s="6"/>
+      <c r="D26" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E26"/>
+      <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27">
+      <c r="A27" s="6">
         <v>21</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="6">
         <v>29</v>
       </c>
-      <c r="C27"/>
-      <c r="D27" t="s">
+      <c r="C27" s="6"/>
+      <c r="D27" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E27"/>
+      <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28">
+      <c r="A28" s="6">
         <v>22</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="6">
         <v>3</v>
       </c>
-      <c r="C28"/>
-      <c r="D28" t="s">
+      <c r="C28" s="6"/>
+      <c r="D28" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E28"/>
+      <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29">
+      <c r="A29" s="6">
         <v>23</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="6">
         <v>30</v>
       </c>
-      <c r="C29"/>
-      <c r="D29" t="s">
+      <c r="C29" s="6"/>
+      <c r="D29" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E29"/>
+      <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30">
+      <c r="A30" s="6">
         <v>24</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="6">
         <v>31</v>
       </c>
-      <c r="C30"/>
-      <c r="D30" t="s">
+      <c r="C30" s="6"/>
+      <c r="D30" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E30"/>
+      <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31">
+      <c r="A31" s="6">
         <v>25</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="6">
         <v>32</v>
       </c>
-      <c r="C31"/>
-      <c r="D31" t="s">
+      <c r="C31" s="6"/>
+      <c r="D31" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E31"/>
+      <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32">
+      <c r="A32" s="6">
         <v>26</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="6">
         <v>33</v>
       </c>
-      <c r="C32"/>
-      <c r="D32" t="s">
+      <c r="C32" s="6"/>
+      <c r="D32" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E32"/>
+      <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33">
+      <c r="A33" s="6">
         <v>27</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="6">
         <v>34</v>
       </c>
-      <c r="C33"/>
-      <c r="D33" t="s">
+      <c r="C33" s="6"/>
+      <c r="D33" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E33"/>
+      <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34">
+      <c r="A34" s="6">
         <v>28</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="6">
         <v>35</v>
       </c>
-      <c r="C34"/>
-      <c r="D34" t="s">
+      <c r="C34" s="6"/>
+      <c r="D34" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E34"/>
+      <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35">
+      <c r="A35" s="6">
         <v>29</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="6">
         <v>36</v>
       </c>
-      <c r="C35"/>
-      <c r="D35" t="s">
+      <c r="C35" s="6"/>
+      <c r="D35" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E35"/>
+      <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36">
+      <c r="A36" s="6">
         <v>30</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="6">
         <v>37</v>
       </c>
-      <c r="C36"/>
-      <c r="D36" t="s">
+      <c r="C36" s="6"/>
+      <c r="D36" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E36"/>
+      <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37">
+      <c r="A37" s="6">
         <v>31</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="6">
         <v>38</v>
       </c>
-      <c r="C37"/>
-      <c r="D37" t="s">
+      <c r="C37" s="6"/>
+      <c r="D37" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E37"/>
+      <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38">
+      <c r="A38" s="6">
         <v>32</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="6">
         <v>39</v>
       </c>
-      <c r="C38"/>
-      <c r="D38" t="s">
+      <c r="C38" s="6"/>
+      <c r="D38" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E38"/>
+      <c r="E38" s="2"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39">
+      <c r="A39" s="6">
         <v>33</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="6">
         <v>4</v>
       </c>
-      <c r="C39"/>
-      <c r="D39" t="s">
+      <c r="C39" s="6"/>
+      <c r="D39" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E39"/>
+      <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40">
+      <c r="A40" s="6">
         <v>34</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="6">
         <v>40</v>
       </c>
-      <c r="C40"/>
-      <c r="D40" t="s">
+      <c r="C40" s="6"/>
+      <c r="D40" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E40"/>
+      <c r="E40" s="2"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41">
+      <c r="A41" s="6">
         <v>35</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="6">
         <v>5</v>
       </c>
-      <c r="C41"/>
-      <c r="D41" t="s">
+      <c r="C41" s="6"/>
+      <c r="D41" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E41"/>
+      <c r="E41" s="2"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42">
+      <c r="A42" s="6">
         <v>36</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="6">
         <v>6</v>
       </c>
-      <c r="C42"/>
-      <c r="D42" t="s">
+      <c r="C42" s="6"/>
+      <c r="D42" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E42"/>
+      <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43">
+      <c r="A43" s="6">
         <v>37</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="6">
         <v>7</v>
       </c>
-      <c r="C43"/>
-      <c r="D43" t="s">
+      <c r="C43" s="6"/>
+      <c r="D43" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E43"/>
+      <c r="E43" s="2"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44">
+      <c r="A44" s="6">
         <v>38</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="6">
         <v>8</v>
       </c>
-      <c r="C44"/>
-      <c r="D44" t="s">
+      <c r="C44" s="6"/>
+      <c r="D44" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E44"/>
+      <c r="E44" s="2"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45">
+      <c r="A45" s="6">
         <v>39</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="6">
         <v>9</v>
       </c>
-      <c r="C45"/>
-      <c r="D45" t="s">
+      <c r="C45" s="6"/>
+      <c r="D45" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E45"/>
+      <c r="E45" s="2"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46">
+      <c r="A46" s="6">
         <v>40</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="6">
         <v>12345</v>
       </c>
-      <c r="C46"/>
-      <c r="D46" t="s">
+      <c r="C46" s="6"/>
+      <c r="D46" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E46"/>
-    </row>
-  </sheetData>
-  <mergeCells>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B3:E3"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-  <tableParts count="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:E46"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8">
-        <v>10</v>
-      </c>
-      <c r="C8"/>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
-        <v>3</v>
-      </c>
-      <c r="B9">
-        <v>11</v>
-      </c>
-      <c r="C9"/>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10">
-        <v>4</v>
-      </c>
-      <c r="B10">
-        <v>12</v>
-      </c>
-      <c r="C10"/>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11">
-        <v>5</v>
-      </c>
-      <c r="B11">
-        <v>13</v>
-      </c>
-      <c r="C11"/>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12">
-        <v>6</v>
-      </c>
-      <c r="B12">
-        <v>14</v>
-      </c>
-      <c r="C12"/>
-      <c r="D12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13">
-        <v>7</v>
-      </c>
-      <c r="B13">
-        <v>15</v>
-      </c>
-      <c r="C13"/>
-      <c r="D13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14">
-        <v>8</v>
-      </c>
-      <c r="B14">
-        <v>16</v>
-      </c>
-      <c r="C14"/>
-      <c r="D14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15">
-        <v>9</v>
-      </c>
-      <c r="B15">
-        <v>17</v>
-      </c>
-      <c r="C15"/>
-      <c r="D15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16">
-        <v>10</v>
-      </c>
-      <c r="B16">
-        <v>18</v>
-      </c>
-      <c r="C16"/>
-      <c r="D16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17">
-        <v>11</v>
-      </c>
-      <c r="B17">
-        <v>19</v>
-      </c>
-      <c r="C17"/>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18">
-        <v>12</v>
-      </c>
-      <c r="B18">
-        <v>20</v>
-      </c>
-      <c r="C18"/>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19">
-        <v>13</v>
-      </c>
-      <c r="B19">
-        <v>21</v>
-      </c>
-      <c r="C19"/>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20">
-        <v>14</v>
-      </c>
-      <c r="B20">
-        <v>22</v>
-      </c>
-      <c r="C20"/>
-      <c r="D20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21">
-        <v>15</v>
-      </c>
-      <c r="B21">
-        <v>23</v>
-      </c>
-      <c r="C21"/>
-      <c r="D21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22">
-        <v>16</v>
-      </c>
-      <c r="B22">
-        <v>24</v>
-      </c>
-      <c r="C22"/>
-      <c r="D22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23">
-        <v>17</v>
-      </c>
-      <c r="B23">
-        <v>25</v>
-      </c>
-      <c r="C23"/>
-      <c r="D23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24">
-        <v>18</v>
-      </c>
-      <c r="B24">
-        <v>26</v>
-      </c>
-      <c r="C24"/>
-      <c r="D24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25">
-        <v>19</v>
-      </c>
-      <c r="B25">
-        <v>27</v>
-      </c>
-      <c r="C25"/>
-      <c r="D25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26">
-        <v>20</v>
-      </c>
-      <c r="B26">
-        <v>28</v>
-      </c>
-      <c r="C26"/>
-      <c r="D26" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27">
-        <v>21</v>
-      </c>
-      <c r="B27">
-        <v>29</v>
-      </c>
-      <c r="C27"/>
-      <c r="D27" t="s">
-        <v>31</v>
-      </c>
-      <c r="E27"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28">
-        <v>22</v>
-      </c>
-      <c r="B28">
-        <v>3</v>
-      </c>
-      <c r="C28"/>
-      <c r="D28" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29">
-        <v>23</v>
-      </c>
-      <c r="B29">
-        <v>30</v>
-      </c>
-      <c r="C29"/>
-      <c r="D29" t="s">
-        <v>33</v>
-      </c>
-      <c r="E29"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30">
-        <v>24</v>
-      </c>
-      <c r="B30">
-        <v>31</v>
-      </c>
-      <c r="C30"/>
-      <c r="D30" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31">
-        <v>25</v>
-      </c>
-      <c r="B31">
-        <v>32</v>
-      </c>
-      <c r="C31"/>
-      <c r="D31" t="s">
-        <v>35</v>
-      </c>
-      <c r="E31"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32">
-        <v>26</v>
-      </c>
-      <c r="B32">
-        <v>33</v>
-      </c>
-      <c r="C32"/>
-      <c r="D32" t="s">
-        <v>36</v>
-      </c>
-      <c r="E32"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33">
-        <v>27</v>
-      </c>
-      <c r="B33">
-        <v>34</v>
-      </c>
-      <c r="C33"/>
-      <c r="D33" t="s">
-        <v>37</v>
-      </c>
-      <c r="E33"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34">
-        <v>28</v>
-      </c>
-      <c r="B34">
-        <v>35</v>
-      </c>
-      <c r="C34"/>
-      <c r="D34" t="s">
-        <v>38</v>
-      </c>
-      <c r="E34"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35">
-        <v>29</v>
-      </c>
-      <c r="B35">
-        <v>36</v>
-      </c>
-      <c r="C35"/>
-      <c r="D35" t="s">
-        <v>39</v>
-      </c>
-      <c r="E35"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36">
-        <v>30</v>
-      </c>
-      <c r="B36">
-        <v>37</v>
-      </c>
-      <c r="C36"/>
-      <c r="D36" t="s">
-        <v>40</v>
-      </c>
-      <c r="E36"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37">
-        <v>31</v>
-      </c>
-      <c r="B37">
-        <v>38</v>
-      </c>
-      <c r="C37"/>
-      <c r="D37" t="s">
-        <v>41</v>
-      </c>
-      <c r="E37"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38">
-        <v>32</v>
-      </c>
-      <c r="B38">
-        <v>39</v>
-      </c>
-      <c r="C38"/>
-      <c r="D38" t="s">
-        <v>42</v>
-      </c>
-      <c r="E38"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39">
-        <v>33</v>
-      </c>
-      <c r="B39">
-        <v>4</v>
-      </c>
-      <c r="C39"/>
-      <c r="D39" t="s">
-        <v>43</v>
-      </c>
-      <c r="E39"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40">
-        <v>34</v>
-      </c>
-      <c r="B40">
-        <v>40</v>
-      </c>
-      <c r="C40"/>
-      <c r="D40" t="s">
-        <v>44</v>
-      </c>
-      <c r="E40"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41">
-        <v>35</v>
-      </c>
-      <c r="B41">
-        <v>5</v>
-      </c>
-      <c r="C41"/>
-      <c r="D41" t="s">
-        <v>45</v>
-      </c>
-      <c r="E41"/>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42">
-        <v>36</v>
-      </c>
-      <c r="B42">
-        <v>6</v>
-      </c>
-      <c r="C42"/>
-      <c r="D42" t="s">
-        <v>46</v>
-      </c>
-      <c r="E42"/>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43">
-        <v>37</v>
-      </c>
-      <c r="B43">
-        <v>7</v>
-      </c>
-      <c r="C43"/>
-      <c r="D43" t="s">
-        <v>47</v>
-      </c>
-      <c r="E43"/>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44">
-        <v>38</v>
-      </c>
-      <c r="B44">
-        <v>8</v>
-      </c>
-      <c r="C44"/>
-      <c r="D44" t="s">
-        <v>48</v>
-      </c>
-      <c r="E44"/>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45">
-        <v>39</v>
-      </c>
-      <c r="B45">
-        <v>9</v>
-      </c>
-      <c r="C45"/>
-      <c r="D45" t="s">
-        <v>49</v>
-      </c>
-      <c r="E45"/>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46">
-        <v>40</v>
-      </c>
-      <c r="B46">
-        <v>12345</v>
-      </c>
-      <c r="C46"/>
-      <c r="D46" t="s">
-        <v>50</v>
-      </c>
-      <c r="E46"/>
+      <c r="E46" s="2"/>
     </row>
   </sheetData>
   <mergeCells>

--- a/public/nilai-harian.xlsx
+++ b/public/nilai-harian.xlsx
@@ -4,22 +4,158 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="-1" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="4" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
-  <sheets/>
+  <sheets>
+    <sheet name="BAB 1" sheetId="1" r:id="rId4"/>
+    <sheet name="BAB 2" sheetId="2" r:id="rId5"/>
+    <sheet name="BAB 3" sheetId="3" r:id="rId6"/>
+    <sheet name="BAB 4" sheetId="4" r:id="rId7"/>
+    <sheet name="BAB 5" sheetId="5" r:id="rId8"/>
+  </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+  <si>
+    <t>TEMPLATE NILAI HARIAN</t>
+  </si>
+  <si>
+    <t>Nama</t>
+  </si>
+  <si>
+    <t>BAB 1</t>
+  </si>
+  <si>
+    <t>Kelas/Mapel</t>
+  </si>
+  <si>
+    <t>7 Tahfidz/Al Qur'an Hadiths</t>
+  </si>
+  <si>
+    <t>Materi</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>NIS</t>
+  </si>
+  <si>
+    <t>NISN</t>
+  </si>
+  <si>
+    <t>NAMA</t>
+  </si>
+  <si>
+    <t>NILAI</t>
+  </si>
+  <si>
+    <t>Aditya Wijaya</t>
+  </si>
+  <si>
+    <t>Agus Setiawan</t>
+  </si>
+  <si>
+    <t>Ahmad Syah</t>
+  </si>
+  <si>
+    <t>Aisyah Nasution</t>
+  </si>
+  <si>
+    <t>Anisa Rahma</t>
+  </si>
+  <si>
+    <t>Budi Santoso</t>
+  </si>
+  <si>
+    <t>Dewi Kusuma</t>
+  </si>
+  <si>
+    <t>Eka Surya</t>
+  </si>
+  <si>
+    <t>Faisal Rahman</t>
+  </si>
+  <si>
+    <t>Gita Permata</t>
+  </si>
+  <si>
+    <t>Hadi Nugroho</t>
+  </si>
+  <si>
+    <t>Indah Puspita</t>
+  </si>
+  <si>
+    <t>Joko Saputra</t>
+  </si>
+  <si>
+    <t>Kartika Sari</t>
+  </si>
+  <si>
+    <t>Lutfi Hasan</t>
+  </si>
+  <si>
+    <t>Maya Putri</t>
+  </si>
+  <si>
+    <t>Muhammad Ali</t>
+  </si>
+  <si>
+    <t>Nanda Pratama</t>
+  </si>
+  <si>
+    <t>Nurul Amin</t>
+  </si>
+  <si>
+    <t>Nurul Huda</t>
+  </si>
+  <si>
+    <t>Oki Setiawan</t>
+  </si>
+  <si>
+    <t>Putri Anggraini</t>
+  </si>
+  <si>
+    <t>Putri Maharani</t>
+  </si>
+  <si>
+    <t>Reza Maulana</t>
+  </si>
+  <si>
+    <t>Rizki Pratama</t>
+  </si>
+  <si>
+    <t>Siti Aisyah</t>
+  </si>
+  <si>
+    <t>Siti Fatimah</t>
+  </si>
+  <si>
+    <t>Siti Rahayu</t>
+  </si>
+  <si>
+    <t>BAB 2</t>
+  </si>
+  <si>
+    <t>BAB 3</t>
+  </si>
+  <si>
+    <t>BAB 4</t>
+  </si>
+  <si>
+    <t>BAB 5</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -29,16 +165,55 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <gradientFill type="linear" degree="90">
+        <stop position="0">
+          <color rgb="FF7F7F7F"/>
+        </stop>
+        <stop position="1">
+          <color rgb="FF7F7F7F"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <gradientFill type="linear" degree="90">
+        <stop position="0">
+          <color rgb="FFFFFF00"/>
+        </stop>
+        <stop position="1">
+          <color rgb="FFFFFF00"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <gradientFill type="linear" degree="90">
+        <stop position="0">
+          <color rgb="FFBFBFBF"/>
+        </stop>
+        <stop position="1">
+          <color rgb="FFBFBFBF"/>
+        </stop>
+      </gradientFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -46,12 +221,82 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -344,4 +589,2261 @@
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:E34"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="E34" sqref="E34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="8.141" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="12.854" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="13.997" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="18.71" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="6.998" bestFit="true" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="6">
+        <v>1</v>
+      </c>
+      <c r="B7" s="6">
+        <v>1472583690</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="6">
+        <v>2</v>
+      </c>
+      <c r="B8" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="6">
+        <v>3</v>
+      </c>
+      <c r="B9" s="6">
+        <v>1029384756</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="2">
+        <v>87.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="6">
+        <v>4</v>
+      </c>
+      <c r="B10" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="6">
+        <v>5</v>
+      </c>
+      <c r="B11" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="6">
+        <v>6</v>
+      </c>
+      <c r="B12" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="6">
+        <v>7</v>
+      </c>
+      <c r="B13" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="6">
+        <v>8</v>
+      </c>
+      <c r="B14" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="6">
+        <v>9</v>
+      </c>
+      <c r="B15" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="6">
+        <v>10</v>
+      </c>
+      <c r="B16" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="6">
+        <v>11</v>
+      </c>
+      <c r="B17" s="6">
+        <v>1054729836</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="6">
+        <v>12</v>
+      </c>
+      <c r="B18" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="6">
+        <v>13</v>
+      </c>
+      <c r="B19" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="6">
+        <v>14</v>
+      </c>
+      <c r="B20" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="6">
+        <v>15</v>
+      </c>
+      <c r="B21" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="6">
+        <v>16</v>
+      </c>
+      <c r="B22" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="6">
+        <v>17</v>
+      </c>
+      <c r="B23" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="6">
+        <v>18</v>
+      </c>
+      <c r="B24" s="6">
+        <v>2051698743</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="6">
+        <v>19</v>
+      </c>
+      <c r="B25" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="6">
+        <v>20</v>
+      </c>
+      <c r="B26" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="6">
+        <v>21</v>
+      </c>
+      <c r="B27" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="6">
+        <v>22</v>
+      </c>
+      <c r="B28" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="6">
+        <v>23</v>
+      </c>
+      <c r="B29" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="6">
+        <v>24</v>
+      </c>
+      <c r="B30" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="6">
+        <v>25</v>
+      </c>
+      <c r="B31" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="6">
+        <v>26</v>
+      </c>
+      <c r="B32" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="6">
+        <v>27</v>
+      </c>
+      <c r="B33" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="6">
+        <v>28</v>
+      </c>
+      <c r="B34" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:E3"/>
+  </mergeCells>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:E34"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="E34" sqref="E34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="8.141" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="12.854" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="13.997" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="18.71" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="6.998" bestFit="true" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="6">
+        <v>1</v>
+      </c>
+      <c r="B7" s="6">
+        <v>1472583690</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="6">
+        <v>2</v>
+      </c>
+      <c r="B8" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="6">
+        <v>3</v>
+      </c>
+      <c r="B9" s="6">
+        <v>1029384756</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="6">
+        <v>4</v>
+      </c>
+      <c r="B10" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="6">
+        <v>5</v>
+      </c>
+      <c r="B11" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="6">
+        <v>6</v>
+      </c>
+      <c r="B12" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="6">
+        <v>7</v>
+      </c>
+      <c r="B13" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="6">
+        <v>8</v>
+      </c>
+      <c r="B14" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="6">
+        <v>9</v>
+      </c>
+      <c r="B15" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="6">
+        <v>10</v>
+      </c>
+      <c r="B16" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="6">
+        <v>11</v>
+      </c>
+      <c r="B17" s="6">
+        <v>1054729836</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="6">
+        <v>12</v>
+      </c>
+      <c r="B18" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="6">
+        <v>13</v>
+      </c>
+      <c r="B19" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="6">
+        <v>14</v>
+      </c>
+      <c r="B20" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="6">
+        <v>15</v>
+      </c>
+      <c r="B21" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="6">
+        <v>16</v>
+      </c>
+      <c r="B22" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="6">
+        <v>17</v>
+      </c>
+      <c r="B23" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="6">
+        <v>18</v>
+      </c>
+      <c r="B24" s="6">
+        <v>2051698743</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="6">
+        <v>19</v>
+      </c>
+      <c r="B25" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="6">
+        <v>20</v>
+      </c>
+      <c r="B26" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="6">
+        <v>21</v>
+      </c>
+      <c r="B27" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="6">
+        <v>22</v>
+      </c>
+      <c r="B28" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="6">
+        <v>23</v>
+      </c>
+      <c r="B29" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="6">
+        <v>24</v>
+      </c>
+      <c r="B30" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="6">
+        <v>25</v>
+      </c>
+      <c r="B31" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="6">
+        <v>26</v>
+      </c>
+      <c r="B32" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="6">
+        <v>27</v>
+      </c>
+      <c r="B33" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="6">
+        <v>28</v>
+      </c>
+      <c r="B34" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:E3"/>
+  </mergeCells>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:E34"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="E34" sqref="E34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="8.141" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="12.854" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="13.997" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="18.71" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="6.998" bestFit="true" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="6">
+        <v>1</v>
+      </c>
+      <c r="B7" s="6">
+        <v>1472583690</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="6">
+        <v>2</v>
+      </c>
+      <c r="B8" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="6">
+        <v>3</v>
+      </c>
+      <c r="B9" s="6">
+        <v>1029384756</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="6">
+        <v>4</v>
+      </c>
+      <c r="B10" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="6">
+        <v>5</v>
+      </c>
+      <c r="B11" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="6">
+        <v>6</v>
+      </c>
+      <c r="B12" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="6">
+        <v>7</v>
+      </c>
+      <c r="B13" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="6">
+        <v>8</v>
+      </c>
+      <c r="B14" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="6">
+        <v>9</v>
+      </c>
+      <c r="B15" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="6">
+        <v>10</v>
+      </c>
+      <c r="B16" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="6">
+        <v>11</v>
+      </c>
+      <c r="B17" s="6">
+        <v>1054729836</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="6">
+        <v>12</v>
+      </c>
+      <c r="B18" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="6">
+        <v>13</v>
+      </c>
+      <c r="B19" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="6">
+        <v>14</v>
+      </c>
+      <c r="B20" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="6">
+        <v>15</v>
+      </c>
+      <c r="B21" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="6">
+        <v>16</v>
+      </c>
+      <c r="B22" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="6">
+        <v>17</v>
+      </c>
+      <c r="B23" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="6">
+        <v>18</v>
+      </c>
+      <c r="B24" s="6">
+        <v>2051698743</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="6">
+        <v>19</v>
+      </c>
+      <c r="B25" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="6">
+        <v>20</v>
+      </c>
+      <c r="B26" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="6">
+        <v>21</v>
+      </c>
+      <c r="B27" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="6">
+        <v>22</v>
+      </c>
+      <c r="B28" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="6">
+        <v>23</v>
+      </c>
+      <c r="B29" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="6">
+        <v>24</v>
+      </c>
+      <c r="B30" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="6">
+        <v>25</v>
+      </c>
+      <c r="B31" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="6">
+        <v>26</v>
+      </c>
+      <c r="B32" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="6">
+        <v>27</v>
+      </c>
+      <c r="B33" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="6">
+        <v>28</v>
+      </c>
+      <c r="B34" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:E3"/>
+  </mergeCells>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:E34"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="E34" sqref="E34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="8.141" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="12.854" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="13.997" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="18.71" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="6.998" bestFit="true" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="6">
+        <v>1</v>
+      </c>
+      <c r="B7" s="6">
+        <v>1472583690</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="6">
+        <v>2</v>
+      </c>
+      <c r="B8" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="6">
+        <v>3</v>
+      </c>
+      <c r="B9" s="6">
+        <v>1029384756</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="6">
+        <v>4</v>
+      </c>
+      <c r="B10" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="6">
+        <v>5</v>
+      </c>
+      <c r="B11" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="6">
+        <v>6</v>
+      </c>
+      <c r="B12" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="6">
+        <v>7</v>
+      </c>
+      <c r="B13" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="6">
+        <v>8</v>
+      </c>
+      <c r="B14" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="6">
+        <v>9</v>
+      </c>
+      <c r="B15" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="6">
+        <v>10</v>
+      </c>
+      <c r="B16" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="6">
+        <v>11</v>
+      </c>
+      <c r="B17" s="6">
+        <v>1054729836</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="6">
+        <v>12</v>
+      </c>
+      <c r="B18" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="6">
+        <v>13</v>
+      </c>
+      <c r="B19" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="6">
+        <v>14</v>
+      </c>
+      <c r="B20" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="6">
+        <v>15</v>
+      </c>
+      <c r="B21" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="6">
+        <v>16</v>
+      </c>
+      <c r="B22" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="6">
+        <v>17</v>
+      </c>
+      <c r="B23" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="6">
+        <v>18</v>
+      </c>
+      <c r="B24" s="6">
+        <v>2051698743</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="6">
+        <v>19</v>
+      </c>
+      <c r="B25" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="6">
+        <v>20</v>
+      </c>
+      <c r="B26" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="6">
+        <v>21</v>
+      </c>
+      <c r="B27" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="6">
+        <v>22</v>
+      </c>
+      <c r="B28" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="6">
+        <v>23</v>
+      </c>
+      <c r="B29" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="6">
+        <v>24</v>
+      </c>
+      <c r="B30" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="6">
+        <v>25</v>
+      </c>
+      <c r="B31" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="6">
+        <v>26</v>
+      </c>
+      <c r="B32" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="6">
+        <v>27</v>
+      </c>
+      <c r="B33" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="6">
+        <v>28</v>
+      </c>
+      <c r="B34" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:E3"/>
+  </mergeCells>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:E34"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="E34" sqref="E34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="8.141" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="12.854" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="13.997" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="18.71" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="6.998" bestFit="true" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="6">
+        <v>1</v>
+      </c>
+      <c r="B7" s="6">
+        <v>1472583690</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="6">
+        <v>2</v>
+      </c>
+      <c r="B8" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="6">
+        <v>3</v>
+      </c>
+      <c r="B9" s="6">
+        <v>1029384756</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="6">
+        <v>4</v>
+      </c>
+      <c r="B10" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="6">
+        <v>5</v>
+      </c>
+      <c r="B11" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="6">
+        <v>6</v>
+      </c>
+      <c r="B12" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="6">
+        <v>7</v>
+      </c>
+      <c r="B13" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="6">
+        <v>8</v>
+      </c>
+      <c r="B14" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="6">
+        <v>9</v>
+      </c>
+      <c r="B15" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="6">
+        <v>10</v>
+      </c>
+      <c r="B16" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="6">
+        <v>11</v>
+      </c>
+      <c r="B17" s="6">
+        <v>1054729836</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="6">
+        <v>12</v>
+      </c>
+      <c r="B18" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="6">
+        <v>13</v>
+      </c>
+      <c r="B19" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="6">
+        <v>14</v>
+      </c>
+      <c r="B20" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="6">
+        <v>15</v>
+      </c>
+      <c r="B21" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="6">
+        <v>16</v>
+      </c>
+      <c r="B22" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="6">
+        <v>17</v>
+      </c>
+      <c r="B23" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="6">
+        <v>18</v>
+      </c>
+      <c r="B24" s="6">
+        <v>2051698743</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="6">
+        <v>19</v>
+      </c>
+      <c r="B25" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="6">
+        <v>20</v>
+      </c>
+      <c r="B26" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="6">
+        <v>21</v>
+      </c>
+      <c r="B27" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="6">
+        <v>22</v>
+      </c>
+      <c r="B28" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="6">
+        <v>23</v>
+      </c>
+      <c r="B29" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="6">
+        <v>24</v>
+      </c>
+      <c r="B30" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="6">
+        <v>25</v>
+      </c>
+      <c r="B31" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="6">
+        <v>26</v>
+      </c>
+      <c r="B32" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="6">
+        <v>27</v>
+      </c>
+      <c r="B33" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="6">
+        <v>28</v>
+      </c>
+      <c r="B34" s="6">
+        <v>2147483647</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:E3"/>
+  </mergeCells>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
 </file>
--- a/public/nilai-harian.xlsx
+++ b/public/nilai-harian.xlsx
@@ -4,14 +4,17 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="4" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="7" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="BAB 1" sheetId="1" r:id="rId4"/>
-    <sheet name="BAB 2" sheetId="2" r:id="rId5"/>
-    <sheet name="BAB 3" sheetId="3" r:id="rId6"/>
-    <sheet name="BAB 4" sheetId="4" r:id="rId7"/>
-    <sheet name="BAB 5" sheetId="5" r:id="rId8"/>
+    <sheet name="KD 1" sheetId="1" r:id="rId4"/>
+    <sheet name="KD 2" sheetId="2" r:id="rId5"/>
+    <sheet name="KD 3" sheetId="3" r:id="rId6"/>
+    <sheet name="KD 4" sheetId="4" r:id="rId7"/>
+    <sheet name="KD 5" sheetId="5" r:id="rId8"/>
+    <sheet name="KD 6" sheetId="6" r:id="rId9"/>
+    <sheet name="KD 7" sheetId="7" r:id="rId10"/>
+    <sheet name="KD 8" sheetId="8" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -19,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="65">
   <si>
     <t>TEMPLATE NILAI HARIAN</t>
   </si>
@@ -27,13 +30,13 @@
     <t>Nama</t>
   </si>
   <si>
-    <t>BAB 1</t>
+    <t>KD 1</t>
   </si>
   <si>
     <t>Kelas/Mapel</t>
   </si>
   <si>
-    <t>7 Tahfidz/Al Qur'an Hadiths</t>
+    <t>7 A/Fiqih</t>
   </si>
   <si>
     <t>Materi</t>
@@ -54,100 +57,166 @@
     <t>NILAI</t>
   </si>
   <si>
-    <t>Aditya Wijaya</t>
-  </si>
-  <si>
-    <t>Agus Setiawan</t>
-  </si>
-  <si>
-    <t>Ahmad Syah</t>
-  </si>
-  <si>
-    <t>Aisyah Nasution</t>
-  </si>
-  <si>
-    <t>Anisa Rahma</t>
-  </si>
-  <si>
-    <t>Budi Santoso</t>
-  </si>
-  <si>
-    <t>Dewi Kusuma</t>
-  </si>
-  <si>
-    <t>Eka Surya</t>
-  </si>
-  <si>
-    <t>Faisal Rahman</t>
-  </si>
-  <si>
-    <t>Gita Permata</t>
-  </si>
-  <si>
-    <t>Hadi Nugroho</t>
-  </si>
-  <si>
-    <t>Indah Puspita</t>
-  </si>
-  <si>
-    <t>Joko Saputra</t>
-  </si>
-  <si>
-    <t>Kartika Sari</t>
-  </si>
-  <si>
-    <t>Lutfi Hasan</t>
-  </si>
-  <si>
-    <t>Maya Putri</t>
-  </si>
-  <si>
-    <t>Muhammad Ali</t>
-  </si>
-  <si>
-    <t>Nanda Pratama</t>
-  </si>
-  <si>
-    <t>Nurul Amin</t>
-  </si>
-  <si>
-    <t>Nurul Huda</t>
-  </si>
-  <si>
-    <t>Oki Setiawan</t>
-  </si>
-  <si>
-    <t>Putri Anggraini</t>
-  </si>
-  <si>
-    <t>Putri Maharani</t>
-  </si>
-  <si>
-    <t>Reza Maulana</t>
-  </si>
-  <si>
-    <t>Rizki Pratama</t>
-  </si>
-  <si>
-    <t>Siti Aisyah</t>
-  </si>
-  <si>
-    <t>Siti Fatimah</t>
-  </si>
-  <si>
-    <t>Siti Rahayu</t>
-  </si>
-  <si>
-    <t>BAB 2</t>
-  </si>
-  <si>
-    <t>BAB 3</t>
-  </si>
-  <si>
-    <t>BAB 4</t>
-  </si>
-  <si>
-    <t>BAB 5</t>
+    <t>ABDUL MU'IZZ</t>
+  </si>
+  <si>
+    <t>AL KHAKIM APRIYANTO</t>
+  </si>
+  <si>
+    <t>0118086614</t>
+  </si>
+  <si>
+    <t>ARINAL IZZA</t>
+  </si>
+  <si>
+    <t>DIMAS DWI CAHYO</t>
+  </si>
+  <si>
+    <t>0114586590</t>
+  </si>
+  <si>
+    <t>ENGGAR SASONGKO</t>
+  </si>
+  <si>
+    <t>FAIK KHOIRU NISAM</t>
+  </si>
+  <si>
+    <t>0111264018</t>
+  </si>
+  <si>
+    <t>FARHAN LABIB</t>
+  </si>
+  <si>
+    <t>IMAM FADHILLAH</t>
+  </si>
+  <si>
+    <t>M. AFIQ LUAY AL AIMAN</t>
+  </si>
+  <si>
+    <t>M. FAIQ ULINUHA</t>
+  </si>
+  <si>
+    <t>M. HAFIDZ IBRAHIM SETIAWAN</t>
+  </si>
+  <si>
+    <t>MOCHAMAD ZAKA AL FARISI</t>
+  </si>
+  <si>
+    <t>MOH. FATHU NASHRILLAH</t>
+  </si>
+  <si>
+    <t>MOH. ZAKI FADILAH</t>
+  </si>
+  <si>
+    <t>MOHAMAD ERLANGGA</t>
+  </si>
+  <si>
+    <t>MOHAMAD RAFA KHAERON</t>
+  </si>
+  <si>
+    <t>MOHAMMAD IBNI IZDIHAR</t>
+  </si>
+  <si>
+    <t>MUHAMAD NAQIB MUJIBAR ROHMAN</t>
+  </si>
+  <si>
+    <t>0112347295</t>
+  </si>
+  <si>
+    <t>MUHAMMAD ADIB</t>
+  </si>
+  <si>
+    <t>MUHAMMAD AL HAFIDZ</t>
+  </si>
+  <si>
+    <t>0118331685</t>
+  </si>
+  <si>
+    <t>MUHAMMAD DA'I BAKHTIAR</t>
+  </si>
+  <si>
+    <t>MUHAMMAD FADHIL MAULANA</t>
+  </si>
+  <si>
+    <t>0101733097</t>
+  </si>
+  <si>
+    <t>MUHAMMAD FAUZAN RAMADHANI</t>
+  </si>
+  <si>
+    <t>MUHAMMAD IBNU ZAHWAN AL AZIZI</t>
+  </si>
+  <si>
+    <t>MUHAMMAD MATHLA UZZAHIDIN</t>
+  </si>
+  <si>
+    <t>MUHAMMAD MIRZA SETIAWAN</t>
+  </si>
+  <si>
+    <t>MUHAMMAD RIYAN SOFYAN</t>
+  </si>
+  <si>
+    <t>0111879670</t>
+  </si>
+  <si>
+    <t>MUHAMMAD THUBAGOES BARAKA</t>
+  </si>
+  <si>
+    <t>MUMTAZ ISA GHULAM ZIKRI</t>
+  </si>
+  <si>
+    <t>0108029155</t>
+  </si>
+  <si>
+    <t>NUR MUHAMMAD KALAMULLAH</t>
+  </si>
+  <si>
+    <t>0118891404</t>
+  </si>
+  <si>
+    <t>RACHMAT ADI NUGROHO</t>
+  </si>
+  <si>
+    <t>0104386724</t>
+  </si>
+  <si>
+    <t>RAFA IMRAN MUZAKKI</t>
+  </si>
+  <si>
+    <t>RISKY KHEVIN ASADIL FATIH</t>
+  </si>
+  <si>
+    <t>TANTRA ARJUNA PUTRA</t>
+  </si>
+  <si>
+    <t>TSABIT QOLBI</t>
+  </si>
+  <si>
+    <t>0104247064</t>
+  </si>
+  <si>
+    <t>WILDAN ZAIDAN FIRAS</t>
+  </si>
+  <si>
+    <t>KD 2</t>
+  </si>
+  <si>
+    <t>KD 3</t>
+  </si>
+  <si>
+    <t>KD 4</t>
+  </si>
+  <si>
+    <t>KD 5</t>
+  </si>
+  <si>
+    <t>KD 6</t>
+  </si>
+  <si>
+    <t>KD 7</t>
+  </si>
+  <si>
+    <t>KD 8</t>
   </si>
 </sst>
 </file>
@@ -596,19 +665,19 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="8.141" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="12.854" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="13.997" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="18.71" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="6.998" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="35.277" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="9.283" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -662,22 +731,28 @@
         <v>1</v>
       </c>
       <c r="B7" s="6">
-        <v>1472583690</v>
-      </c>
-      <c r="C7" s="6"/>
+        <v>230053</v>
+      </c>
+      <c r="C7" s="6">
+        <v>3101430477</v>
+      </c>
       <c r="D7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2">
+        <v>79.3333</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="6">
         <v>2</v>
       </c>
       <c r="B8" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C8" s="6"/>
+        <v>230054</v>
+      </c>
+      <c r="C8" s="6">
+        <v>3116220586</v>
+      </c>
       <c r="D8" s="6" t="s">
         <v>12</v>
       </c>
@@ -688,26 +763,28 @@
         <v>3</v>
       </c>
       <c r="B9" s="6">
-        <v>1029384756</v>
-      </c>
-      <c r="C9" s="6"/>
+        <v>230055</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="D9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="2">
-        <v>87.8</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="6">
         <v>4</v>
       </c>
       <c r="B10" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C10" s="6"/>
+        <v>230056</v>
+      </c>
+      <c r="C10" s="6">
+        <v>3110455563</v>
+      </c>
       <c r="D10" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E10" s="2"/>
     </row>
@@ -716,11 +793,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C11" s="6"/>
+        <v>230057</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="D11" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E11" s="2"/>
     </row>
@@ -729,11 +808,13 @@
         <v>6</v>
       </c>
       <c r="B12" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C12" s="6"/>
+        <v>230058</v>
+      </c>
+      <c r="C12" s="6">
+        <v>3113157241</v>
+      </c>
       <c r="D12" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E12" s="2"/>
     </row>
@@ -742,11 +823,13 @@
         <v>7</v>
       </c>
       <c r="B13" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C13" s="6"/>
+        <v>230059</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="D13" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E13" s="2"/>
     </row>
@@ -755,11 +838,13 @@
         <v>8</v>
       </c>
       <c r="B14" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C14" s="6"/>
+        <v>230060</v>
+      </c>
+      <c r="C14" s="6">
+        <v>3101079504</v>
+      </c>
       <c r="D14" s="6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E14" s="2"/>
     </row>
@@ -768,11 +853,13 @@
         <v>9</v>
       </c>
       <c r="B15" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C15" s="6"/>
+        <v>230061</v>
+      </c>
+      <c r="C15" s="6">
+        <v>3113515171</v>
+      </c>
       <c r="D15" s="6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E15" s="2"/>
     </row>
@@ -781,11 +868,13 @@
         <v>10</v>
       </c>
       <c r="B16" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C16" s="6"/>
+        <v>230062</v>
+      </c>
+      <c r="C16" s="6">
+        <v>3119851999</v>
+      </c>
       <c r="D16" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E16" s="2"/>
     </row>
@@ -794,11 +883,13 @@
         <v>11</v>
       </c>
       <c r="B17" s="6">
-        <v>1054729836</v>
-      </c>
-      <c r="C17" s="6"/>
+        <v>230063</v>
+      </c>
+      <c r="C17" s="6">
+        <v>3112362107</v>
+      </c>
       <c r="D17" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E17" s="2"/>
     </row>
@@ -807,11 +898,13 @@
         <v>12</v>
       </c>
       <c r="B18" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C18" s="6"/>
+        <v>230064</v>
+      </c>
+      <c r="C18" s="6">
+        <v>3111690689</v>
+      </c>
       <c r="D18" s="6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E18" s="2"/>
     </row>
@@ -820,11 +913,13 @@
         <v>13</v>
       </c>
       <c r="B19" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C19" s="6"/>
+        <v>230065</v>
+      </c>
+      <c r="C19" s="6">
+        <v>3113958253</v>
+      </c>
       <c r="D19" s="6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E19" s="2"/>
     </row>
@@ -833,11 +928,13 @@
         <v>14</v>
       </c>
       <c r="B20" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C20" s="6"/>
+        <v>230066</v>
+      </c>
+      <c r="C20" s="6">
+        <v>3102668367</v>
+      </c>
       <c r="D20" s="6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E20" s="2"/>
     </row>
@@ -846,11 +943,13 @@
         <v>15</v>
       </c>
       <c r="B21" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C21" s="6"/>
+        <v>230067</v>
+      </c>
+      <c r="C21" s="6">
+        <v>3111001858</v>
+      </c>
       <c r="D21" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E21" s="2"/>
     </row>
@@ -859,11 +958,13 @@
         <v>16</v>
       </c>
       <c r="B22" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C22" s="6"/>
+        <v>230068</v>
+      </c>
+      <c r="C22" s="6">
+        <v>3118966437</v>
+      </c>
       <c r="D22" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E22" s="2"/>
     </row>
@@ -872,11 +973,13 @@
         <v>17</v>
       </c>
       <c r="B23" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C23" s="6"/>
+        <v>230069</v>
+      </c>
+      <c r="C23" s="6">
+        <v>3107564333</v>
+      </c>
       <c r="D23" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E23" s="2"/>
     </row>
@@ -885,11 +988,13 @@
         <v>18</v>
       </c>
       <c r="B24" s="6">
-        <v>2051698743</v>
-      </c>
-      <c r="C24" s="6"/>
+        <v>230070</v>
+      </c>
+      <c r="C24" s="6">
+        <v>3104234312</v>
+      </c>
       <c r="D24" s="6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E24" s="2"/>
     </row>
@@ -898,11 +1003,13 @@
         <v>19</v>
       </c>
       <c r="B25" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C25" s="6"/>
+        <v>230071</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="D25" s="6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E25" s="2"/>
     </row>
@@ -911,11 +1018,13 @@
         <v>20</v>
       </c>
       <c r="B26" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C26" s="6"/>
+        <v>230072</v>
+      </c>
+      <c r="C26" s="6">
+        <v>3117704600</v>
+      </c>
       <c r="D26" s="6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E26" s="2"/>
     </row>
@@ -924,11 +1033,13 @@
         <v>21</v>
       </c>
       <c r="B27" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C27" s="6"/>
+        <v>230073</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="D27" s="6" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E27" s="2"/>
     </row>
@@ -937,11 +1048,13 @@
         <v>22</v>
       </c>
       <c r="B28" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C28" s="6"/>
+        <v>230074</v>
+      </c>
+      <c r="C28" s="6">
+        <v>3115017824</v>
+      </c>
       <c r="D28" s="6" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E28" s="2"/>
     </row>
@@ -950,11 +1063,13 @@
         <v>23</v>
       </c>
       <c r="B29" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C29" s="6"/>
+        <v>230075</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="D29" s="6" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E29" s="2"/>
     </row>
@@ -963,11 +1078,13 @@
         <v>24</v>
       </c>
       <c r="B30" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C30" s="6"/>
+        <v>230076</v>
+      </c>
+      <c r="C30" s="6">
+        <v>3110277952</v>
+      </c>
       <c r="D30" s="6" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E30" s="2"/>
     </row>
@@ -976,11 +1093,13 @@
         <v>25</v>
       </c>
       <c r="B31" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C31" s="6"/>
+        <v>230077</v>
+      </c>
+      <c r="C31" s="6">
+        <v>3110772564</v>
+      </c>
       <c r="D31" s="6" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E31" s="2"/>
     </row>
@@ -989,11 +1108,13 @@
         <v>26</v>
       </c>
       <c r="B32" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C32" s="6"/>
+        <v>230078</v>
+      </c>
+      <c r="C32" s="6">
+        <v>3105555155</v>
+      </c>
       <c r="D32" s="6" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E32" s="2"/>
     </row>
@@ -1002,11 +1123,13 @@
         <v>27</v>
       </c>
       <c r="B33" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C33" s="6"/>
+        <v>230079</v>
+      </c>
+      <c r="C33" s="6">
+        <v>3112897238</v>
+      </c>
       <c r="D33" s="6" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E33" s="2"/>
     </row>
@@ -1015,13 +1138,135 @@
         <v>28</v>
       </c>
       <c r="B34" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C34" s="6"/>
+        <v>230080</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="D34" s="6" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="6">
+        <v>29</v>
+      </c>
+      <c r="B35" s="6">
+        <v>230081</v>
+      </c>
+      <c r="C35" s="6">
+        <v>3110688109</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="6">
+        <v>30</v>
+      </c>
+      <c r="B36" s="6">
+        <v>230082</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="6">
+        <v>31</v>
+      </c>
+      <c r="B37" s="6">
+        <v>230083</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="6">
+        <v>32</v>
+      </c>
+      <c r="B38" s="6">
+        <v>230084</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="6">
+        <v>33</v>
+      </c>
+      <c r="B39" s="6">
+        <v>230085</v>
+      </c>
+      <c r="C39" s="6">
+        <v>3111425938</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="6">
+        <v>34</v>
+      </c>
+      <c r="B40" s="6">
+        <v>230086</v>
+      </c>
+      <c r="C40" s="6">
+        <v>3113480787</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="6">
+        <v>35</v>
+      </c>
+      <c r="B41" s="6">
+        <v>230087</v>
+      </c>
+      <c r="C41" s="6">
+        <v>3109391907</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="6">
+        <v>36</v>
+      </c>
+      <c r="B42" s="6">
+        <v>230088</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E42" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1049,18 +1294,18 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="8.141" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="12.854" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="13.997" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="18.71" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="35.277" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="6.998" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -1074,7 +1319,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -1115,9 +1360,11 @@
         <v>1</v>
       </c>
       <c r="B7" s="6">
-        <v>1472583690</v>
-      </c>
-      <c r="C7" s="6"/>
+        <v>230053</v>
+      </c>
+      <c r="C7" s="6">
+        <v>3101430477</v>
+      </c>
       <c r="D7" s="6" t="s">
         <v>11</v>
       </c>
@@ -1128,9 +1375,11 @@
         <v>2</v>
       </c>
       <c r="B8" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C8" s="6"/>
+        <v>230054</v>
+      </c>
+      <c r="C8" s="6">
+        <v>3116220586</v>
+      </c>
       <c r="D8" s="6" t="s">
         <v>12</v>
       </c>
@@ -1141,11 +1390,13 @@
         <v>3</v>
       </c>
       <c r="B9" s="6">
-        <v>1029384756</v>
-      </c>
-      <c r="C9" s="6"/>
+        <v>230055</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="D9" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -1154,11 +1405,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C10" s="6"/>
+        <v>230056</v>
+      </c>
+      <c r="C10" s="6">
+        <v>3110455563</v>
+      </c>
       <c r="D10" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E10" s="2"/>
     </row>
@@ -1167,11 +1420,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C11" s="6"/>
+        <v>230057</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="D11" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E11" s="2"/>
     </row>
@@ -1180,11 +1435,13 @@
         <v>6</v>
       </c>
       <c r="B12" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C12" s="6"/>
+        <v>230058</v>
+      </c>
+      <c r="C12" s="6">
+        <v>3113157241</v>
+      </c>
       <c r="D12" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E12" s="2"/>
     </row>
@@ -1193,11 +1450,13 @@
         <v>7</v>
       </c>
       <c r="B13" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C13" s="6"/>
+        <v>230059</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="D13" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E13" s="2"/>
     </row>
@@ -1206,11 +1465,13 @@
         <v>8</v>
       </c>
       <c r="B14" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C14" s="6"/>
+        <v>230060</v>
+      </c>
+      <c r="C14" s="6">
+        <v>3101079504</v>
+      </c>
       <c r="D14" s="6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E14" s="2"/>
     </row>
@@ -1219,11 +1480,13 @@
         <v>9</v>
       </c>
       <c r="B15" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C15" s="6"/>
+        <v>230061</v>
+      </c>
+      <c r="C15" s="6">
+        <v>3113515171</v>
+      </c>
       <c r="D15" s="6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E15" s="2"/>
     </row>
@@ -1232,11 +1495,13 @@
         <v>10</v>
       </c>
       <c r="B16" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C16" s="6"/>
+        <v>230062</v>
+      </c>
+      <c r="C16" s="6">
+        <v>3119851999</v>
+      </c>
       <c r="D16" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E16" s="2"/>
     </row>
@@ -1245,11 +1510,13 @@
         <v>11</v>
       </c>
       <c r="B17" s="6">
-        <v>1054729836</v>
-      </c>
-      <c r="C17" s="6"/>
+        <v>230063</v>
+      </c>
+      <c r="C17" s="6">
+        <v>3112362107</v>
+      </c>
       <c r="D17" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E17" s="2"/>
     </row>
@@ -1258,11 +1525,13 @@
         <v>12</v>
       </c>
       <c r="B18" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C18" s="6"/>
+        <v>230064</v>
+      </c>
+      <c r="C18" s="6">
+        <v>3111690689</v>
+      </c>
       <c r="D18" s="6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E18" s="2"/>
     </row>
@@ -1271,11 +1540,13 @@
         <v>13</v>
       </c>
       <c r="B19" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C19" s="6"/>
+        <v>230065</v>
+      </c>
+      <c r="C19" s="6">
+        <v>3113958253</v>
+      </c>
       <c r="D19" s="6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E19" s="2"/>
     </row>
@@ -1284,11 +1555,13 @@
         <v>14</v>
       </c>
       <c r="B20" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C20" s="6"/>
+        <v>230066</v>
+      </c>
+      <c r="C20" s="6">
+        <v>3102668367</v>
+      </c>
       <c r="D20" s="6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E20" s="2"/>
     </row>
@@ -1297,11 +1570,13 @@
         <v>15</v>
       </c>
       <c r="B21" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C21" s="6"/>
+        <v>230067</v>
+      </c>
+      <c r="C21" s="6">
+        <v>3111001858</v>
+      </c>
       <c r="D21" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E21" s="2"/>
     </row>
@@ -1310,11 +1585,13 @@
         <v>16</v>
       </c>
       <c r="B22" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C22" s="6"/>
+        <v>230068</v>
+      </c>
+      <c r="C22" s="6">
+        <v>3118966437</v>
+      </c>
       <c r="D22" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E22" s="2"/>
     </row>
@@ -1323,11 +1600,13 @@
         <v>17</v>
       </c>
       <c r="B23" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C23" s="6"/>
+        <v>230069</v>
+      </c>
+      <c r="C23" s="6">
+        <v>3107564333</v>
+      </c>
       <c r="D23" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E23" s="2"/>
     </row>
@@ -1336,11 +1615,13 @@
         <v>18</v>
       </c>
       <c r="B24" s="6">
-        <v>2051698743</v>
-      </c>
-      <c r="C24" s="6"/>
+        <v>230070</v>
+      </c>
+      <c r="C24" s="6">
+        <v>3104234312</v>
+      </c>
       <c r="D24" s="6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E24" s="2"/>
     </row>
@@ -1349,11 +1630,13 @@
         <v>19</v>
       </c>
       <c r="B25" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C25" s="6"/>
+        <v>230071</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="D25" s="6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E25" s="2"/>
     </row>
@@ -1362,11 +1645,13 @@
         <v>20</v>
       </c>
       <c r="B26" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C26" s="6"/>
+        <v>230072</v>
+      </c>
+      <c r="C26" s="6">
+        <v>3117704600</v>
+      </c>
       <c r="D26" s="6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E26" s="2"/>
     </row>
@@ -1375,11 +1660,13 @@
         <v>21</v>
       </c>
       <c r="B27" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C27" s="6"/>
+        <v>230073</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="D27" s="6" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E27" s="2"/>
     </row>
@@ -1388,11 +1675,13 @@
         <v>22</v>
       </c>
       <c r="B28" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C28" s="6"/>
+        <v>230074</v>
+      </c>
+      <c r="C28" s="6">
+        <v>3115017824</v>
+      </c>
       <c r="D28" s="6" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E28" s="2"/>
     </row>
@@ -1401,11 +1690,13 @@
         <v>23</v>
       </c>
       <c r="B29" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C29" s="6"/>
+        <v>230075</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="D29" s="6" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E29" s="2"/>
     </row>
@@ -1414,11 +1705,13 @@
         <v>24</v>
       </c>
       <c r="B30" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C30" s="6"/>
+        <v>230076</v>
+      </c>
+      <c r="C30" s="6">
+        <v>3110277952</v>
+      </c>
       <c r="D30" s="6" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E30" s="2"/>
     </row>
@@ -1427,11 +1720,13 @@
         <v>25</v>
       </c>
       <c r="B31" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C31" s="6"/>
+        <v>230077</v>
+      </c>
+      <c r="C31" s="6">
+        <v>3110772564</v>
+      </c>
       <c r="D31" s="6" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E31" s="2"/>
     </row>
@@ -1440,11 +1735,13 @@
         <v>26</v>
       </c>
       <c r="B32" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C32" s="6"/>
+        <v>230078</v>
+      </c>
+      <c r="C32" s="6">
+        <v>3105555155</v>
+      </c>
       <c r="D32" s="6" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E32" s="2"/>
     </row>
@@ -1453,11 +1750,13 @@
         <v>27</v>
       </c>
       <c r="B33" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C33" s="6"/>
+        <v>230079</v>
+      </c>
+      <c r="C33" s="6">
+        <v>3112897238</v>
+      </c>
       <c r="D33" s="6" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E33" s="2"/>
     </row>
@@ -1466,13 +1765,135 @@
         <v>28</v>
       </c>
       <c r="B34" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C34" s="6"/>
+        <v>230080</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="D34" s="6" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="6">
+        <v>29</v>
+      </c>
+      <c r="B35" s="6">
+        <v>230081</v>
+      </c>
+      <c r="C35" s="6">
+        <v>3110688109</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="6">
+        <v>30</v>
+      </c>
+      <c r="B36" s="6">
+        <v>230082</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="6">
+        <v>31</v>
+      </c>
+      <c r="B37" s="6">
+        <v>230083</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="6">
+        <v>32</v>
+      </c>
+      <c r="B38" s="6">
+        <v>230084</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="6">
+        <v>33</v>
+      </c>
+      <c r="B39" s="6">
+        <v>230085</v>
+      </c>
+      <c r="C39" s="6">
+        <v>3111425938</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="6">
+        <v>34</v>
+      </c>
+      <c r="B40" s="6">
+        <v>230086</v>
+      </c>
+      <c r="C40" s="6">
+        <v>3113480787</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="6">
+        <v>35</v>
+      </c>
+      <c r="B41" s="6">
+        <v>230087</v>
+      </c>
+      <c r="C41" s="6">
+        <v>3109391907</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="6">
+        <v>36</v>
+      </c>
+      <c r="B42" s="6">
+        <v>230088</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E42" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1500,18 +1921,18 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="8.141" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="12.854" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="13.997" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="18.71" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="35.277" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="6.998" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -1525,7 +1946,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -1566,9 +1987,11 @@
         <v>1</v>
       </c>
       <c r="B7" s="6">
-        <v>1472583690</v>
-      </c>
-      <c r="C7" s="6"/>
+        <v>230053</v>
+      </c>
+      <c r="C7" s="6">
+        <v>3101430477</v>
+      </c>
       <c r="D7" s="6" t="s">
         <v>11</v>
       </c>
@@ -1579,9 +2002,11 @@
         <v>2</v>
       </c>
       <c r="B8" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C8" s="6"/>
+        <v>230054</v>
+      </c>
+      <c r="C8" s="6">
+        <v>3116220586</v>
+      </c>
       <c r="D8" s="6" t="s">
         <v>12</v>
       </c>
@@ -1592,11 +2017,13 @@
         <v>3</v>
       </c>
       <c r="B9" s="6">
-        <v>1029384756</v>
-      </c>
-      <c r="C9" s="6"/>
+        <v>230055</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="D9" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -1605,11 +2032,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C10" s="6"/>
+        <v>230056</v>
+      </c>
+      <c r="C10" s="6">
+        <v>3110455563</v>
+      </c>
       <c r="D10" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E10" s="2"/>
     </row>
@@ -1618,11 +2047,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C11" s="6"/>
+        <v>230057</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="D11" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E11" s="2"/>
     </row>
@@ -1631,11 +2062,13 @@
         <v>6</v>
       </c>
       <c r="B12" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C12" s="6"/>
+        <v>230058</v>
+      </c>
+      <c r="C12" s="6">
+        <v>3113157241</v>
+      </c>
       <c r="D12" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E12" s="2"/>
     </row>
@@ -1644,11 +2077,13 @@
         <v>7</v>
       </c>
       <c r="B13" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C13" s="6"/>
+        <v>230059</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="D13" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E13" s="2"/>
     </row>
@@ -1657,11 +2092,13 @@
         <v>8</v>
       </c>
       <c r="B14" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C14" s="6"/>
+        <v>230060</v>
+      </c>
+      <c r="C14" s="6">
+        <v>3101079504</v>
+      </c>
       <c r="D14" s="6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E14" s="2"/>
     </row>
@@ -1670,11 +2107,13 @@
         <v>9</v>
       </c>
       <c r="B15" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C15" s="6"/>
+        <v>230061</v>
+      </c>
+      <c r="C15" s="6">
+        <v>3113515171</v>
+      </c>
       <c r="D15" s="6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E15" s="2"/>
     </row>
@@ -1683,11 +2122,13 @@
         <v>10</v>
       </c>
       <c r="B16" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C16" s="6"/>
+        <v>230062</v>
+      </c>
+      <c r="C16" s="6">
+        <v>3119851999</v>
+      </c>
       <c r="D16" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E16" s="2"/>
     </row>
@@ -1696,11 +2137,13 @@
         <v>11</v>
       </c>
       <c r="B17" s="6">
-        <v>1054729836</v>
-      </c>
-      <c r="C17" s="6"/>
+        <v>230063</v>
+      </c>
+      <c r="C17" s="6">
+        <v>3112362107</v>
+      </c>
       <c r="D17" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E17" s="2"/>
     </row>
@@ -1709,11 +2152,13 @@
         <v>12</v>
       </c>
       <c r="B18" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C18" s="6"/>
+        <v>230064</v>
+      </c>
+      <c r="C18" s="6">
+        <v>3111690689</v>
+      </c>
       <c r="D18" s="6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E18" s="2"/>
     </row>
@@ -1722,11 +2167,13 @@
         <v>13</v>
       </c>
       <c r="B19" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C19" s="6"/>
+        <v>230065</v>
+      </c>
+      <c r="C19" s="6">
+        <v>3113958253</v>
+      </c>
       <c r="D19" s="6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E19" s="2"/>
     </row>
@@ -1735,11 +2182,13 @@
         <v>14</v>
       </c>
       <c r="B20" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C20" s="6"/>
+        <v>230066</v>
+      </c>
+      <c r="C20" s="6">
+        <v>3102668367</v>
+      </c>
       <c r="D20" s="6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E20" s="2"/>
     </row>
@@ -1748,11 +2197,13 @@
         <v>15</v>
       </c>
       <c r="B21" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C21" s="6"/>
+        <v>230067</v>
+      </c>
+      <c r="C21" s="6">
+        <v>3111001858</v>
+      </c>
       <c r="D21" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E21" s="2"/>
     </row>
@@ -1761,11 +2212,13 @@
         <v>16</v>
       </c>
       <c r="B22" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C22" s="6"/>
+        <v>230068</v>
+      </c>
+      <c r="C22" s="6">
+        <v>3118966437</v>
+      </c>
       <c r="D22" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E22" s="2"/>
     </row>
@@ -1774,11 +2227,13 @@
         <v>17</v>
       </c>
       <c r="B23" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C23" s="6"/>
+        <v>230069</v>
+      </c>
+      <c r="C23" s="6">
+        <v>3107564333</v>
+      </c>
       <c r="D23" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E23" s="2"/>
     </row>
@@ -1787,11 +2242,13 @@
         <v>18</v>
       </c>
       <c r="B24" s="6">
-        <v>2051698743</v>
-      </c>
-      <c r="C24" s="6"/>
+        <v>230070</v>
+      </c>
+      <c r="C24" s="6">
+        <v>3104234312</v>
+      </c>
       <c r="D24" s="6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E24" s="2"/>
     </row>
@@ -1800,11 +2257,13 @@
         <v>19</v>
       </c>
       <c r="B25" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C25" s="6"/>
+        <v>230071</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="D25" s="6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E25" s="2"/>
     </row>
@@ -1813,11 +2272,13 @@
         <v>20</v>
       </c>
       <c r="B26" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C26" s="6"/>
+        <v>230072</v>
+      </c>
+      <c r="C26" s="6">
+        <v>3117704600</v>
+      </c>
       <c r="D26" s="6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E26" s="2"/>
     </row>
@@ -1826,11 +2287,13 @@
         <v>21</v>
       </c>
       <c r="B27" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C27" s="6"/>
+        <v>230073</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="D27" s="6" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E27" s="2"/>
     </row>
@@ -1839,11 +2302,13 @@
         <v>22</v>
       </c>
       <c r="B28" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C28" s="6"/>
+        <v>230074</v>
+      </c>
+      <c r="C28" s="6">
+        <v>3115017824</v>
+      </c>
       <c r="D28" s="6" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E28" s="2"/>
     </row>
@@ -1852,11 +2317,13 @@
         <v>23</v>
       </c>
       <c r="B29" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C29" s="6"/>
+        <v>230075</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="D29" s="6" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E29" s="2"/>
     </row>
@@ -1865,11 +2332,13 @@
         <v>24</v>
       </c>
       <c r="B30" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C30" s="6"/>
+        <v>230076</v>
+      </c>
+      <c r="C30" s="6">
+        <v>3110277952</v>
+      </c>
       <c r="D30" s="6" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E30" s="2"/>
     </row>
@@ -1878,11 +2347,13 @@
         <v>25</v>
       </c>
       <c r="B31" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C31" s="6"/>
+        <v>230077</v>
+      </c>
+      <c r="C31" s="6">
+        <v>3110772564</v>
+      </c>
       <c r="D31" s="6" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E31" s="2"/>
     </row>
@@ -1891,11 +2362,13 @@
         <v>26</v>
       </c>
       <c r="B32" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C32" s="6"/>
+        <v>230078</v>
+      </c>
+      <c r="C32" s="6">
+        <v>3105555155</v>
+      </c>
       <c r="D32" s="6" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E32" s="2"/>
     </row>
@@ -1904,11 +2377,13 @@
         <v>27</v>
       </c>
       <c r="B33" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C33" s="6"/>
+        <v>230079</v>
+      </c>
+      <c r="C33" s="6">
+        <v>3112897238</v>
+      </c>
       <c r="D33" s="6" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E33" s="2"/>
     </row>
@@ -1917,13 +2392,135 @@
         <v>28</v>
       </c>
       <c r="B34" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C34" s="6"/>
+        <v>230080</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="D34" s="6" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="6">
+        <v>29</v>
+      </c>
+      <c r="B35" s="6">
+        <v>230081</v>
+      </c>
+      <c r="C35" s="6">
+        <v>3110688109</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="6">
+        <v>30</v>
+      </c>
+      <c r="B36" s="6">
+        <v>230082</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="6">
+        <v>31</v>
+      </c>
+      <c r="B37" s="6">
+        <v>230083</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="6">
+        <v>32</v>
+      </c>
+      <c r="B38" s="6">
+        <v>230084</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="6">
+        <v>33</v>
+      </c>
+      <c r="B39" s="6">
+        <v>230085</v>
+      </c>
+      <c r="C39" s="6">
+        <v>3111425938</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="6">
+        <v>34</v>
+      </c>
+      <c r="B40" s="6">
+        <v>230086</v>
+      </c>
+      <c r="C40" s="6">
+        <v>3113480787</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="6">
+        <v>35</v>
+      </c>
+      <c r="B41" s="6">
+        <v>230087</v>
+      </c>
+      <c r="C41" s="6">
+        <v>3109391907</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="6">
+        <v>36</v>
+      </c>
+      <c r="B42" s="6">
+        <v>230088</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E42" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1951,18 +2548,18 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="8.141" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="12.854" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="13.997" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="18.71" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="35.277" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="6.998" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -1976,7 +2573,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -2017,9 +2614,11 @@
         <v>1</v>
       </c>
       <c r="B7" s="6">
-        <v>1472583690</v>
-      </c>
-      <c r="C7" s="6"/>
+        <v>230053</v>
+      </c>
+      <c r="C7" s="6">
+        <v>3101430477</v>
+      </c>
       <c r="D7" s="6" t="s">
         <v>11</v>
       </c>
@@ -2030,9 +2629,11 @@
         <v>2</v>
       </c>
       <c r="B8" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C8" s="6"/>
+        <v>230054</v>
+      </c>
+      <c r="C8" s="6">
+        <v>3116220586</v>
+      </c>
       <c r="D8" s="6" t="s">
         <v>12</v>
       </c>
@@ -2043,11 +2644,13 @@
         <v>3</v>
       </c>
       <c r="B9" s="6">
-        <v>1029384756</v>
-      </c>
-      <c r="C9" s="6"/>
+        <v>230055</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="D9" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -2056,11 +2659,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C10" s="6"/>
+        <v>230056</v>
+      </c>
+      <c r="C10" s="6">
+        <v>3110455563</v>
+      </c>
       <c r="D10" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E10" s="2"/>
     </row>
@@ -2069,11 +2674,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C11" s="6"/>
+        <v>230057</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="D11" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E11" s="2"/>
     </row>
@@ -2082,11 +2689,13 @@
         <v>6</v>
       </c>
       <c r="B12" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C12" s="6"/>
+        <v>230058</v>
+      </c>
+      <c r="C12" s="6">
+        <v>3113157241</v>
+      </c>
       <c r="D12" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E12" s="2"/>
     </row>
@@ -2095,11 +2704,13 @@
         <v>7</v>
       </c>
       <c r="B13" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C13" s="6"/>
+        <v>230059</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="D13" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E13" s="2"/>
     </row>
@@ -2108,11 +2719,13 @@
         <v>8</v>
       </c>
       <c r="B14" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C14" s="6"/>
+        <v>230060</v>
+      </c>
+      <c r="C14" s="6">
+        <v>3101079504</v>
+      </c>
       <c r="D14" s="6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E14" s="2"/>
     </row>
@@ -2121,11 +2734,13 @@
         <v>9</v>
       </c>
       <c r="B15" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C15" s="6"/>
+        <v>230061</v>
+      </c>
+      <c r="C15" s="6">
+        <v>3113515171</v>
+      </c>
       <c r="D15" s="6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E15" s="2"/>
     </row>
@@ -2134,11 +2749,13 @@
         <v>10</v>
       </c>
       <c r="B16" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C16" s="6"/>
+        <v>230062</v>
+      </c>
+      <c r="C16" s="6">
+        <v>3119851999</v>
+      </c>
       <c r="D16" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E16" s="2"/>
     </row>
@@ -2147,11 +2764,13 @@
         <v>11</v>
       </c>
       <c r="B17" s="6">
-        <v>1054729836</v>
-      </c>
-      <c r="C17" s="6"/>
+        <v>230063</v>
+      </c>
+      <c r="C17" s="6">
+        <v>3112362107</v>
+      </c>
       <c r="D17" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E17" s="2"/>
     </row>
@@ -2160,11 +2779,13 @@
         <v>12</v>
       </c>
       <c r="B18" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C18" s="6"/>
+        <v>230064</v>
+      </c>
+      <c r="C18" s="6">
+        <v>3111690689</v>
+      </c>
       <c r="D18" s="6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E18" s="2"/>
     </row>
@@ -2173,11 +2794,13 @@
         <v>13</v>
       </c>
       <c r="B19" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C19" s="6"/>
+        <v>230065</v>
+      </c>
+      <c r="C19" s="6">
+        <v>3113958253</v>
+      </c>
       <c r="D19" s="6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E19" s="2"/>
     </row>
@@ -2186,11 +2809,13 @@
         <v>14</v>
       </c>
       <c r="B20" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C20" s="6"/>
+        <v>230066</v>
+      </c>
+      <c r="C20" s="6">
+        <v>3102668367</v>
+      </c>
       <c r="D20" s="6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E20" s="2"/>
     </row>
@@ -2199,11 +2824,13 @@
         <v>15</v>
       </c>
       <c r="B21" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C21" s="6"/>
+        <v>230067</v>
+      </c>
+      <c r="C21" s="6">
+        <v>3111001858</v>
+      </c>
       <c r="D21" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E21" s="2"/>
     </row>
@@ -2212,11 +2839,13 @@
         <v>16</v>
       </c>
       <c r="B22" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C22" s="6"/>
+        <v>230068</v>
+      </c>
+      <c r="C22" s="6">
+        <v>3118966437</v>
+      </c>
       <c r="D22" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E22" s="2"/>
     </row>
@@ -2225,11 +2854,13 @@
         <v>17</v>
       </c>
       <c r="B23" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C23" s="6"/>
+        <v>230069</v>
+      </c>
+      <c r="C23" s="6">
+        <v>3107564333</v>
+      </c>
       <c r="D23" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E23" s="2"/>
     </row>
@@ -2238,11 +2869,13 @@
         <v>18</v>
       </c>
       <c r="B24" s="6">
-        <v>2051698743</v>
-      </c>
-      <c r="C24" s="6"/>
+        <v>230070</v>
+      </c>
+      <c r="C24" s="6">
+        <v>3104234312</v>
+      </c>
       <c r="D24" s="6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E24" s="2"/>
     </row>
@@ -2251,11 +2884,13 @@
         <v>19</v>
       </c>
       <c r="B25" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C25" s="6"/>
+        <v>230071</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="D25" s="6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E25" s="2"/>
     </row>
@@ -2264,11 +2899,13 @@
         <v>20</v>
       </c>
       <c r="B26" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C26" s="6"/>
+        <v>230072</v>
+      </c>
+      <c r="C26" s="6">
+        <v>3117704600</v>
+      </c>
       <c r="D26" s="6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E26" s="2"/>
     </row>
@@ -2277,11 +2914,13 @@
         <v>21</v>
       </c>
       <c r="B27" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C27" s="6"/>
+        <v>230073</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="D27" s="6" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E27" s="2"/>
     </row>
@@ -2290,11 +2929,13 @@
         <v>22</v>
       </c>
       <c r="B28" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C28" s="6"/>
+        <v>230074</v>
+      </c>
+      <c r="C28" s="6">
+        <v>3115017824</v>
+      </c>
       <c r="D28" s="6" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E28" s="2"/>
     </row>
@@ -2303,11 +2944,13 @@
         <v>23</v>
       </c>
       <c r="B29" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C29" s="6"/>
+        <v>230075</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="D29" s="6" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E29" s="2"/>
     </row>
@@ -2316,11 +2959,13 @@
         <v>24</v>
       </c>
       <c r="B30" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C30" s="6"/>
+        <v>230076</v>
+      </c>
+      <c r="C30" s="6">
+        <v>3110277952</v>
+      </c>
       <c r="D30" s="6" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E30" s="2"/>
     </row>
@@ -2329,11 +2974,13 @@
         <v>25</v>
       </c>
       <c r="B31" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C31" s="6"/>
+        <v>230077</v>
+      </c>
+      <c r="C31" s="6">
+        <v>3110772564</v>
+      </c>
       <c r="D31" s="6" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E31" s="2"/>
     </row>
@@ -2342,11 +2989,13 @@
         <v>26</v>
       </c>
       <c r="B32" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C32" s="6"/>
+        <v>230078</v>
+      </c>
+      <c r="C32" s="6">
+        <v>3105555155</v>
+      </c>
       <c r="D32" s="6" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E32" s="2"/>
     </row>
@@ -2355,11 +3004,13 @@
         <v>27</v>
       </c>
       <c r="B33" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C33" s="6"/>
+        <v>230079</v>
+      </c>
+      <c r="C33" s="6">
+        <v>3112897238</v>
+      </c>
       <c r="D33" s="6" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E33" s="2"/>
     </row>
@@ -2368,13 +3019,135 @@
         <v>28</v>
       </c>
       <c r="B34" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C34" s="6"/>
+        <v>230080</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="D34" s="6" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="6">
+        <v>29</v>
+      </c>
+      <c r="B35" s="6">
+        <v>230081</v>
+      </c>
+      <c r="C35" s="6">
+        <v>3110688109</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="6">
+        <v>30</v>
+      </c>
+      <c r="B36" s="6">
+        <v>230082</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="6">
+        <v>31</v>
+      </c>
+      <c r="B37" s="6">
+        <v>230083</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="6">
+        <v>32</v>
+      </c>
+      <c r="B38" s="6">
+        <v>230084</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="6">
+        <v>33</v>
+      </c>
+      <c r="B39" s="6">
+        <v>230085</v>
+      </c>
+      <c r="C39" s="6">
+        <v>3111425938</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="6">
+        <v>34</v>
+      </c>
+      <c r="B40" s="6">
+        <v>230086</v>
+      </c>
+      <c r="C40" s="6">
+        <v>3113480787</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="6">
+        <v>35</v>
+      </c>
+      <c r="B41" s="6">
+        <v>230087</v>
+      </c>
+      <c r="C41" s="6">
+        <v>3109391907</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="6">
+        <v>36</v>
+      </c>
+      <c r="B42" s="6">
+        <v>230088</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E42" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2402,18 +3175,18 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="8.141" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="12.854" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="13.997" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="18.71" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="35.277" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="6.998" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -2427,7 +3200,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -2468,9 +3241,11 @@
         <v>1</v>
       </c>
       <c r="B7" s="6">
-        <v>1472583690</v>
-      </c>
-      <c r="C7" s="6"/>
+        <v>230053</v>
+      </c>
+      <c r="C7" s="6">
+        <v>3101430477</v>
+      </c>
       <c r="D7" s="6" t="s">
         <v>11</v>
       </c>
@@ -2481,9 +3256,11 @@
         <v>2</v>
       </c>
       <c r="B8" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C8" s="6"/>
+        <v>230054</v>
+      </c>
+      <c r="C8" s="6">
+        <v>3116220586</v>
+      </c>
       <c r="D8" s="6" t="s">
         <v>12</v>
       </c>
@@ -2494,11 +3271,13 @@
         <v>3</v>
       </c>
       <c r="B9" s="6">
-        <v>1029384756</v>
-      </c>
-      <c r="C9" s="6"/>
+        <v>230055</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="D9" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -2507,11 +3286,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C10" s="6"/>
+        <v>230056</v>
+      </c>
+      <c r="C10" s="6">
+        <v>3110455563</v>
+      </c>
       <c r="D10" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E10" s="2"/>
     </row>
@@ -2520,11 +3301,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C11" s="6"/>
+        <v>230057</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="D11" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E11" s="2"/>
     </row>
@@ -2533,11 +3316,13 @@
         <v>6</v>
       </c>
       <c r="B12" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C12" s="6"/>
+        <v>230058</v>
+      </c>
+      <c r="C12" s="6">
+        <v>3113157241</v>
+      </c>
       <c r="D12" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E12" s="2"/>
     </row>
@@ -2546,11 +3331,13 @@
         <v>7</v>
       </c>
       <c r="B13" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C13" s="6"/>
+        <v>230059</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="D13" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E13" s="2"/>
     </row>
@@ -2559,11 +3346,13 @@
         <v>8</v>
       </c>
       <c r="B14" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C14" s="6"/>
+        <v>230060</v>
+      </c>
+      <c r="C14" s="6">
+        <v>3101079504</v>
+      </c>
       <c r="D14" s="6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E14" s="2"/>
     </row>
@@ -2572,11 +3361,13 @@
         <v>9</v>
       </c>
       <c r="B15" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C15" s="6"/>
+        <v>230061</v>
+      </c>
+      <c r="C15" s="6">
+        <v>3113515171</v>
+      </c>
       <c r="D15" s="6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E15" s="2"/>
     </row>
@@ -2585,11 +3376,13 @@
         <v>10</v>
       </c>
       <c r="B16" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C16" s="6"/>
+        <v>230062</v>
+      </c>
+      <c r="C16" s="6">
+        <v>3119851999</v>
+      </c>
       <c r="D16" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E16" s="2"/>
     </row>
@@ -2598,11 +3391,13 @@
         <v>11</v>
       </c>
       <c r="B17" s="6">
-        <v>1054729836</v>
-      </c>
-      <c r="C17" s="6"/>
+        <v>230063</v>
+      </c>
+      <c r="C17" s="6">
+        <v>3112362107</v>
+      </c>
       <c r="D17" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E17" s="2"/>
     </row>
@@ -2611,11 +3406,13 @@
         <v>12</v>
       </c>
       <c r="B18" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C18" s="6"/>
+        <v>230064</v>
+      </c>
+      <c r="C18" s="6">
+        <v>3111690689</v>
+      </c>
       <c r="D18" s="6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E18" s="2"/>
     </row>
@@ -2624,11 +3421,13 @@
         <v>13</v>
       </c>
       <c r="B19" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C19" s="6"/>
+        <v>230065</v>
+      </c>
+      <c r="C19" s="6">
+        <v>3113958253</v>
+      </c>
       <c r="D19" s="6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E19" s="2"/>
     </row>
@@ -2637,11 +3436,13 @@
         <v>14</v>
       </c>
       <c r="B20" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C20" s="6"/>
+        <v>230066</v>
+      </c>
+      <c r="C20" s="6">
+        <v>3102668367</v>
+      </c>
       <c r="D20" s="6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E20" s="2"/>
     </row>
@@ -2650,11 +3451,13 @@
         <v>15</v>
       </c>
       <c r="B21" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C21" s="6"/>
+        <v>230067</v>
+      </c>
+      <c r="C21" s="6">
+        <v>3111001858</v>
+      </c>
       <c r="D21" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E21" s="2"/>
     </row>
@@ -2663,11 +3466,13 @@
         <v>16</v>
       </c>
       <c r="B22" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C22" s="6"/>
+        <v>230068</v>
+      </c>
+      <c r="C22" s="6">
+        <v>3118966437</v>
+      </c>
       <c r="D22" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E22" s="2"/>
     </row>
@@ -2676,11 +3481,13 @@
         <v>17</v>
       </c>
       <c r="B23" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C23" s="6"/>
+        <v>230069</v>
+      </c>
+      <c r="C23" s="6">
+        <v>3107564333</v>
+      </c>
       <c r="D23" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E23" s="2"/>
     </row>
@@ -2689,11 +3496,13 @@
         <v>18</v>
       </c>
       <c r="B24" s="6">
-        <v>2051698743</v>
-      </c>
-      <c r="C24" s="6"/>
+        <v>230070</v>
+      </c>
+      <c r="C24" s="6">
+        <v>3104234312</v>
+      </c>
       <c r="D24" s="6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E24" s="2"/>
     </row>
@@ -2702,11 +3511,13 @@
         <v>19</v>
       </c>
       <c r="B25" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C25" s="6"/>
+        <v>230071</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="D25" s="6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E25" s="2"/>
     </row>
@@ -2715,11 +3526,13 @@
         <v>20</v>
       </c>
       <c r="B26" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C26" s="6"/>
+        <v>230072</v>
+      </c>
+      <c r="C26" s="6">
+        <v>3117704600</v>
+      </c>
       <c r="D26" s="6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E26" s="2"/>
     </row>
@@ -2728,11 +3541,13 @@
         <v>21</v>
       </c>
       <c r="B27" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C27" s="6"/>
+        <v>230073</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="D27" s="6" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E27" s="2"/>
     </row>
@@ -2741,11 +3556,13 @@
         <v>22</v>
       </c>
       <c r="B28" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C28" s="6"/>
+        <v>230074</v>
+      </c>
+      <c r="C28" s="6">
+        <v>3115017824</v>
+      </c>
       <c r="D28" s="6" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E28" s="2"/>
     </row>
@@ -2754,11 +3571,13 @@
         <v>23</v>
       </c>
       <c r="B29" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C29" s="6"/>
+        <v>230075</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="D29" s="6" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E29" s="2"/>
     </row>
@@ -2767,11 +3586,13 @@
         <v>24</v>
       </c>
       <c r="B30" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C30" s="6"/>
+        <v>230076</v>
+      </c>
+      <c r="C30" s="6">
+        <v>3110277952</v>
+      </c>
       <c r="D30" s="6" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E30" s="2"/>
     </row>
@@ -2780,11 +3601,13 @@
         <v>25</v>
       </c>
       <c r="B31" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C31" s="6"/>
+        <v>230077</v>
+      </c>
+      <c r="C31" s="6">
+        <v>3110772564</v>
+      </c>
       <c r="D31" s="6" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E31" s="2"/>
     </row>
@@ -2793,11 +3616,13 @@
         <v>26</v>
       </c>
       <c r="B32" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C32" s="6"/>
+        <v>230078</v>
+      </c>
+      <c r="C32" s="6">
+        <v>3105555155</v>
+      </c>
       <c r="D32" s="6" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E32" s="2"/>
     </row>
@@ -2806,11 +3631,13 @@
         <v>27</v>
       </c>
       <c r="B33" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C33" s="6"/>
+        <v>230079</v>
+      </c>
+      <c r="C33" s="6">
+        <v>3112897238</v>
+      </c>
       <c r="D33" s="6" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E33" s="2"/>
     </row>
@@ -2819,13 +3646,2016 @@
         <v>28</v>
       </c>
       <c r="B34" s="6">
-        <v>2147483647</v>
-      </c>
-      <c r="C34" s="6"/>
+        <v>230080</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="D34" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="6">
+        <v>29</v>
+      </c>
+      <c r="B35" s="6">
+        <v>230081</v>
+      </c>
+      <c r="C35" s="6">
+        <v>3110688109</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="6">
+        <v>30</v>
+      </c>
+      <c r="B36" s="6">
+        <v>230082</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="6">
+        <v>31</v>
+      </c>
+      <c r="B37" s="6">
+        <v>230083</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="6">
+        <v>32</v>
+      </c>
+      <c r="B38" s="6">
+        <v>230084</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="6">
+        <v>33</v>
+      </c>
+      <c r="B39" s="6">
+        <v>230085</v>
+      </c>
+      <c r="C39" s="6">
+        <v>3111425938</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="6">
+        <v>34</v>
+      </c>
+      <c r="B40" s="6">
+        <v>230086</v>
+      </c>
+      <c r="C40" s="6">
+        <v>3113480787</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="6">
+        <v>35</v>
+      </c>
+      <c r="B41" s="6">
+        <v>230087</v>
+      </c>
+      <c r="C41" s="6">
+        <v>3109391907</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="6">
+        <v>36</v>
+      </c>
+      <c r="B42" s="6">
+        <v>230088</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E42" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:E3"/>
+  </mergeCells>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:E42"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="E42" sqref="E42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="8.141" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="8.141" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="13.997" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="35.277" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="6.998" bestFit="true" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="6">
+        <v>1</v>
+      </c>
+      <c r="B7" s="6">
+        <v>230053</v>
+      </c>
+      <c r="C7" s="6">
+        <v>3101430477</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="6">
+        <v>2</v>
+      </c>
+      <c r="B8" s="6">
+        <v>230054</v>
+      </c>
+      <c r="C8" s="6">
+        <v>3116220586</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="6">
+        <v>3</v>
+      </c>
+      <c r="B9" s="6">
+        <v>230055</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="6">
+        <v>4</v>
+      </c>
+      <c r="B10" s="6">
+        <v>230056</v>
+      </c>
+      <c r="C10" s="6">
+        <v>3110455563</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="6">
+        <v>5</v>
+      </c>
+      <c r="B11" s="6">
+        <v>230057</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="6">
+        <v>6</v>
+      </c>
+      <c r="B12" s="6">
+        <v>230058</v>
+      </c>
+      <c r="C12" s="6">
+        <v>3113157241</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="6">
+        <v>7</v>
+      </c>
+      <c r="B13" s="6">
+        <v>230059</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="6">
+        <v>8</v>
+      </c>
+      <c r="B14" s="6">
+        <v>230060</v>
+      </c>
+      <c r="C14" s="6">
+        <v>3101079504</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="6">
+        <v>9</v>
+      </c>
+      <c r="B15" s="6">
+        <v>230061</v>
+      </c>
+      <c r="C15" s="6">
+        <v>3113515171</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="6">
+        <v>10</v>
+      </c>
+      <c r="B16" s="6">
+        <v>230062</v>
+      </c>
+      <c r="C16" s="6">
+        <v>3119851999</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="6">
+        <v>11</v>
+      </c>
+      <c r="B17" s="6">
+        <v>230063</v>
+      </c>
+      <c r="C17" s="6">
+        <v>3112362107</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="6">
+        <v>12</v>
+      </c>
+      <c r="B18" s="6">
+        <v>230064</v>
+      </c>
+      <c r="C18" s="6">
+        <v>3111690689</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="6">
+        <v>13</v>
+      </c>
+      <c r="B19" s="6">
+        <v>230065</v>
+      </c>
+      <c r="C19" s="6">
+        <v>3113958253</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="6">
+        <v>14</v>
+      </c>
+      <c r="B20" s="6">
+        <v>230066</v>
+      </c>
+      <c r="C20" s="6">
+        <v>3102668367</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="6">
+        <v>15</v>
+      </c>
+      <c r="B21" s="6">
+        <v>230067</v>
+      </c>
+      <c r="C21" s="6">
+        <v>3111001858</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="6">
+        <v>16</v>
+      </c>
+      <c r="B22" s="6">
+        <v>230068</v>
+      </c>
+      <c r="C22" s="6">
+        <v>3118966437</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="6">
+        <v>17</v>
+      </c>
+      <c r="B23" s="6">
+        <v>230069</v>
+      </c>
+      <c r="C23" s="6">
+        <v>3107564333</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="6">
+        <v>18</v>
+      </c>
+      <c r="B24" s="6">
+        <v>230070</v>
+      </c>
+      <c r="C24" s="6">
+        <v>3104234312</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="6">
+        <v>19</v>
+      </c>
+      <c r="B25" s="6">
+        <v>230071</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="6">
+        <v>20</v>
+      </c>
+      <c r="B26" s="6">
+        <v>230072</v>
+      </c>
+      <c r="C26" s="6">
+        <v>3117704600</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="6">
+        <v>21</v>
+      </c>
+      <c r="B27" s="6">
+        <v>230073</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="6">
+        <v>22</v>
+      </c>
+      <c r="B28" s="6">
+        <v>230074</v>
+      </c>
+      <c r="C28" s="6">
+        <v>3115017824</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="6">
+        <v>23</v>
+      </c>
+      <c r="B29" s="6">
+        <v>230075</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>38</v>
       </c>
+      <c r="D29" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="6">
+        <v>24</v>
+      </c>
+      <c r="B30" s="6">
+        <v>230076</v>
+      </c>
+      <c r="C30" s="6">
+        <v>3110277952</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="6">
+        <v>25</v>
+      </c>
+      <c r="B31" s="6">
+        <v>230077</v>
+      </c>
+      <c r="C31" s="6">
+        <v>3110772564</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="6">
+        <v>26</v>
+      </c>
+      <c r="B32" s="6">
+        <v>230078</v>
+      </c>
+      <c r="C32" s="6">
+        <v>3105555155</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="6">
+        <v>27</v>
+      </c>
+      <c r="B33" s="6">
+        <v>230079</v>
+      </c>
+      <c r="C33" s="6">
+        <v>3112897238</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="6">
+        <v>28</v>
+      </c>
+      <c r="B34" s="6">
+        <v>230080</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="6">
+        <v>29</v>
+      </c>
+      <c r="B35" s="6">
+        <v>230081</v>
+      </c>
+      <c r="C35" s="6">
+        <v>3110688109</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="6">
+        <v>30</v>
+      </c>
+      <c r="B36" s="6">
+        <v>230082</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="6">
+        <v>31</v>
+      </c>
+      <c r="B37" s="6">
+        <v>230083</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="6">
+        <v>32</v>
+      </c>
+      <c r="B38" s="6">
+        <v>230084</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="6">
+        <v>33</v>
+      </c>
+      <c r="B39" s="6">
+        <v>230085</v>
+      </c>
+      <c r="C39" s="6">
+        <v>3111425938</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="6">
+        <v>34</v>
+      </c>
+      <c r="B40" s="6">
+        <v>230086</v>
+      </c>
+      <c r="C40" s="6">
+        <v>3113480787</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="6">
+        <v>35</v>
+      </c>
+      <c r="B41" s="6">
+        <v>230087</v>
+      </c>
+      <c r="C41" s="6">
+        <v>3109391907</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="6">
+        <v>36</v>
+      </c>
+      <c r="B42" s="6">
+        <v>230088</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E42" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:E3"/>
+  </mergeCells>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:E42"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="E42" sqref="E42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="8.141" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="8.141" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="13.997" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="35.277" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="6.998" bestFit="true" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="6">
+        <v>1</v>
+      </c>
+      <c r="B7" s="6">
+        <v>230053</v>
+      </c>
+      <c r="C7" s="6">
+        <v>3101430477</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="6">
+        <v>2</v>
+      </c>
+      <c r="B8" s="6">
+        <v>230054</v>
+      </c>
+      <c r="C8" s="6">
+        <v>3116220586</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="6">
+        <v>3</v>
+      </c>
+      <c r="B9" s="6">
+        <v>230055</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="6">
+        <v>4</v>
+      </c>
+      <c r="B10" s="6">
+        <v>230056</v>
+      </c>
+      <c r="C10" s="6">
+        <v>3110455563</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="6">
+        <v>5</v>
+      </c>
+      <c r="B11" s="6">
+        <v>230057</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="6">
+        <v>6</v>
+      </c>
+      <c r="B12" s="6">
+        <v>230058</v>
+      </c>
+      <c r="C12" s="6">
+        <v>3113157241</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="6">
+        <v>7</v>
+      </c>
+      <c r="B13" s="6">
+        <v>230059</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="6">
+        <v>8</v>
+      </c>
+      <c r="B14" s="6">
+        <v>230060</v>
+      </c>
+      <c r="C14" s="6">
+        <v>3101079504</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="6">
+        <v>9</v>
+      </c>
+      <c r="B15" s="6">
+        <v>230061</v>
+      </c>
+      <c r="C15" s="6">
+        <v>3113515171</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="6">
+        <v>10</v>
+      </c>
+      <c r="B16" s="6">
+        <v>230062</v>
+      </c>
+      <c r="C16" s="6">
+        <v>3119851999</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="6">
+        <v>11</v>
+      </c>
+      <c r="B17" s="6">
+        <v>230063</v>
+      </c>
+      <c r="C17" s="6">
+        <v>3112362107</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="6">
+        <v>12</v>
+      </c>
+      <c r="B18" s="6">
+        <v>230064</v>
+      </c>
+      <c r="C18" s="6">
+        <v>3111690689</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="6">
+        <v>13</v>
+      </c>
+      <c r="B19" s="6">
+        <v>230065</v>
+      </c>
+      <c r="C19" s="6">
+        <v>3113958253</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="6">
+        <v>14</v>
+      </c>
+      <c r="B20" s="6">
+        <v>230066</v>
+      </c>
+      <c r="C20" s="6">
+        <v>3102668367</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="6">
+        <v>15</v>
+      </c>
+      <c r="B21" s="6">
+        <v>230067</v>
+      </c>
+      <c r="C21" s="6">
+        <v>3111001858</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="6">
+        <v>16</v>
+      </c>
+      <c r="B22" s="6">
+        <v>230068</v>
+      </c>
+      <c r="C22" s="6">
+        <v>3118966437</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="6">
+        <v>17</v>
+      </c>
+      <c r="B23" s="6">
+        <v>230069</v>
+      </c>
+      <c r="C23" s="6">
+        <v>3107564333</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="6">
+        <v>18</v>
+      </c>
+      <c r="B24" s="6">
+        <v>230070</v>
+      </c>
+      <c r="C24" s="6">
+        <v>3104234312</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="6">
+        <v>19</v>
+      </c>
+      <c r="B25" s="6">
+        <v>230071</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="6">
+        <v>20</v>
+      </c>
+      <c r="B26" s="6">
+        <v>230072</v>
+      </c>
+      <c r="C26" s="6">
+        <v>3117704600</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="6">
+        <v>21</v>
+      </c>
+      <c r="B27" s="6">
+        <v>230073</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="6">
+        <v>22</v>
+      </c>
+      <c r="B28" s="6">
+        <v>230074</v>
+      </c>
+      <c r="C28" s="6">
+        <v>3115017824</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="6">
+        <v>23</v>
+      </c>
+      <c r="B29" s="6">
+        <v>230075</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="6">
+        <v>24</v>
+      </c>
+      <c r="B30" s="6">
+        <v>230076</v>
+      </c>
+      <c r="C30" s="6">
+        <v>3110277952</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="6">
+        <v>25</v>
+      </c>
+      <c r="B31" s="6">
+        <v>230077</v>
+      </c>
+      <c r="C31" s="6">
+        <v>3110772564</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="6">
+        <v>26</v>
+      </c>
+      <c r="B32" s="6">
+        <v>230078</v>
+      </c>
+      <c r="C32" s="6">
+        <v>3105555155</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="6">
+        <v>27</v>
+      </c>
+      <c r="B33" s="6">
+        <v>230079</v>
+      </c>
+      <c r="C33" s="6">
+        <v>3112897238</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="6">
+        <v>28</v>
+      </c>
+      <c r="B34" s="6">
+        <v>230080</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="6">
+        <v>29</v>
+      </c>
+      <c r="B35" s="6">
+        <v>230081</v>
+      </c>
+      <c r="C35" s="6">
+        <v>3110688109</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="6">
+        <v>30</v>
+      </c>
+      <c r="B36" s="6">
+        <v>230082</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="6">
+        <v>31</v>
+      </c>
+      <c r="B37" s="6">
+        <v>230083</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="6">
+        <v>32</v>
+      </c>
+      <c r="B38" s="6">
+        <v>230084</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="6">
+        <v>33</v>
+      </c>
+      <c r="B39" s="6">
+        <v>230085</v>
+      </c>
+      <c r="C39" s="6">
+        <v>3111425938</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="6">
+        <v>34</v>
+      </c>
+      <c r="B40" s="6">
+        <v>230086</v>
+      </c>
+      <c r="C40" s="6">
+        <v>3113480787</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="6">
+        <v>35</v>
+      </c>
+      <c r="B41" s="6">
+        <v>230087</v>
+      </c>
+      <c r="C41" s="6">
+        <v>3109391907</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="6">
+        <v>36</v>
+      </c>
+      <c r="B42" s="6">
+        <v>230088</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E42" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B3:E3"/>
+  </mergeCells>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:E42"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="E42" sqref="E42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="8.141" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="8.141" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="13.997" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="35.277" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="6.998" bestFit="true" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="6">
+        <v>1</v>
+      </c>
+      <c r="B7" s="6">
+        <v>230053</v>
+      </c>
+      <c r="C7" s="6">
+        <v>3101430477</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="6">
+        <v>2</v>
+      </c>
+      <c r="B8" s="6">
+        <v>230054</v>
+      </c>
+      <c r="C8" s="6">
+        <v>3116220586</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="6">
+        <v>3</v>
+      </c>
+      <c r="B9" s="6">
+        <v>230055</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="6">
+        <v>4</v>
+      </c>
+      <c r="B10" s="6">
+        <v>230056</v>
+      </c>
+      <c r="C10" s="6">
+        <v>3110455563</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="6">
+        <v>5</v>
+      </c>
+      <c r="B11" s="6">
+        <v>230057</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="6">
+        <v>6</v>
+      </c>
+      <c r="B12" s="6">
+        <v>230058</v>
+      </c>
+      <c r="C12" s="6">
+        <v>3113157241</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="6">
+        <v>7</v>
+      </c>
+      <c r="B13" s="6">
+        <v>230059</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="6">
+        <v>8</v>
+      </c>
+      <c r="B14" s="6">
+        <v>230060</v>
+      </c>
+      <c r="C14" s="6">
+        <v>3101079504</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="6">
+        <v>9</v>
+      </c>
+      <c r="B15" s="6">
+        <v>230061</v>
+      </c>
+      <c r="C15" s="6">
+        <v>3113515171</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="6">
+        <v>10</v>
+      </c>
+      <c r="B16" s="6">
+        <v>230062</v>
+      </c>
+      <c r="C16" s="6">
+        <v>3119851999</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="6">
+        <v>11</v>
+      </c>
+      <c r="B17" s="6">
+        <v>230063</v>
+      </c>
+      <c r="C17" s="6">
+        <v>3112362107</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="6">
+        <v>12</v>
+      </c>
+      <c r="B18" s="6">
+        <v>230064</v>
+      </c>
+      <c r="C18" s="6">
+        <v>3111690689</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="6">
+        <v>13</v>
+      </c>
+      <c r="B19" s="6">
+        <v>230065</v>
+      </c>
+      <c r="C19" s="6">
+        <v>3113958253</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="6">
+        <v>14</v>
+      </c>
+      <c r="B20" s="6">
+        <v>230066</v>
+      </c>
+      <c r="C20" s="6">
+        <v>3102668367</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="6">
+        <v>15</v>
+      </c>
+      <c r="B21" s="6">
+        <v>230067</v>
+      </c>
+      <c r="C21" s="6">
+        <v>3111001858</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="6">
+        <v>16</v>
+      </c>
+      <c r="B22" s="6">
+        <v>230068</v>
+      </c>
+      <c r="C22" s="6">
+        <v>3118966437</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="6">
+        <v>17</v>
+      </c>
+      <c r="B23" s="6">
+        <v>230069</v>
+      </c>
+      <c r="C23" s="6">
+        <v>3107564333</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="6">
+        <v>18</v>
+      </c>
+      <c r="B24" s="6">
+        <v>230070</v>
+      </c>
+      <c r="C24" s="6">
+        <v>3104234312</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="6">
+        <v>19</v>
+      </c>
+      <c r="B25" s="6">
+        <v>230071</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="6">
+        <v>20</v>
+      </c>
+      <c r="B26" s="6">
+        <v>230072</v>
+      </c>
+      <c r="C26" s="6">
+        <v>3117704600</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="6">
+        <v>21</v>
+      </c>
+      <c r="B27" s="6">
+        <v>230073</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="6">
+        <v>22</v>
+      </c>
+      <c r="B28" s="6">
+        <v>230074</v>
+      </c>
+      <c r="C28" s="6">
+        <v>3115017824</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="6">
+        <v>23</v>
+      </c>
+      <c r="B29" s="6">
+        <v>230075</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="6">
+        <v>24</v>
+      </c>
+      <c r="B30" s="6">
+        <v>230076</v>
+      </c>
+      <c r="C30" s="6">
+        <v>3110277952</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="6">
+        <v>25</v>
+      </c>
+      <c r="B31" s="6">
+        <v>230077</v>
+      </c>
+      <c r="C31" s="6">
+        <v>3110772564</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="6">
+        <v>26</v>
+      </c>
+      <c r="B32" s="6">
+        <v>230078</v>
+      </c>
+      <c r="C32" s="6">
+        <v>3105555155</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="6">
+        <v>27</v>
+      </c>
+      <c r="B33" s="6">
+        <v>230079</v>
+      </c>
+      <c r="C33" s="6">
+        <v>3112897238</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="6">
+        <v>28</v>
+      </c>
+      <c r="B34" s="6">
+        <v>230080</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="6">
+        <v>29</v>
+      </c>
+      <c r="B35" s="6">
+        <v>230081</v>
+      </c>
+      <c r="C35" s="6">
+        <v>3110688109</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="6">
+        <v>30</v>
+      </c>
+      <c r="B36" s="6">
+        <v>230082</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="6">
+        <v>31</v>
+      </c>
+      <c r="B37" s="6">
+        <v>230083</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="6">
+        <v>32</v>
+      </c>
+      <c r="B38" s="6">
+        <v>230084</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="6">
+        <v>33</v>
+      </c>
+      <c r="B39" s="6">
+        <v>230085</v>
+      </c>
+      <c r="C39" s="6">
+        <v>3111425938</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="6">
+        <v>34</v>
+      </c>
+      <c r="B40" s="6">
+        <v>230086</v>
+      </c>
+      <c r="C40" s="6">
+        <v>3113480787</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="6">
+        <v>35</v>
+      </c>
+      <c r="B41" s="6">
+        <v>230087</v>
+      </c>
+      <c r="C41" s="6">
+        <v>3109391907</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="6">
+        <v>36</v>
+      </c>
+      <c r="B42" s="6">
+        <v>230088</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E42" s="2"/>
     </row>
   </sheetData>
   <mergeCells>

--- a/public/nilai-harian.xlsx
+++ b/public/nilai-harian.xlsx
@@ -57,145 +57,145 @@
     <t>NILAI</t>
   </si>
   <si>
-    <t>ABDUL MU'IZZ</t>
-  </si>
-  <si>
-    <t>AL KHAKIM APRIYANTO</t>
-  </si>
-  <si>
-    <t>0118086614</t>
-  </si>
-  <si>
-    <t>ARINAL IZZA</t>
-  </si>
-  <si>
-    <t>DIMAS DWI CAHYO</t>
-  </si>
-  <si>
-    <t>0114586590</t>
-  </si>
-  <si>
-    <t>ENGGAR SASONGKO</t>
-  </si>
-  <si>
-    <t>FAIK KHOIRU NISAM</t>
-  </si>
-  <si>
-    <t>0111264018</t>
-  </si>
-  <si>
-    <t>FARHAN LABIB</t>
-  </si>
-  <si>
-    <t>IMAM FADHILLAH</t>
-  </si>
-  <si>
-    <t>M. AFIQ LUAY AL AIMAN</t>
-  </si>
-  <si>
-    <t>M. FAIQ ULINUHA</t>
-  </si>
-  <si>
-    <t>M. HAFIDZ IBRAHIM SETIAWAN</t>
-  </si>
-  <si>
-    <t>MOCHAMAD ZAKA AL FARISI</t>
-  </si>
-  <si>
-    <t>MOH. FATHU NASHRILLAH</t>
-  </si>
-  <si>
-    <t>MOH. ZAKI FADILAH</t>
-  </si>
-  <si>
-    <t>MOHAMAD ERLANGGA</t>
-  </si>
-  <si>
-    <t>MOHAMAD RAFA KHAERON</t>
-  </si>
-  <si>
-    <t>MOHAMMAD IBNI IZDIHAR</t>
-  </si>
-  <si>
-    <t>MUHAMAD NAQIB MUJIBAR ROHMAN</t>
-  </si>
-  <si>
-    <t>0112347295</t>
-  </si>
-  <si>
-    <t>MUHAMMAD ADIB</t>
-  </si>
-  <si>
-    <t>MUHAMMAD AL HAFIDZ</t>
-  </si>
-  <si>
-    <t>0118331685</t>
-  </si>
-  <si>
-    <t>MUHAMMAD DA'I BAKHTIAR</t>
-  </si>
-  <si>
-    <t>MUHAMMAD FADHIL MAULANA</t>
-  </si>
-  <si>
-    <t>0101733097</t>
-  </si>
-  <si>
-    <t>MUHAMMAD FAUZAN RAMADHANI</t>
-  </si>
-  <si>
-    <t>MUHAMMAD IBNU ZAHWAN AL AZIZI</t>
-  </si>
-  <si>
-    <t>MUHAMMAD MATHLA UZZAHIDIN</t>
-  </si>
-  <si>
-    <t>MUHAMMAD MIRZA SETIAWAN</t>
-  </si>
-  <si>
-    <t>MUHAMMAD RIYAN SOFYAN</t>
-  </si>
-  <si>
-    <t>0111879670</t>
-  </si>
-  <si>
-    <t>MUHAMMAD THUBAGOES BARAKA</t>
-  </si>
-  <si>
-    <t>MUMTAZ ISA GHULAM ZIKRI</t>
-  </si>
-  <si>
-    <t>0108029155</t>
-  </si>
-  <si>
-    <t>NUR MUHAMMAD KALAMULLAH</t>
-  </si>
-  <si>
-    <t>0118891404</t>
-  </si>
-  <si>
-    <t>RACHMAT ADI NUGROHO</t>
-  </si>
-  <si>
-    <t>0104386724</t>
-  </si>
-  <si>
-    <t>RAFA IMRAN MUZAKKI</t>
-  </si>
-  <si>
-    <t>RISKY KHEVIN ASADIL FATIH</t>
-  </si>
-  <si>
-    <t>TANTRA ARJUNA PUTRA</t>
-  </si>
-  <si>
-    <t>TSABIT QOLBI</t>
-  </si>
-  <si>
-    <t>0104247064</t>
-  </si>
-  <si>
-    <t>WILDAN ZAIDAN FIRAS</t>
+    <t>0118153903</t>
+  </si>
+  <si>
+    <t>AIMAN MALIK NIZAMUDIN</t>
+  </si>
+  <si>
+    <t>0116562757</t>
+  </si>
+  <si>
+    <t>ARDANI KAISAR FARUK</t>
+  </si>
+  <si>
+    <t>coba 1</t>
+  </si>
+  <si>
+    <t>coba 2</t>
+  </si>
+  <si>
+    <t>coba 3</t>
+  </si>
+  <si>
+    <t>GALIH TSABITUL AZMI</t>
+  </si>
+  <si>
+    <t>0117796929</t>
+  </si>
+  <si>
+    <t>M. ABDILLAH AZKA AL-AUFA</t>
+  </si>
+  <si>
+    <t>0114763924</t>
+  </si>
+  <si>
+    <t>M. DZIHNI TAMAM</t>
+  </si>
+  <si>
+    <t>00000000001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M. DZIKRI AZIZI </t>
+  </si>
+  <si>
+    <t>0105594354</t>
+  </si>
+  <si>
+    <t>M. FAHRIZAL KHANAFI</t>
+  </si>
+  <si>
+    <t>0116099333</t>
+  </si>
+  <si>
+    <t>MIRZA BAIHAQI PUTRA</t>
+  </si>
+  <si>
+    <t>MOH. KHAERUL AZAM</t>
+  </si>
+  <si>
+    <t>MOKH. HIKAM ARTA KUSUMA</t>
+  </si>
+  <si>
+    <t>0102883335</t>
+  </si>
+  <si>
+    <t>MUHAMAD BAYU ARYA DWI JAYA</t>
+  </si>
+  <si>
+    <t>0117743246</t>
+  </si>
+  <si>
+    <t>MUHAMMAD ALWI ABDUL AZIZ</t>
+  </si>
+  <si>
+    <t>MUHAMMAD AQIL AZRIL AFFANDI</t>
+  </si>
+  <si>
+    <t>0111615768</t>
+  </si>
+  <si>
+    <t>MUHAMMAD AZKA CHOIRUZZAD</t>
+  </si>
+  <si>
+    <t>0107183720</t>
+  </si>
+  <si>
+    <t>MUHAMMAD AZURKAM NIZAR ROSYADI</t>
+  </si>
+  <si>
+    <t>0112301266</t>
+  </si>
+  <si>
+    <t>MUHAMMAD CEPY KURNIAWAN</t>
+  </si>
+  <si>
+    <t>0115412381</t>
+  </si>
+  <si>
+    <t>MUHAMMAD IRSYAD BUSYAIRI</t>
+  </si>
+  <si>
+    <t>00000000002</t>
+  </si>
+  <si>
+    <t>MUHAMMAD RAFFA RIZKULLAH</t>
+  </si>
+  <si>
+    <t>0116684030</t>
+  </si>
+  <si>
+    <t>RAFFASYA AZHAR ASSIDQIE</t>
+  </si>
+  <si>
+    <t>0117897257</t>
+  </si>
+  <si>
+    <t>SAFWAN FATHAN HASNAWI</t>
+  </si>
+  <si>
+    <t>Siswa Tambahan 1</t>
+  </si>
+  <si>
+    <t>Siswa Tambahan 2</t>
+  </si>
+  <si>
+    <t>Siswa Tambahan 3</t>
+  </si>
+  <si>
+    <t>Siswa Tambahan 4</t>
+  </si>
+  <si>
+    <t>tambah</t>
+  </si>
+  <si>
+    <t>tambah 1</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>test2</t>
   </si>
   <si>
     <t>KD 2</t>
@@ -665,19 +665,19 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E42" sqref="E42"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="8.141" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="8.141" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="13.997" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="35.277" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="36.42" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="6.998" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -731,16 +731,16 @@
         <v>1</v>
       </c>
       <c r="B7" s="6">
-        <v>230053</v>
-      </c>
-      <c r="C7" s="6">
-        <v>3101430477</v>
+        <v>230002</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E7" s="2">
-        <v>79.3333</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -748,43 +748,47 @@
         <v>2</v>
       </c>
       <c r="B8" s="6">
-        <v>230054</v>
-      </c>
-      <c r="C8" s="6">
-        <v>3116220586</v>
+        <v>230366</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="E8" s="2">
+        <v>90</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="6">
         <v>3</v>
       </c>
       <c r="B9" s="6">
-        <v>230055</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>13</v>
+        <v>11111</v>
+      </c>
+      <c r="C9" s="6">
+        <v>11111</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="E9" s="2">
+        <v>85</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="6">
         <v>4</v>
       </c>
       <c r="B10" s="6">
-        <v>230056</v>
+        <v>222222</v>
       </c>
       <c r="C10" s="6">
-        <v>3110455563</v>
+        <v>2222222</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E10" s="2"/>
     </row>
@@ -793,10 +797,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="6">
-        <v>230057</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>16</v>
+        <v>3333333</v>
+      </c>
+      <c r="C11" s="6">
+        <v>333333</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>17</v>
@@ -808,10 +812,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="6">
-        <v>230058</v>
+        <v>230003</v>
       </c>
       <c r="C12" s="6">
-        <v>3113157241</v>
+        <v>3109565212</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>18</v>
@@ -823,7 +827,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="6">
-        <v>230059</v>
+        <v>230004</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>19</v>
@@ -838,13 +842,13 @@
         <v>8</v>
       </c>
       <c r="B14" s="6">
-        <v>230060</v>
-      </c>
-      <c r="C14" s="6">
-        <v>3101079504</v>
+        <v>230005</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14" s="2"/>
     </row>
@@ -853,13 +857,13 @@
         <v>9</v>
       </c>
       <c r="B15" s="6">
-        <v>230061</v>
-      </c>
-      <c r="C15" s="6">
-        <v>3113515171</v>
+        <v>230006</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E15" s="2"/>
     </row>
@@ -868,13 +872,13 @@
         <v>10</v>
       </c>
       <c r="B16" s="6">
-        <v>230062</v>
-      </c>
-      <c r="C16" s="6">
-        <v>3119851999</v>
+        <v>230007</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E16" s="2"/>
     </row>
@@ -883,13 +887,13 @@
         <v>11</v>
       </c>
       <c r="B17" s="6">
-        <v>230063</v>
-      </c>
-      <c r="C17" s="6">
-        <v>3112362107</v>
+        <v>230008</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E17" s="2"/>
     </row>
@@ -898,13 +902,13 @@
         <v>12</v>
       </c>
       <c r="B18" s="6">
-        <v>230064</v>
+        <v>230009</v>
       </c>
       <c r="C18" s="6">
-        <v>3111690689</v>
+        <v>3119070390</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E18" s="2"/>
     </row>
@@ -913,13 +917,13 @@
         <v>13</v>
       </c>
       <c r="B19" s="6">
-        <v>230065</v>
+        <v>230010</v>
       </c>
       <c r="C19" s="6">
-        <v>3113958253</v>
+        <v>3100706408</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E19" s="2"/>
     </row>
@@ -928,13 +932,13 @@
         <v>14</v>
       </c>
       <c r="B20" s="6">
-        <v>230066</v>
-      </c>
-      <c r="C20" s="6">
-        <v>3102668367</v>
+        <v>230011</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E20" s="2"/>
     </row>
@@ -943,13 +947,13 @@
         <v>15</v>
       </c>
       <c r="B21" s="6">
-        <v>230067</v>
-      </c>
-      <c r="C21" s="6">
-        <v>3111001858</v>
+        <v>230012</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E21" s="2"/>
     </row>
@@ -958,13 +962,13 @@
         <v>16</v>
       </c>
       <c r="B22" s="6">
-        <v>230068</v>
+        <v>230013</v>
       </c>
       <c r="C22" s="6">
-        <v>3118966437</v>
+        <v>3115914423</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E22" s="2"/>
     </row>
@@ -973,13 +977,13 @@
         <v>17</v>
       </c>
       <c r="B23" s="6">
-        <v>230069</v>
-      </c>
-      <c r="C23" s="6">
-        <v>3107564333</v>
+        <v>230014</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E23" s="2"/>
     </row>
@@ -988,13 +992,13 @@
         <v>18</v>
       </c>
       <c r="B24" s="6">
-        <v>230070</v>
-      </c>
-      <c r="C24" s="6">
-        <v>3104234312</v>
+        <v>230015</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E24" s="2"/>
     </row>
@@ -1003,13 +1007,13 @@
         <v>19</v>
       </c>
       <c r="B25" s="6">
-        <v>230071</v>
+        <v>230016</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E25" s="2"/>
     </row>
@@ -1018,13 +1022,13 @@
         <v>20</v>
       </c>
       <c r="B26" s="6">
-        <v>230072</v>
-      </c>
-      <c r="C26" s="6">
-        <v>3117704600</v>
+        <v>230018</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E26" s="2"/>
     </row>
@@ -1033,13 +1037,13 @@
         <v>21</v>
       </c>
       <c r="B27" s="6">
-        <v>230073</v>
+        <v>230019</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E27" s="2"/>
     </row>
@@ -1048,13 +1052,13 @@
         <v>22</v>
       </c>
       <c r="B28" s="6">
-        <v>230074</v>
-      </c>
-      <c r="C28" s="6">
-        <v>3115017824</v>
+        <v>230020</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E28" s="2"/>
     </row>
@@ -1063,13 +1067,13 @@
         <v>23</v>
       </c>
       <c r="B29" s="6">
-        <v>230075</v>
+        <v>230021</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E29" s="2"/>
     </row>
@@ -1078,13 +1082,13 @@
         <v>24</v>
       </c>
       <c r="B30" s="6">
-        <v>230076</v>
+        <v>11101</v>
       </c>
       <c r="C30" s="6">
-        <v>3110277952</v>
+        <v>112312</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E30" s="2"/>
     </row>
@@ -1093,13 +1097,13 @@
         <v>25</v>
       </c>
       <c r="B31" s="6">
-        <v>230077</v>
+        <v>112334</v>
       </c>
       <c r="C31" s="6">
-        <v>3110772564</v>
+        <v>12121212</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E31" s="2"/>
     </row>
@@ -1108,13 +1112,13 @@
         <v>26</v>
       </c>
       <c r="B32" s="6">
-        <v>230078</v>
+        <v>10999</v>
       </c>
       <c r="C32" s="6">
-        <v>3105555155</v>
+        <v>12123</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E32" s="2"/>
     </row>
@@ -1123,13 +1127,13 @@
         <v>27</v>
       </c>
       <c r="B33" s="6">
-        <v>230079</v>
+        <v>111222</v>
       </c>
       <c r="C33" s="6">
-        <v>3112897238</v>
+        <v>11111</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E33" s="2"/>
     </row>
@@ -1138,13 +1142,13 @@
         <v>28</v>
       </c>
       <c r="B34" s="6">
-        <v>230080</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>44</v>
+        <v>987</v>
+      </c>
+      <c r="C34" s="6">
+        <v>545645</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E34" s="2"/>
     </row>
@@ -1153,13 +1157,13 @@
         <v>29</v>
       </c>
       <c r="B35" s="6">
-        <v>230081</v>
+        <v>456</v>
       </c>
       <c r="C35" s="6">
-        <v>3110688109</v>
+        <v>121</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E35" s="2"/>
     </row>
@@ -1168,13 +1172,13 @@
         <v>30</v>
       </c>
       <c r="B36" s="6">
-        <v>230082</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>47</v>
+        <v>1212122</v>
+      </c>
+      <c r="C36" s="6">
+        <v>111</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E36" s="2"/>
     </row>
@@ -1183,90 +1187,15 @@
         <v>31</v>
       </c>
       <c r="B37" s="6">
-        <v>230083</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>49</v>
+        <v>3334</v>
+      </c>
+      <c r="C37" s="6">
+        <v>121</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="6">
-        <v>32</v>
-      </c>
-      <c r="B38" s="6">
-        <v>230084</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="6">
-        <v>33</v>
-      </c>
-      <c r="B39" s="6">
-        <v>230085</v>
-      </c>
-      <c r="C39" s="6">
-        <v>3111425938</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="6">
-        <v>34</v>
-      </c>
-      <c r="B40" s="6">
-        <v>230086</v>
-      </c>
-      <c r="C40" s="6">
-        <v>3113480787</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="6">
-        <v>35</v>
-      </c>
-      <c r="B41" s="6">
-        <v>230087</v>
-      </c>
-      <c r="C41" s="6">
-        <v>3109391907</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="6">
-        <v>36</v>
-      </c>
-      <c r="B42" s="6">
-        <v>230088</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E42" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1294,18 +1223,18 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E42" sqref="E42"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="8.141" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="8.141" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="13.997" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="35.277" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="36.42" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="6.998" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -1360,13 +1289,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="6">
-        <v>230053</v>
-      </c>
-      <c r="C7" s="6">
-        <v>3101430477</v>
+        <v>230002</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -1375,13 +1304,13 @@
         <v>2</v>
       </c>
       <c r="B8" s="6">
-        <v>230054</v>
-      </c>
-      <c r="C8" s="6">
-        <v>3116220586</v>
+        <v>230366</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -1390,13 +1319,13 @@
         <v>3</v>
       </c>
       <c r="B9" s="6">
-        <v>230055</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>13</v>
+        <v>11111</v>
+      </c>
+      <c r="C9" s="6">
+        <v>11111</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -1405,13 +1334,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="6">
-        <v>230056</v>
+        <v>222222</v>
       </c>
       <c r="C10" s="6">
-        <v>3110455563</v>
+        <v>2222222</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E10" s="2"/>
     </row>
@@ -1420,10 +1349,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="6">
-        <v>230057</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>16</v>
+        <v>3333333</v>
+      </c>
+      <c r="C11" s="6">
+        <v>333333</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>17</v>
@@ -1435,10 +1364,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="6">
-        <v>230058</v>
+        <v>230003</v>
       </c>
       <c r="C12" s="6">
-        <v>3113157241</v>
+        <v>3109565212</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>18</v>
@@ -1450,7 +1379,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="6">
-        <v>230059</v>
+        <v>230004</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>19</v>
@@ -1465,13 +1394,13 @@
         <v>8</v>
       </c>
       <c r="B14" s="6">
-        <v>230060</v>
-      </c>
-      <c r="C14" s="6">
-        <v>3101079504</v>
+        <v>230005</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14" s="2"/>
     </row>
@@ -1480,13 +1409,13 @@
         <v>9</v>
       </c>
       <c r="B15" s="6">
-        <v>230061</v>
-      </c>
-      <c r="C15" s="6">
-        <v>3113515171</v>
+        <v>230006</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E15" s="2"/>
     </row>
@@ -1495,13 +1424,13 @@
         <v>10</v>
       </c>
       <c r="B16" s="6">
-        <v>230062</v>
-      </c>
-      <c r="C16" s="6">
-        <v>3119851999</v>
+        <v>230007</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E16" s="2"/>
     </row>
@@ -1510,13 +1439,13 @@
         <v>11</v>
       </c>
       <c r="B17" s="6">
-        <v>230063</v>
-      </c>
-      <c r="C17" s="6">
-        <v>3112362107</v>
+        <v>230008</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E17" s="2"/>
     </row>
@@ -1525,13 +1454,13 @@
         <v>12</v>
       </c>
       <c r="B18" s="6">
-        <v>230064</v>
+        <v>230009</v>
       </c>
       <c r="C18" s="6">
-        <v>3111690689</v>
+        <v>3119070390</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E18" s="2"/>
     </row>
@@ -1540,13 +1469,13 @@
         <v>13</v>
       </c>
       <c r="B19" s="6">
-        <v>230065</v>
+        <v>230010</v>
       </c>
       <c r="C19" s="6">
-        <v>3113958253</v>
+        <v>3100706408</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E19" s="2"/>
     </row>
@@ -1555,13 +1484,13 @@
         <v>14</v>
       </c>
       <c r="B20" s="6">
-        <v>230066</v>
-      </c>
-      <c r="C20" s="6">
-        <v>3102668367</v>
+        <v>230011</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E20" s="2"/>
     </row>
@@ -1570,13 +1499,13 @@
         <v>15</v>
       </c>
       <c r="B21" s="6">
-        <v>230067</v>
-      </c>
-      <c r="C21" s="6">
-        <v>3111001858</v>
+        <v>230012</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E21" s="2"/>
     </row>
@@ -1585,13 +1514,13 @@
         <v>16</v>
       </c>
       <c r="B22" s="6">
-        <v>230068</v>
+        <v>230013</v>
       </c>
       <c r="C22" s="6">
-        <v>3118966437</v>
+        <v>3115914423</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E22" s="2"/>
     </row>
@@ -1600,13 +1529,13 @@
         <v>17</v>
       </c>
       <c r="B23" s="6">
-        <v>230069</v>
-      </c>
-      <c r="C23" s="6">
-        <v>3107564333</v>
+        <v>230014</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E23" s="2"/>
     </row>
@@ -1615,13 +1544,13 @@
         <v>18</v>
       </c>
       <c r="B24" s="6">
-        <v>230070</v>
-      </c>
-      <c r="C24" s="6">
-        <v>3104234312</v>
+        <v>230015</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E24" s="2"/>
     </row>
@@ -1630,13 +1559,13 @@
         <v>19</v>
       </c>
       <c r="B25" s="6">
-        <v>230071</v>
+        <v>230016</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E25" s="2"/>
     </row>
@@ -1645,13 +1574,13 @@
         <v>20</v>
       </c>
       <c r="B26" s="6">
-        <v>230072</v>
-      </c>
-      <c r="C26" s="6">
-        <v>3117704600</v>
+        <v>230018</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E26" s="2"/>
     </row>
@@ -1660,13 +1589,13 @@
         <v>21</v>
       </c>
       <c r="B27" s="6">
-        <v>230073</v>
+        <v>230019</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E27" s="2"/>
     </row>
@@ -1675,13 +1604,13 @@
         <v>22</v>
       </c>
       <c r="B28" s="6">
-        <v>230074</v>
-      </c>
-      <c r="C28" s="6">
-        <v>3115017824</v>
+        <v>230020</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E28" s="2"/>
     </row>
@@ -1690,13 +1619,13 @@
         <v>23</v>
       </c>
       <c r="B29" s="6">
-        <v>230075</v>
+        <v>230021</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E29" s="2"/>
     </row>
@@ -1705,13 +1634,13 @@
         <v>24</v>
       </c>
       <c r="B30" s="6">
-        <v>230076</v>
+        <v>11101</v>
       </c>
       <c r="C30" s="6">
-        <v>3110277952</v>
+        <v>112312</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E30" s="2"/>
     </row>
@@ -1720,13 +1649,13 @@
         <v>25</v>
       </c>
       <c r="B31" s="6">
-        <v>230077</v>
+        <v>112334</v>
       </c>
       <c r="C31" s="6">
-        <v>3110772564</v>
+        <v>12121212</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E31" s="2"/>
     </row>
@@ -1735,13 +1664,13 @@
         <v>26</v>
       </c>
       <c r="B32" s="6">
-        <v>230078</v>
+        <v>10999</v>
       </c>
       <c r="C32" s="6">
-        <v>3105555155</v>
+        <v>12123</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E32" s="2"/>
     </row>
@@ -1750,13 +1679,13 @@
         <v>27</v>
       </c>
       <c r="B33" s="6">
-        <v>230079</v>
+        <v>111222</v>
       </c>
       <c r="C33" s="6">
-        <v>3112897238</v>
+        <v>11111</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E33" s="2"/>
     </row>
@@ -1765,13 +1694,13 @@
         <v>28</v>
       </c>
       <c r="B34" s="6">
-        <v>230080</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>44</v>
+        <v>987</v>
+      </c>
+      <c r="C34" s="6">
+        <v>545645</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E34" s="2"/>
     </row>
@@ -1780,13 +1709,13 @@
         <v>29</v>
       </c>
       <c r="B35" s="6">
-        <v>230081</v>
+        <v>456</v>
       </c>
       <c r="C35" s="6">
-        <v>3110688109</v>
+        <v>121</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E35" s="2"/>
     </row>
@@ -1795,13 +1724,13 @@
         <v>30</v>
       </c>
       <c r="B36" s="6">
-        <v>230082</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>47</v>
+        <v>1212122</v>
+      </c>
+      <c r="C36" s="6">
+        <v>111</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E36" s="2"/>
     </row>
@@ -1810,90 +1739,15 @@
         <v>31</v>
       </c>
       <c r="B37" s="6">
-        <v>230083</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>49</v>
+        <v>3334</v>
+      </c>
+      <c r="C37" s="6">
+        <v>121</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="6">
-        <v>32</v>
-      </c>
-      <c r="B38" s="6">
-        <v>230084</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="6">
-        <v>33</v>
-      </c>
-      <c r="B39" s="6">
-        <v>230085</v>
-      </c>
-      <c r="C39" s="6">
-        <v>3111425938</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="6">
-        <v>34</v>
-      </c>
-      <c r="B40" s="6">
-        <v>230086</v>
-      </c>
-      <c r="C40" s="6">
-        <v>3113480787</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="6">
-        <v>35</v>
-      </c>
-      <c r="B41" s="6">
-        <v>230087</v>
-      </c>
-      <c r="C41" s="6">
-        <v>3109391907</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="6">
-        <v>36</v>
-      </c>
-      <c r="B42" s="6">
-        <v>230088</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E42" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1921,18 +1775,18 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E42" sqref="E42"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="8.141" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="8.141" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="13.997" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="35.277" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="36.42" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="6.998" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -1987,13 +1841,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="6">
-        <v>230053</v>
-      </c>
-      <c r="C7" s="6">
-        <v>3101430477</v>
+        <v>230002</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -2002,13 +1856,13 @@
         <v>2</v>
       </c>
       <c r="B8" s="6">
-        <v>230054</v>
-      </c>
-      <c r="C8" s="6">
-        <v>3116220586</v>
+        <v>230366</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -2017,13 +1871,13 @@
         <v>3</v>
       </c>
       <c r="B9" s="6">
-        <v>230055</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>13</v>
+        <v>11111</v>
+      </c>
+      <c r="C9" s="6">
+        <v>11111</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -2032,13 +1886,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="6">
-        <v>230056</v>
+        <v>222222</v>
       </c>
       <c r="C10" s="6">
-        <v>3110455563</v>
+        <v>2222222</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E10" s="2"/>
     </row>
@@ -2047,10 +1901,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="6">
-        <v>230057</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>16</v>
+        <v>3333333</v>
+      </c>
+      <c r="C11" s="6">
+        <v>333333</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>17</v>
@@ -2062,10 +1916,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="6">
-        <v>230058</v>
+        <v>230003</v>
       </c>
       <c r="C12" s="6">
-        <v>3113157241</v>
+        <v>3109565212</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>18</v>
@@ -2077,7 +1931,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="6">
-        <v>230059</v>
+        <v>230004</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>19</v>
@@ -2092,13 +1946,13 @@
         <v>8</v>
       </c>
       <c r="B14" s="6">
-        <v>230060</v>
-      </c>
-      <c r="C14" s="6">
-        <v>3101079504</v>
+        <v>230005</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14" s="2"/>
     </row>
@@ -2107,13 +1961,13 @@
         <v>9</v>
       </c>
       <c r="B15" s="6">
-        <v>230061</v>
-      </c>
-      <c r="C15" s="6">
-        <v>3113515171</v>
+        <v>230006</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E15" s="2"/>
     </row>
@@ -2122,13 +1976,13 @@
         <v>10</v>
       </c>
       <c r="B16" s="6">
-        <v>230062</v>
-      </c>
-      <c r="C16" s="6">
-        <v>3119851999</v>
+        <v>230007</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E16" s="2"/>
     </row>
@@ -2137,13 +1991,13 @@
         <v>11</v>
       </c>
       <c r="B17" s="6">
-        <v>230063</v>
-      </c>
-      <c r="C17" s="6">
-        <v>3112362107</v>
+        <v>230008</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E17" s="2"/>
     </row>
@@ -2152,13 +2006,13 @@
         <v>12</v>
       </c>
       <c r="B18" s="6">
-        <v>230064</v>
+        <v>230009</v>
       </c>
       <c r="C18" s="6">
-        <v>3111690689</v>
+        <v>3119070390</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E18" s="2"/>
     </row>
@@ -2167,13 +2021,13 @@
         <v>13</v>
       </c>
       <c r="B19" s="6">
-        <v>230065</v>
+        <v>230010</v>
       </c>
       <c r="C19" s="6">
-        <v>3113958253</v>
+        <v>3100706408</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E19" s="2"/>
     </row>
@@ -2182,13 +2036,13 @@
         <v>14</v>
       </c>
       <c r="B20" s="6">
-        <v>230066</v>
-      </c>
-      <c r="C20" s="6">
-        <v>3102668367</v>
+        <v>230011</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E20" s="2"/>
     </row>
@@ -2197,13 +2051,13 @@
         <v>15</v>
       </c>
       <c r="B21" s="6">
-        <v>230067</v>
-      </c>
-      <c r="C21" s="6">
-        <v>3111001858</v>
+        <v>230012</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E21" s="2"/>
     </row>
@@ -2212,13 +2066,13 @@
         <v>16</v>
       </c>
       <c r="B22" s="6">
-        <v>230068</v>
+        <v>230013</v>
       </c>
       <c r="C22" s="6">
-        <v>3118966437</v>
+        <v>3115914423</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E22" s="2"/>
     </row>
@@ -2227,13 +2081,13 @@
         <v>17</v>
       </c>
       <c r="B23" s="6">
-        <v>230069</v>
-      </c>
-      <c r="C23" s="6">
-        <v>3107564333</v>
+        <v>230014</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E23" s="2"/>
     </row>
@@ -2242,13 +2096,13 @@
         <v>18</v>
       </c>
       <c r="B24" s="6">
-        <v>230070</v>
-      </c>
-      <c r="C24" s="6">
-        <v>3104234312</v>
+        <v>230015</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E24" s="2"/>
     </row>
@@ -2257,13 +2111,13 @@
         <v>19</v>
       </c>
       <c r="B25" s="6">
-        <v>230071</v>
+        <v>230016</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E25" s="2"/>
     </row>
@@ -2272,13 +2126,13 @@
         <v>20</v>
       </c>
       <c r="B26" s="6">
-        <v>230072</v>
-      </c>
-      <c r="C26" s="6">
-        <v>3117704600</v>
+        <v>230018</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E26" s="2"/>
     </row>
@@ -2287,13 +2141,13 @@
         <v>21</v>
       </c>
       <c r="B27" s="6">
-        <v>230073</v>
+        <v>230019</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E27" s="2"/>
     </row>
@@ -2302,13 +2156,13 @@
         <v>22</v>
       </c>
       <c r="B28" s="6">
-        <v>230074</v>
-      </c>
-      <c r="C28" s="6">
-        <v>3115017824</v>
+        <v>230020</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E28" s="2"/>
     </row>
@@ -2317,13 +2171,13 @@
         <v>23</v>
       </c>
       <c r="B29" s="6">
-        <v>230075</v>
+        <v>230021</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E29" s="2"/>
     </row>
@@ -2332,13 +2186,13 @@
         <v>24</v>
       </c>
       <c r="B30" s="6">
-        <v>230076</v>
+        <v>11101</v>
       </c>
       <c r="C30" s="6">
-        <v>3110277952</v>
+        <v>112312</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E30" s="2"/>
     </row>
@@ -2347,13 +2201,13 @@
         <v>25</v>
       </c>
       <c r="B31" s="6">
-        <v>230077</v>
+        <v>112334</v>
       </c>
       <c r="C31" s="6">
-        <v>3110772564</v>
+        <v>12121212</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E31" s="2"/>
     </row>
@@ -2362,13 +2216,13 @@
         <v>26</v>
       </c>
       <c r="B32" s="6">
-        <v>230078</v>
+        <v>10999</v>
       </c>
       <c r="C32" s="6">
-        <v>3105555155</v>
+        <v>12123</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E32" s="2"/>
     </row>
@@ -2377,13 +2231,13 @@
         <v>27</v>
       </c>
       <c r="B33" s="6">
-        <v>230079</v>
+        <v>111222</v>
       </c>
       <c r="C33" s="6">
-        <v>3112897238</v>
+        <v>11111</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E33" s="2"/>
     </row>
@@ -2392,13 +2246,13 @@
         <v>28</v>
       </c>
       <c r="B34" s="6">
-        <v>230080</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>44</v>
+        <v>987</v>
+      </c>
+      <c r="C34" s="6">
+        <v>545645</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E34" s="2"/>
     </row>
@@ -2407,13 +2261,13 @@
         <v>29</v>
       </c>
       <c r="B35" s="6">
-        <v>230081</v>
+        <v>456</v>
       </c>
       <c r="C35" s="6">
-        <v>3110688109</v>
+        <v>121</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E35" s="2"/>
     </row>
@@ -2422,13 +2276,13 @@
         <v>30</v>
       </c>
       <c r="B36" s="6">
-        <v>230082</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>47</v>
+        <v>1212122</v>
+      </c>
+      <c r="C36" s="6">
+        <v>111</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E36" s="2"/>
     </row>
@@ -2437,90 +2291,15 @@
         <v>31</v>
       </c>
       <c r="B37" s="6">
-        <v>230083</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>49</v>
+        <v>3334</v>
+      </c>
+      <c r="C37" s="6">
+        <v>121</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="6">
-        <v>32</v>
-      </c>
-      <c r="B38" s="6">
-        <v>230084</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="6">
-        <v>33</v>
-      </c>
-      <c r="B39" s="6">
-        <v>230085</v>
-      </c>
-      <c r="C39" s="6">
-        <v>3111425938</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="6">
-        <v>34</v>
-      </c>
-      <c r="B40" s="6">
-        <v>230086</v>
-      </c>
-      <c r="C40" s="6">
-        <v>3113480787</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="6">
-        <v>35</v>
-      </c>
-      <c r="B41" s="6">
-        <v>230087</v>
-      </c>
-      <c r="C41" s="6">
-        <v>3109391907</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="6">
-        <v>36</v>
-      </c>
-      <c r="B42" s="6">
-        <v>230088</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E42" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2548,18 +2327,18 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E42" sqref="E42"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="8.141" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="8.141" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="13.997" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="35.277" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="36.42" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="6.998" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -2614,13 +2393,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="6">
-        <v>230053</v>
-      </c>
-      <c r="C7" s="6">
-        <v>3101430477</v>
+        <v>230002</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -2629,13 +2408,13 @@
         <v>2</v>
       </c>
       <c r="B8" s="6">
-        <v>230054</v>
-      </c>
-      <c r="C8" s="6">
-        <v>3116220586</v>
+        <v>230366</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -2644,13 +2423,13 @@
         <v>3</v>
       </c>
       <c r="B9" s="6">
-        <v>230055</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>13</v>
+        <v>11111</v>
+      </c>
+      <c r="C9" s="6">
+        <v>11111</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -2659,13 +2438,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="6">
-        <v>230056</v>
+        <v>222222</v>
       </c>
       <c r="C10" s="6">
-        <v>3110455563</v>
+        <v>2222222</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E10" s="2"/>
     </row>
@@ -2674,10 +2453,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="6">
-        <v>230057</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>16</v>
+        <v>3333333</v>
+      </c>
+      <c r="C11" s="6">
+        <v>333333</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>17</v>
@@ -2689,10 +2468,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="6">
-        <v>230058</v>
+        <v>230003</v>
       </c>
       <c r="C12" s="6">
-        <v>3113157241</v>
+        <v>3109565212</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>18</v>
@@ -2704,7 +2483,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="6">
-        <v>230059</v>
+        <v>230004</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>19</v>
@@ -2719,13 +2498,13 @@
         <v>8</v>
       </c>
       <c r="B14" s="6">
-        <v>230060</v>
-      </c>
-      <c r="C14" s="6">
-        <v>3101079504</v>
+        <v>230005</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14" s="2"/>
     </row>
@@ -2734,13 +2513,13 @@
         <v>9</v>
       </c>
       <c r="B15" s="6">
-        <v>230061</v>
-      </c>
-      <c r="C15" s="6">
-        <v>3113515171</v>
+        <v>230006</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E15" s="2"/>
     </row>
@@ -2749,13 +2528,13 @@
         <v>10</v>
       </c>
       <c r="B16" s="6">
-        <v>230062</v>
-      </c>
-      <c r="C16" s="6">
-        <v>3119851999</v>
+        <v>230007</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E16" s="2"/>
     </row>
@@ -2764,13 +2543,13 @@
         <v>11</v>
       </c>
       <c r="B17" s="6">
-        <v>230063</v>
-      </c>
-      <c r="C17" s="6">
-        <v>3112362107</v>
+        <v>230008</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E17" s="2"/>
     </row>
@@ -2779,13 +2558,13 @@
         <v>12</v>
       </c>
       <c r="B18" s="6">
-        <v>230064</v>
+        <v>230009</v>
       </c>
       <c r="C18" s="6">
-        <v>3111690689</v>
+        <v>3119070390</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E18" s="2"/>
     </row>
@@ -2794,13 +2573,13 @@
         <v>13</v>
       </c>
       <c r="B19" s="6">
-        <v>230065</v>
+        <v>230010</v>
       </c>
       <c r="C19" s="6">
-        <v>3113958253</v>
+        <v>3100706408</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E19" s="2"/>
     </row>
@@ -2809,13 +2588,13 @@
         <v>14</v>
       </c>
       <c r="B20" s="6">
-        <v>230066</v>
-      </c>
-      <c r="C20" s="6">
-        <v>3102668367</v>
+        <v>230011</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E20" s="2"/>
     </row>
@@ -2824,13 +2603,13 @@
         <v>15</v>
       </c>
       <c r="B21" s="6">
-        <v>230067</v>
-      </c>
-      <c r="C21" s="6">
-        <v>3111001858</v>
+        <v>230012</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E21" s="2"/>
     </row>
@@ -2839,13 +2618,13 @@
         <v>16</v>
       </c>
       <c r="B22" s="6">
-        <v>230068</v>
+        <v>230013</v>
       </c>
       <c r="C22" s="6">
-        <v>3118966437</v>
+        <v>3115914423</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E22" s="2"/>
     </row>
@@ -2854,13 +2633,13 @@
         <v>17</v>
       </c>
       <c r="B23" s="6">
-        <v>230069</v>
-      </c>
-      <c r="C23" s="6">
-        <v>3107564333</v>
+        <v>230014</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E23" s="2"/>
     </row>
@@ -2869,13 +2648,13 @@
         <v>18</v>
       </c>
       <c r="B24" s="6">
-        <v>230070</v>
-      </c>
-      <c r="C24" s="6">
-        <v>3104234312</v>
+        <v>230015</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E24" s="2"/>
     </row>
@@ -2884,13 +2663,13 @@
         <v>19</v>
       </c>
       <c r="B25" s="6">
-        <v>230071</v>
+        <v>230016</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E25" s="2"/>
     </row>
@@ -2899,13 +2678,13 @@
         <v>20</v>
       </c>
       <c r="B26" s="6">
-        <v>230072</v>
-      </c>
-      <c r="C26" s="6">
-        <v>3117704600</v>
+        <v>230018</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E26" s="2"/>
     </row>
@@ -2914,13 +2693,13 @@
         <v>21</v>
       </c>
       <c r="B27" s="6">
-        <v>230073</v>
+        <v>230019</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E27" s="2"/>
     </row>
@@ -2929,13 +2708,13 @@
         <v>22</v>
       </c>
       <c r="B28" s="6">
-        <v>230074</v>
-      </c>
-      <c r="C28" s="6">
-        <v>3115017824</v>
+        <v>230020</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E28" s="2"/>
     </row>
@@ -2944,13 +2723,13 @@
         <v>23</v>
       </c>
       <c r="B29" s="6">
-        <v>230075</v>
+        <v>230021</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E29" s="2"/>
     </row>
@@ -2959,13 +2738,13 @@
         <v>24</v>
       </c>
       <c r="B30" s="6">
-        <v>230076</v>
+        <v>11101</v>
       </c>
       <c r="C30" s="6">
-        <v>3110277952</v>
+        <v>112312</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E30" s="2"/>
     </row>
@@ -2974,13 +2753,13 @@
         <v>25</v>
       </c>
       <c r="B31" s="6">
-        <v>230077</v>
+        <v>112334</v>
       </c>
       <c r="C31" s="6">
-        <v>3110772564</v>
+        <v>12121212</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E31" s="2"/>
     </row>
@@ -2989,13 +2768,13 @@
         <v>26</v>
       </c>
       <c r="B32" s="6">
-        <v>230078</v>
+        <v>10999</v>
       </c>
       <c r="C32" s="6">
-        <v>3105555155</v>
+        <v>12123</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E32" s="2"/>
     </row>
@@ -3004,13 +2783,13 @@
         <v>27</v>
       </c>
       <c r="B33" s="6">
-        <v>230079</v>
+        <v>111222</v>
       </c>
       <c r="C33" s="6">
-        <v>3112897238</v>
+        <v>11111</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E33" s="2"/>
     </row>
@@ -3019,13 +2798,13 @@
         <v>28</v>
       </c>
       <c r="B34" s="6">
-        <v>230080</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>44</v>
+        <v>987</v>
+      </c>
+      <c r="C34" s="6">
+        <v>545645</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E34" s="2"/>
     </row>
@@ -3034,13 +2813,13 @@
         <v>29</v>
       </c>
       <c r="B35" s="6">
-        <v>230081</v>
+        <v>456</v>
       </c>
       <c r="C35" s="6">
-        <v>3110688109</v>
+        <v>121</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E35" s="2"/>
     </row>
@@ -3049,13 +2828,13 @@
         <v>30</v>
       </c>
       <c r="B36" s="6">
-        <v>230082</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>47</v>
+        <v>1212122</v>
+      </c>
+      <c r="C36" s="6">
+        <v>111</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E36" s="2"/>
     </row>
@@ -3064,90 +2843,15 @@
         <v>31</v>
       </c>
       <c r="B37" s="6">
-        <v>230083</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>49</v>
+        <v>3334</v>
+      </c>
+      <c r="C37" s="6">
+        <v>121</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="6">
-        <v>32</v>
-      </c>
-      <c r="B38" s="6">
-        <v>230084</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="6">
-        <v>33</v>
-      </c>
-      <c r="B39" s="6">
-        <v>230085</v>
-      </c>
-      <c r="C39" s="6">
-        <v>3111425938</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="6">
-        <v>34</v>
-      </c>
-      <c r="B40" s="6">
-        <v>230086</v>
-      </c>
-      <c r="C40" s="6">
-        <v>3113480787</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="6">
-        <v>35</v>
-      </c>
-      <c r="B41" s="6">
-        <v>230087</v>
-      </c>
-      <c r="C41" s="6">
-        <v>3109391907</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="6">
-        <v>36</v>
-      </c>
-      <c r="B42" s="6">
-        <v>230088</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E42" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -3175,18 +2879,18 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E42" sqref="E42"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="8.141" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="8.141" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="13.997" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="35.277" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="36.42" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="6.998" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -3241,13 +2945,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="6">
-        <v>230053</v>
-      </c>
-      <c r="C7" s="6">
-        <v>3101430477</v>
+        <v>230002</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -3256,13 +2960,13 @@
         <v>2</v>
       </c>
       <c r="B8" s="6">
-        <v>230054</v>
-      </c>
-      <c r="C8" s="6">
-        <v>3116220586</v>
+        <v>230366</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -3271,13 +2975,13 @@
         <v>3</v>
       </c>
       <c r="B9" s="6">
-        <v>230055</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>13</v>
+        <v>11111</v>
+      </c>
+      <c r="C9" s="6">
+        <v>11111</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -3286,13 +2990,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="6">
-        <v>230056</v>
+        <v>222222</v>
       </c>
       <c r="C10" s="6">
-        <v>3110455563</v>
+        <v>2222222</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E10" s="2"/>
     </row>
@@ -3301,10 +3005,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="6">
-        <v>230057</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>16</v>
+        <v>3333333</v>
+      </c>
+      <c r="C11" s="6">
+        <v>333333</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>17</v>
@@ -3316,10 +3020,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="6">
-        <v>230058</v>
+        <v>230003</v>
       </c>
       <c r="C12" s="6">
-        <v>3113157241</v>
+        <v>3109565212</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>18</v>
@@ -3331,7 +3035,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="6">
-        <v>230059</v>
+        <v>230004</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>19</v>
@@ -3346,13 +3050,13 @@
         <v>8</v>
       </c>
       <c r="B14" s="6">
-        <v>230060</v>
-      </c>
-      <c r="C14" s="6">
-        <v>3101079504</v>
+        <v>230005</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14" s="2"/>
     </row>
@@ -3361,13 +3065,13 @@
         <v>9</v>
       </c>
       <c r="B15" s="6">
-        <v>230061</v>
-      </c>
-      <c r="C15" s="6">
-        <v>3113515171</v>
+        <v>230006</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E15" s="2"/>
     </row>
@@ -3376,13 +3080,13 @@
         <v>10</v>
       </c>
       <c r="B16" s="6">
-        <v>230062</v>
-      </c>
-      <c r="C16" s="6">
-        <v>3119851999</v>
+        <v>230007</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E16" s="2"/>
     </row>
@@ -3391,13 +3095,13 @@
         <v>11</v>
       </c>
       <c r="B17" s="6">
-        <v>230063</v>
-      </c>
-      <c r="C17" s="6">
-        <v>3112362107</v>
+        <v>230008</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E17" s="2"/>
     </row>
@@ -3406,13 +3110,13 @@
         <v>12</v>
       </c>
       <c r="B18" s="6">
-        <v>230064</v>
+        <v>230009</v>
       </c>
       <c r="C18" s="6">
-        <v>3111690689</v>
+        <v>3119070390</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E18" s="2"/>
     </row>
@@ -3421,13 +3125,13 @@
         <v>13</v>
       </c>
       <c r="B19" s="6">
-        <v>230065</v>
+        <v>230010</v>
       </c>
       <c r="C19" s="6">
-        <v>3113958253</v>
+        <v>3100706408</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E19" s="2"/>
     </row>
@@ -3436,13 +3140,13 @@
         <v>14</v>
       </c>
       <c r="B20" s="6">
-        <v>230066</v>
-      </c>
-      <c r="C20" s="6">
-        <v>3102668367</v>
+        <v>230011</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E20" s="2"/>
     </row>
@@ -3451,13 +3155,13 @@
         <v>15</v>
       </c>
       <c r="B21" s="6">
-        <v>230067</v>
-      </c>
-      <c r="C21" s="6">
-        <v>3111001858</v>
+        <v>230012</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E21" s="2"/>
     </row>
@@ -3466,13 +3170,13 @@
         <v>16</v>
       </c>
       <c r="B22" s="6">
-        <v>230068</v>
+        <v>230013</v>
       </c>
       <c r="C22" s="6">
-        <v>3118966437</v>
+        <v>3115914423</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E22" s="2"/>
     </row>
@@ -3481,13 +3185,13 @@
         <v>17</v>
       </c>
       <c r="B23" s="6">
-        <v>230069</v>
-      </c>
-      <c r="C23" s="6">
-        <v>3107564333</v>
+        <v>230014</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E23" s="2"/>
     </row>
@@ -3496,13 +3200,13 @@
         <v>18</v>
       </c>
       <c r="B24" s="6">
-        <v>230070</v>
-      </c>
-      <c r="C24" s="6">
-        <v>3104234312</v>
+        <v>230015</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E24" s="2"/>
     </row>
@@ -3511,13 +3215,13 @@
         <v>19</v>
       </c>
       <c r="B25" s="6">
-        <v>230071</v>
+        <v>230016</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E25" s="2"/>
     </row>
@@ -3526,13 +3230,13 @@
         <v>20</v>
       </c>
       <c r="B26" s="6">
-        <v>230072</v>
-      </c>
-      <c r="C26" s="6">
-        <v>3117704600</v>
+        <v>230018</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E26" s="2"/>
     </row>
@@ -3541,13 +3245,13 @@
         <v>21</v>
       </c>
       <c r="B27" s="6">
-        <v>230073</v>
+        <v>230019</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E27" s="2"/>
     </row>
@@ -3556,13 +3260,13 @@
         <v>22</v>
       </c>
       <c r="B28" s="6">
-        <v>230074</v>
-      </c>
-      <c r="C28" s="6">
-        <v>3115017824</v>
+        <v>230020</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E28" s="2"/>
     </row>
@@ -3571,13 +3275,13 @@
         <v>23</v>
       </c>
       <c r="B29" s="6">
-        <v>230075</v>
+        <v>230021</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E29" s="2"/>
     </row>
@@ -3586,13 +3290,13 @@
         <v>24</v>
       </c>
       <c r="B30" s="6">
-        <v>230076</v>
+        <v>11101</v>
       </c>
       <c r="C30" s="6">
-        <v>3110277952</v>
+        <v>112312</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E30" s="2"/>
     </row>
@@ -3601,13 +3305,13 @@
         <v>25</v>
       </c>
       <c r="B31" s="6">
-        <v>230077</v>
+        <v>112334</v>
       </c>
       <c r="C31" s="6">
-        <v>3110772564</v>
+        <v>12121212</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E31" s="2"/>
     </row>
@@ -3616,13 +3320,13 @@
         <v>26</v>
       </c>
       <c r="B32" s="6">
-        <v>230078</v>
+        <v>10999</v>
       </c>
       <c r="C32" s="6">
-        <v>3105555155</v>
+        <v>12123</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E32" s="2"/>
     </row>
@@ -3631,13 +3335,13 @@
         <v>27</v>
       </c>
       <c r="B33" s="6">
-        <v>230079</v>
+        <v>111222</v>
       </c>
       <c r="C33" s="6">
-        <v>3112897238</v>
+        <v>11111</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E33" s="2"/>
     </row>
@@ -3646,13 +3350,13 @@
         <v>28</v>
       </c>
       <c r="B34" s="6">
-        <v>230080</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>44</v>
+        <v>987</v>
+      </c>
+      <c r="C34" s="6">
+        <v>545645</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E34" s="2"/>
     </row>
@@ -3661,13 +3365,13 @@
         <v>29</v>
       </c>
       <c r="B35" s="6">
-        <v>230081</v>
+        <v>456</v>
       </c>
       <c r="C35" s="6">
-        <v>3110688109</v>
+        <v>121</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E35" s="2"/>
     </row>
@@ -3676,13 +3380,13 @@
         <v>30</v>
       </c>
       <c r="B36" s="6">
-        <v>230082</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>47</v>
+        <v>1212122</v>
+      </c>
+      <c r="C36" s="6">
+        <v>111</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E36" s="2"/>
     </row>
@@ -3691,90 +3395,15 @@
         <v>31</v>
       </c>
       <c r="B37" s="6">
-        <v>230083</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>49</v>
+        <v>3334</v>
+      </c>
+      <c r="C37" s="6">
+        <v>121</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="6">
-        <v>32</v>
-      </c>
-      <c r="B38" s="6">
-        <v>230084</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="6">
-        <v>33</v>
-      </c>
-      <c r="B39" s="6">
-        <v>230085</v>
-      </c>
-      <c r="C39" s="6">
-        <v>3111425938</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="6">
-        <v>34</v>
-      </c>
-      <c r="B40" s="6">
-        <v>230086</v>
-      </c>
-      <c r="C40" s="6">
-        <v>3113480787</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="6">
-        <v>35</v>
-      </c>
-      <c r="B41" s="6">
-        <v>230087</v>
-      </c>
-      <c r="C41" s="6">
-        <v>3109391907</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="6">
-        <v>36</v>
-      </c>
-      <c r="B42" s="6">
-        <v>230088</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E42" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -3802,18 +3431,18 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E42" sqref="E42"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="8.141" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="8.141" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="13.997" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="35.277" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="36.42" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="6.998" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -3868,13 +3497,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="6">
-        <v>230053</v>
-      </c>
-      <c r="C7" s="6">
-        <v>3101430477</v>
+        <v>230002</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -3883,13 +3512,13 @@
         <v>2</v>
       </c>
       <c r="B8" s="6">
-        <v>230054</v>
-      </c>
-      <c r="C8" s="6">
-        <v>3116220586</v>
+        <v>230366</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -3898,13 +3527,13 @@
         <v>3</v>
       </c>
       <c r="B9" s="6">
-        <v>230055</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>13</v>
+        <v>11111</v>
+      </c>
+      <c r="C9" s="6">
+        <v>11111</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -3913,13 +3542,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="6">
-        <v>230056</v>
+        <v>222222</v>
       </c>
       <c r="C10" s="6">
-        <v>3110455563</v>
+        <v>2222222</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E10" s="2"/>
     </row>
@@ -3928,10 +3557,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="6">
-        <v>230057</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>16</v>
+        <v>3333333</v>
+      </c>
+      <c r="C11" s="6">
+        <v>333333</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>17</v>
@@ -3943,10 +3572,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="6">
-        <v>230058</v>
+        <v>230003</v>
       </c>
       <c r="C12" s="6">
-        <v>3113157241</v>
+        <v>3109565212</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>18</v>
@@ -3958,7 +3587,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="6">
-        <v>230059</v>
+        <v>230004</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>19</v>
@@ -3973,13 +3602,13 @@
         <v>8</v>
       </c>
       <c r="B14" s="6">
-        <v>230060</v>
-      </c>
-      <c r="C14" s="6">
-        <v>3101079504</v>
+        <v>230005</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14" s="2"/>
     </row>
@@ -3988,13 +3617,13 @@
         <v>9</v>
       </c>
       <c r="B15" s="6">
-        <v>230061</v>
-      </c>
-      <c r="C15" s="6">
-        <v>3113515171</v>
+        <v>230006</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E15" s="2"/>
     </row>
@@ -4003,13 +3632,13 @@
         <v>10</v>
       </c>
       <c r="B16" s="6">
-        <v>230062</v>
-      </c>
-      <c r="C16" s="6">
-        <v>3119851999</v>
+        <v>230007</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E16" s="2"/>
     </row>
@@ -4018,13 +3647,13 @@
         <v>11</v>
       </c>
       <c r="B17" s="6">
-        <v>230063</v>
-      </c>
-      <c r="C17" s="6">
-        <v>3112362107</v>
+        <v>230008</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E17" s="2"/>
     </row>
@@ -4033,13 +3662,13 @@
         <v>12</v>
       </c>
       <c r="B18" s="6">
-        <v>230064</v>
+        <v>230009</v>
       </c>
       <c r="C18" s="6">
-        <v>3111690689</v>
+        <v>3119070390</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E18" s="2"/>
     </row>
@@ -4048,13 +3677,13 @@
         <v>13</v>
       </c>
       <c r="B19" s="6">
-        <v>230065</v>
+        <v>230010</v>
       </c>
       <c r="C19" s="6">
-        <v>3113958253</v>
+        <v>3100706408</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E19" s="2"/>
     </row>
@@ -4063,13 +3692,13 @@
         <v>14</v>
       </c>
       <c r="B20" s="6">
-        <v>230066</v>
-      </c>
-      <c r="C20" s="6">
-        <v>3102668367</v>
+        <v>230011</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E20" s="2"/>
     </row>
@@ -4078,13 +3707,13 @@
         <v>15</v>
       </c>
       <c r="B21" s="6">
-        <v>230067</v>
-      </c>
-      <c r="C21" s="6">
-        <v>3111001858</v>
+        <v>230012</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E21" s="2"/>
     </row>
@@ -4093,13 +3722,13 @@
         <v>16</v>
       </c>
       <c r="B22" s="6">
-        <v>230068</v>
+        <v>230013</v>
       </c>
       <c r="C22" s="6">
-        <v>3118966437</v>
+        <v>3115914423</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E22" s="2"/>
     </row>
@@ -4108,13 +3737,13 @@
         <v>17</v>
       </c>
       <c r="B23" s="6">
-        <v>230069</v>
-      </c>
-      <c r="C23" s="6">
-        <v>3107564333</v>
+        <v>230014</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E23" s="2"/>
     </row>
@@ -4123,13 +3752,13 @@
         <v>18</v>
       </c>
       <c r="B24" s="6">
-        <v>230070</v>
-      </c>
-      <c r="C24" s="6">
-        <v>3104234312</v>
+        <v>230015</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E24" s="2"/>
     </row>
@@ -4138,13 +3767,13 @@
         <v>19</v>
       </c>
       <c r="B25" s="6">
-        <v>230071</v>
+        <v>230016</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E25" s="2"/>
     </row>
@@ -4153,13 +3782,13 @@
         <v>20</v>
       </c>
       <c r="B26" s="6">
-        <v>230072</v>
-      </c>
-      <c r="C26" s="6">
-        <v>3117704600</v>
+        <v>230018</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E26" s="2"/>
     </row>
@@ -4168,13 +3797,13 @@
         <v>21</v>
       </c>
       <c r="B27" s="6">
-        <v>230073</v>
+        <v>230019</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E27" s="2"/>
     </row>
@@ -4183,13 +3812,13 @@
         <v>22</v>
       </c>
       <c r="B28" s="6">
-        <v>230074</v>
-      </c>
-      <c r="C28" s="6">
-        <v>3115017824</v>
+        <v>230020</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E28" s="2"/>
     </row>
@@ -4198,13 +3827,13 @@
         <v>23</v>
       </c>
       <c r="B29" s="6">
-        <v>230075</v>
+        <v>230021</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E29" s="2"/>
     </row>
@@ -4213,13 +3842,13 @@
         <v>24</v>
       </c>
       <c r="B30" s="6">
-        <v>230076</v>
+        <v>11101</v>
       </c>
       <c r="C30" s="6">
-        <v>3110277952</v>
+        <v>112312</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E30" s="2"/>
     </row>
@@ -4228,13 +3857,13 @@
         <v>25</v>
       </c>
       <c r="B31" s="6">
-        <v>230077</v>
+        <v>112334</v>
       </c>
       <c r="C31" s="6">
-        <v>3110772564</v>
+        <v>12121212</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E31" s="2"/>
     </row>
@@ -4243,13 +3872,13 @@
         <v>26</v>
       </c>
       <c r="B32" s="6">
-        <v>230078</v>
+        <v>10999</v>
       </c>
       <c r="C32" s="6">
-        <v>3105555155</v>
+        <v>12123</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E32" s="2"/>
     </row>
@@ -4258,13 +3887,13 @@
         <v>27</v>
       </c>
       <c r="B33" s="6">
-        <v>230079</v>
+        <v>111222</v>
       </c>
       <c r="C33" s="6">
-        <v>3112897238</v>
+        <v>11111</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E33" s="2"/>
     </row>
@@ -4273,13 +3902,13 @@
         <v>28</v>
       </c>
       <c r="B34" s="6">
-        <v>230080</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>44</v>
+        <v>987</v>
+      </c>
+      <c r="C34" s="6">
+        <v>545645</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E34" s="2"/>
     </row>
@@ -4288,13 +3917,13 @@
         <v>29</v>
       </c>
       <c r="B35" s="6">
-        <v>230081</v>
+        <v>456</v>
       </c>
       <c r="C35" s="6">
-        <v>3110688109</v>
+        <v>121</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E35" s="2"/>
     </row>
@@ -4303,13 +3932,13 @@
         <v>30</v>
       </c>
       <c r="B36" s="6">
-        <v>230082</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>47</v>
+        <v>1212122</v>
+      </c>
+      <c r="C36" s="6">
+        <v>111</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E36" s="2"/>
     </row>
@@ -4318,90 +3947,15 @@
         <v>31</v>
       </c>
       <c r="B37" s="6">
-        <v>230083</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>49</v>
+        <v>3334</v>
+      </c>
+      <c r="C37" s="6">
+        <v>121</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="6">
-        <v>32</v>
-      </c>
-      <c r="B38" s="6">
-        <v>230084</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="6">
-        <v>33</v>
-      </c>
-      <c r="B39" s="6">
-        <v>230085</v>
-      </c>
-      <c r="C39" s="6">
-        <v>3111425938</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="6">
-        <v>34</v>
-      </c>
-      <c r="B40" s="6">
-        <v>230086</v>
-      </c>
-      <c r="C40" s="6">
-        <v>3113480787</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="6">
-        <v>35</v>
-      </c>
-      <c r="B41" s="6">
-        <v>230087</v>
-      </c>
-      <c r="C41" s="6">
-        <v>3109391907</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="6">
-        <v>36</v>
-      </c>
-      <c r="B42" s="6">
-        <v>230088</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E42" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -4429,18 +3983,18 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E42" sqref="E42"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="8.141" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="8.141" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="13.997" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="35.277" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="36.42" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="6.998" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -4495,13 +4049,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="6">
-        <v>230053</v>
-      </c>
-      <c r="C7" s="6">
-        <v>3101430477</v>
+        <v>230002</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -4510,13 +4064,13 @@
         <v>2</v>
       </c>
       <c r="B8" s="6">
-        <v>230054</v>
-      </c>
-      <c r="C8" s="6">
-        <v>3116220586</v>
+        <v>230366</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -4525,13 +4079,13 @@
         <v>3</v>
       </c>
       <c r="B9" s="6">
-        <v>230055</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>13</v>
+        <v>11111</v>
+      </c>
+      <c r="C9" s="6">
+        <v>11111</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -4540,13 +4094,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="6">
-        <v>230056</v>
+        <v>222222</v>
       </c>
       <c r="C10" s="6">
-        <v>3110455563</v>
+        <v>2222222</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E10" s="2"/>
     </row>
@@ -4555,10 +4109,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="6">
-        <v>230057</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>16</v>
+        <v>3333333</v>
+      </c>
+      <c r="C11" s="6">
+        <v>333333</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>17</v>
@@ -4570,10 +4124,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="6">
-        <v>230058</v>
+        <v>230003</v>
       </c>
       <c r="C12" s="6">
-        <v>3113157241</v>
+        <v>3109565212</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>18</v>
@@ -4585,7 +4139,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="6">
-        <v>230059</v>
+        <v>230004</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>19</v>
@@ -4600,13 +4154,13 @@
         <v>8</v>
       </c>
       <c r="B14" s="6">
-        <v>230060</v>
-      </c>
-      <c r="C14" s="6">
-        <v>3101079504</v>
+        <v>230005</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14" s="2"/>
     </row>
@@ -4615,13 +4169,13 @@
         <v>9</v>
       </c>
       <c r="B15" s="6">
-        <v>230061</v>
-      </c>
-      <c r="C15" s="6">
-        <v>3113515171</v>
+        <v>230006</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E15" s="2"/>
     </row>
@@ -4630,13 +4184,13 @@
         <v>10</v>
       </c>
       <c r="B16" s="6">
-        <v>230062</v>
-      </c>
-      <c r="C16" s="6">
-        <v>3119851999</v>
+        <v>230007</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E16" s="2"/>
     </row>
@@ -4645,13 +4199,13 @@
         <v>11</v>
       </c>
       <c r="B17" s="6">
-        <v>230063</v>
-      </c>
-      <c r="C17" s="6">
-        <v>3112362107</v>
+        <v>230008</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E17" s="2"/>
     </row>
@@ -4660,13 +4214,13 @@
         <v>12</v>
       </c>
       <c r="B18" s="6">
-        <v>230064</v>
+        <v>230009</v>
       </c>
       <c r="C18" s="6">
-        <v>3111690689</v>
+        <v>3119070390</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E18" s="2"/>
     </row>
@@ -4675,13 +4229,13 @@
         <v>13</v>
       </c>
       <c r="B19" s="6">
-        <v>230065</v>
+        <v>230010</v>
       </c>
       <c r="C19" s="6">
-        <v>3113958253</v>
+        <v>3100706408</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E19" s="2"/>
     </row>
@@ -4690,13 +4244,13 @@
         <v>14</v>
       </c>
       <c r="B20" s="6">
-        <v>230066</v>
-      </c>
-      <c r="C20" s="6">
-        <v>3102668367</v>
+        <v>230011</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E20" s="2"/>
     </row>
@@ -4705,13 +4259,13 @@
         <v>15</v>
       </c>
       <c r="B21" s="6">
-        <v>230067</v>
-      </c>
-      <c r="C21" s="6">
-        <v>3111001858</v>
+        <v>230012</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E21" s="2"/>
     </row>
@@ -4720,13 +4274,13 @@
         <v>16</v>
       </c>
       <c r="B22" s="6">
-        <v>230068</v>
+        <v>230013</v>
       </c>
       <c r="C22" s="6">
-        <v>3118966437</v>
+        <v>3115914423</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E22" s="2"/>
     </row>
@@ -4735,13 +4289,13 @@
         <v>17</v>
       </c>
       <c r="B23" s="6">
-        <v>230069</v>
-      </c>
-      <c r="C23" s="6">
-        <v>3107564333</v>
+        <v>230014</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E23" s="2"/>
     </row>
@@ -4750,13 +4304,13 @@
         <v>18</v>
       </c>
       <c r="B24" s="6">
-        <v>230070</v>
-      </c>
-      <c r="C24" s="6">
-        <v>3104234312</v>
+        <v>230015</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E24" s="2"/>
     </row>
@@ -4765,13 +4319,13 @@
         <v>19</v>
       </c>
       <c r="B25" s="6">
-        <v>230071</v>
+        <v>230016</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E25" s="2"/>
     </row>
@@ -4780,13 +4334,13 @@
         <v>20</v>
       </c>
       <c r="B26" s="6">
-        <v>230072</v>
-      </c>
-      <c r="C26" s="6">
-        <v>3117704600</v>
+        <v>230018</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E26" s="2"/>
     </row>
@@ -4795,13 +4349,13 @@
         <v>21</v>
       </c>
       <c r="B27" s="6">
-        <v>230073</v>
+        <v>230019</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E27" s="2"/>
     </row>
@@ -4810,13 +4364,13 @@
         <v>22</v>
       </c>
       <c r="B28" s="6">
-        <v>230074</v>
-      </c>
-      <c r="C28" s="6">
-        <v>3115017824</v>
+        <v>230020</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E28" s="2"/>
     </row>
@@ -4825,13 +4379,13 @@
         <v>23</v>
       </c>
       <c r="B29" s="6">
-        <v>230075</v>
+        <v>230021</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E29" s="2"/>
     </row>
@@ -4840,13 +4394,13 @@
         <v>24</v>
       </c>
       <c r="B30" s="6">
-        <v>230076</v>
+        <v>11101</v>
       </c>
       <c r="C30" s="6">
-        <v>3110277952</v>
+        <v>112312</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E30" s="2"/>
     </row>
@@ -4855,13 +4409,13 @@
         <v>25</v>
       </c>
       <c r="B31" s="6">
-        <v>230077</v>
+        <v>112334</v>
       </c>
       <c r="C31" s="6">
-        <v>3110772564</v>
+        <v>12121212</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E31" s="2"/>
     </row>
@@ -4870,13 +4424,13 @@
         <v>26</v>
       </c>
       <c r="B32" s="6">
-        <v>230078</v>
+        <v>10999</v>
       </c>
       <c r="C32" s="6">
-        <v>3105555155</v>
+        <v>12123</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E32" s="2"/>
     </row>
@@ -4885,13 +4439,13 @@
         <v>27</v>
       </c>
       <c r="B33" s="6">
-        <v>230079</v>
+        <v>111222</v>
       </c>
       <c r="C33" s="6">
-        <v>3112897238</v>
+        <v>11111</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E33" s="2"/>
     </row>
@@ -4900,13 +4454,13 @@
         <v>28</v>
       </c>
       <c r="B34" s="6">
-        <v>230080</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>44</v>
+        <v>987</v>
+      </c>
+      <c r="C34" s="6">
+        <v>545645</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E34" s="2"/>
     </row>
@@ -4915,13 +4469,13 @@
         <v>29</v>
       </c>
       <c r="B35" s="6">
-        <v>230081</v>
+        <v>456</v>
       </c>
       <c r="C35" s="6">
-        <v>3110688109</v>
+        <v>121</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E35" s="2"/>
     </row>
@@ -4930,13 +4484,13 @@
         <v>30</v>
       </c>
       <c r="B36" s="6">
-        <v>230082</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>47</v>
+        <v>1212122</v>
+      </c>
+      <c r="C36" s="6">
+        <v>111</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E36" s="2"/>
     </row>
@@ -4945,90 +4499,15 @@
         <v>31</v>
       </c>
       <c r="B37" s="6">
-        <v>230083</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>49</v>
+        <v>3334</v>
+      </c>
+      <c r="C37" s="6">
+        <v>121</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="6">
-        <v>32</v>
-      </c>
-      <c r="B38" s="6">
-        <v>230084</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="6">
-        <v>33</v>
-      </c>
-      <c r="B39" s="6">
-        <v>230085</v>
-      </c>
-      <c r="C39" s="6">
-        <v>3111425938</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="6">
-        <v>34</v>
-      </c>
-      <c r="B40" s="6">
-        <v>230086</v>
-      </c>
-      <c r="C40" s="6">
-        <v>3113480787</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="6">
-        <v>35</v>
-      </c>
-      <c r="B41" s="6">
-        <v>230087</v>
-      </c>
-      <c r="C41" s="6">
-        <v>3109391907</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="6">
-        <v>36</v>
-      </c>
-      <c r="B42" s="6">
-        <v>230088</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E42" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -5056,18 +4535,18 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E42" sqref="E42"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="8.141" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="8.141" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="13.997" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="35.277" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="36.42" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="6.998" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -5122,13 +4601,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="6">
-        <v>230053</v>
-      </c>
-      <c r="C7" s="6">
-        <v>3101430477</v>
+        <v>230002</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -5137,13 +4616,13 @@
         <v>2</v>
       </c>
       <c r="B8" s="6">
-        <v>230054</v>
-      </c>
-      <c r="C8" s="6">
-        <v>3116220586</v>
+        <v>230366</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -5152,13 +4631,13 @@
         <v>3</v>
       </c>
       <c r="B9" s="6">
-        <v>230055</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>13</v>
+        <v>11111</v>
+      </c>
+      <c r="C9" s="6">
+        <v>11111</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -5167,13 +4646,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="6">
-        <v>230056</v>
+        <v>222222</v>
       </c>
       <c r="C10" s="6">
-        <v>3110455563</v>
+        <v>2222222</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E10" s="2"/>
     </row>
@@ -5182,10 +4661,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="6">
-        <v>230057</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>16</v>
+        <v>3333333</v>
+      </c>
+      <c r="C11" s="6">
+        <v>333333</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>17</v>
@@ -5197,10 +4676,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="6">
-        <v>230058</v>
+        <v>230003</v>
       </c>
       <c r="C12" s="6">
-        <v>3113157241</v>
+        <v>3109565212</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>18</v>
@@ -5212,7 +4691,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="6">
-        <v>230059</v>
+        <v>230004</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>19</v>
@@ -5227,13 +4706,13 @@
         <v>8</v>
       </c>
       <c r="B14" s="6">
-        <v>230060</v>
-      </c>
-      <c r="C14" s="6">
-        <v>3101079504</v>
+        <v>230005</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14" s="2"/>
     </row>
@@ -5242,13 +4721,13 @@
         <v>9</v>
       </c>
       <c r="B15" s="6">
-        <v>230061</v>
-      </c>
-      <c r="C15" s="6">
-        <v>3113515171</v>
+        <v>230006</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E15" s="2"/>
     </row>
@@ -5257,13 +4736,13 @@
         <v>10</v>
       </c>
       <c r="B16" s="6">
-        <v>230062</v>
-      </c>
-      <c r="C16" s="6">
-        <v>3119851999</v>
+        <v>230007</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E16" s="2"/>
     </row>
@@ -5272,13 +4751,13 @@
         <v>11</v>
       </c>
       <c r="B17" s="6">
-        <v>230063</v>
-      </c>
-      <c r="C17" s="6">
-        <v>3112362107</v>
+        <v>230008</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E17" s="2"/>
     </row>
@@ -5287,13 +4766,13 @@
         <v>12</v>
       </c>
       <c r="B18" s="6">
-        <v>230064</v>
+        <v>230009</v>
       </c>
       <c r="C18" s="6">
-        <v>3111690689</v>
+        <v>3119070390</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E18" s="2"/>
     </row>
@@ -5302,13 +4781,13 @@
         <v>13</v>
       </c>
       <c r="B19" s="6">
-        <v>230065</v>
+        <v>230010</v>
       </c>
       <c r="C19" s="6">
-        <v>3113958253</v>
+        <v>3100706408</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E19" s="2"/>
     </row>
@@ -5317,13 +4796,13 @@
         <v>14</v>
       </c>
       <c r="B20" s="6">
-        <v>230066</v>
-      </c>
-      <c r="C20" s="6">
-        <v>3102668367</v>
+        <v>230011</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E20" s="2"/>
     </row>
@@ -5332,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B21" s="6">
-        <v>230067</v>
-      </c>
-      <c r="C21" s="6">
-        <v>3111001858</v>
+        <v>230012</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E21" s="2"/>
     </row>
@@ -5347,13 +4826,13 @@
         <v>16</v>
       </c>
       <c r="B22" s="6">
-        <v>230068</v>
+        <v>230013</v>
       </c>
       <c r="C22" s="6">
-        <v>3118966437</v>
+        <v>3115914423</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E22" s="2"/>
     </row>
@@ -5362,13 +4841,13 @@
         <v>17</v>
       </c>
       <c r="B23" s="6">
-        <v>230069</v>
-      </c>
-      <c r="C23" s="6">
-        <v>3107564333</v>
+        <v>230014</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E23" s="2"/>
     </row>
@@ -5377,13 +4856,13 @@
         <v>18</v>
       </c>
       <c r="B24" s="6">
-        <v>230070</v>
-      </c>
-      <c r="C24" s="6">
-        <v>3104234312</v>
+        <v>230015</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E24" s="2"/>
     </row>
@@ -5392,13 +4871,13 @@
         <v>19</v>
       </c>
       <c r="B25" s="6">
-        <v>230071</v>
+        <v>230016</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E25" s="2"/>
     </row>
@@ -5407,13 +4886,13 @@
         <v>20</v>
       </c>
       <c r="B26" s="6">
-        <v>230072</v>
-      </c>
-      <c r="C26" s="6">
-        <v>3117704600</v>
+        <v>230018</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E26" s="2"/>
     </row>
@@ -5422,13 +4901,13 @@
         <v>21</v>
       </c>
       <c r="B27" s="6">
-        <v>230073</v>
+        <v>230019</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E27" s="2"/>
     </row>
@@ -5437,13 +4916,13 @@
         <v>22</v>
       </c>
       <c r="B28" s="6">
-        <v>230074</v>
-      </c>
-      <c r="C28" s="6">
-        <v>3115017824</v>
+        <v>230020</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E28" s="2"/>
     </row>
@@ -5452,13 +4931,13 @@
         <v>23</v>
       </c>
       <c r="B29" s="6">
-        <v>230075</v>
+        <v>230021</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E29" s="2"/>
     </row>
@@ -5467,13 +4946,13 @@
         <v>24</v>
       </c>
       <c r="B30" s="6">
-        <v>230076</v>
+        <v>11101</v>
       </c>
       <c r="C30" s="6">
-        <v>3110277952</v>
+        <v>112312</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E30" s="2"/>
     </row>
@@ -5482,13 +4961,13 @@
         <v>25</v>
       </c>
       <c r="B31" s="6">
-        <v>230077</v>
+        <v>112334</v>
       </c>
       <c r="C31" s="6">
-        <v>3110772564</v>
+        <v>12121212</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E31" s="2"/>
     </row>
@@ -5497,13 +4976,13 @@
         <v>26</v>
       </c>
       <c r="B32" s="6">
-        <v>230078</v>
+        <v>10999</v>
       </c>
       <c r="C32" s="6">
-        <v>3105555155</v>
+        <v>12123</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E32" s="2"/>
     </row>
@@ -5512,13 +4991,13 @@
         <v>27</v>
       </c>
       <c r="B33" s="6">
-        <v>230079</v>
+        <v>111222</v>
       </c>
       <c r="C33" s="6">
-        <v>3112897238</v>
+        <v>11111</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E33" s="2"/>
     </row>
@@ -5527,13 +5006,13 @@
         <v>28</v>
       </c>
       <c r="B34" s="6">
-        <v>230080</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>44</v>
+        <v>987</v>
+      </c>
+      <c r="C34" s="6">
+        <v>545645</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E34" s="2"/>
     </row>
@@ -5542,13 +5021,13 @@
         <v>29</v>
       </c>
       <c r="B35" s="6">
-        <v>230081</v>
+        <v>456</v>
       </c>
       <c r="C35" s="6">
-        <v>3110688109</v>
+        <v>121</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E35" s="2"/>
     </row>
@@ -5557,13 +5036,13 @@
         <v>30</v>
       </c>
       <c r="B36" s="6">
-        <v>230082</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>47</v>
+        <v>1212122</v>
+      </c>
+      <c r="C36" s="6">
+        <v>111</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E36" s="2"/>
     </row>
@@ -5572,90 +5051,15 @@
         <v>31</v>
       </c>
       <c r="B37" s="6">
-        <v>230083</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>49</v>
+        <v>3334</v>
+      </c>
+      <c r="C37" s="6">
+        <v>121</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="6">
-        <v>32</v>
-      </c>
-      <c r="B38" s="6">
-        <v>230084</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="6">
-        <v>33</v>
-      </c>
-      <c r="B39" s="6">
-        <v>230085</v>
-      </c>
-      <c r="C39" s="6">
-        <v>3111425938</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="6">
-        <v>34</v>
-      </c>
-      <c r="B40" s="6">
-        <v>230086</v>
-      </c>
-      <c r="C40" s="6">
-        <v>3113480787</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="6">
-        <v>35</v>
-      </c>
-      <c r="B41" s="6">
-        <v>230087</v>
-      </c>
-      <c r="C41" s="6">
-        <v>3109391907</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="6">
-        <v>36</v>
-      </c>
-      <c r="B42" s="6">
-        <v>230088</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E42" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
